--- a/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301FF7B-7D10-4F79-9D26-AE3D60AD6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94EA9B-D5C1-4EC1-A5A5-87B98FEF2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1519,95 +1519,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>468407</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>524854</v>
       </c>
       <c r="AA11" s="11">
-        <v>468407</v>
+        <v>529010</v>
       </c>
       <c r="AB11" s="11">
-        <v>524854</v>
+        <v>526158</v>
       </c>
       <c r="AC11" s="11">
-        <v>529010</v>
+        <v>535181</v>
       </c>
       <c r="AD11" s="11">
-        <v>526158</v>
+        <v>453081</v>
       </c>
       <c r="AE11" s="11">
-        <v>535181</v>
+        <v>493368</v>
       </c>
       <c r="AF11" s="11">
-        <v>453081</v>
+        <v>355713</v>
       </c>
       <c r="AG11" s="11">
-        <v>493368</v>
+        <v>261605</v>
       </c>
       <c r="AH11" s="11">
-        <v>355713</v>
+        <v>505905</v>
       </c>
       <c r="AI11" s="11">
-        <v>261605</v>
+        <v>534781</v>
       </c>
       <c r="AJ11" s="11">
-        <v>505905</v>
+        <v>527785</v>
       </c>
       <c r="AK11" s="11">
-        <v>534781</v>
+        <v>405444</v>
       </c>
       <c r="AL11" s="11">
-        <v>527785</v>
+        <v>420236</v>
       </c>
       <c r="AM11" s="11">
-        <v>405444</v>
+        <v>367497</v>
       </c>
       <c r="AN11" s="11">
-        <v>420236</v>
+        <v>430395</v>
       </c>
       <c r="AO11" s="11">
-        <v>367497</v>
+        <v>513633</v>
       </c>
       <c r="AP11" s="11">
-        <v>430395</v>
+        <v>528153</v>
       </c>
       <c r="AQ11" s="11">
-        <v>513633</v>
+        <v>469388</v>
       </c>
       <c r="AR11" s="11">
-        <v>528153</v>
+        <v>423442</v>
       </c>
       <c r="AS11" s="11">
-        <v>469388</v>
+        <v>495064</v>
       </c>
       <c r="AT11" s="11">
-        <v>423442</v>
+        <v>422178</v>
       </c>
       <c r="AU11" s="11">
-        <v>495064</v>
+        <v>286562</v>
       </c>
       <c r="AV11" s="11">
-        <v>422178</v>
+        <v>457458</v>
       </c>
       <c r="AW11" s="11">
-        <v>286562</v>
+        <v>433810</v>
       </c>
       <c r="AX11" s="11">
-        <v>457458</v>
+        <v>568559</v>
       </c>
       <c r="AY11" s="11">
-        <v>433810</v>
+        <v>502675</v>
       </c>
       <c r="AZ11" s="11">
-        <v>568559</v>
+        <v>522404</v>
       </c>
       <c r="BA11" s="11">
-        <v>502675</v>
+        <v>493162</v>
       </c>
       <c r="BB11" s="11">
-        <v>522404</v>
+        <v>530291</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1735,38 +1735,38 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>124516</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>157204</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>162356</v>
       </c>
       <c r="AU12" s="13">
-        <v>157204</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>58</v>
+        <v>158524</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>165783</v>
       </c>
       <c r="AW12" s="13">
-        <v>158524</v>
+        <v>121091</v>
       </c>
       <c r="AX12" s="13">
-        <v>165783</v>
+        <v>76607</v>
       </c>
       <c r="AY12" s="13">
-        <v>121091</v>
+        <v>78624</v>
       </c>
       <c r="AZ12" s="13">
-        <v>76607</v>
+        <v>105781</v>
       </c>
       <c r="BA12" s="13">
-        <v>78624</v>
+        <v>102583</v>
       </c>
       <c r="BB12" s="13">
-        <v>105781</v>
+        <v>81505</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1873,59 +1873,59 @@
       <c r="AJ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>58</v>
+      <c r="AK13" s="11">
+        <v>172127</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>156686</v>
       </c>
       <c r="AM13" s="11">
-        <v>172127</v>
+        <v>228863</v>
       </c>
       <c r="AN13" s="11">
-        <v>156686</v>
+        <v>315803</v>
       </c>
       <c r="AO13" s="11">
-        <v>228863</v>
+        <v>331127</v>
       </c>
       <c r="AP13" s="11">
-        <v>315803</v>
+        <v>326475</v>
       </c>
       <c r="AQ13" s="11">
-        <v>331127</v>
+        <v>269811</v>
       </c>
       <c r="AR13" s="11">
-        <v>326475</v>
+        <v>232317</v>
       </c>
       <c r="AS13" s="11">
-        <v>269811</v>
+        <v>315531</v>
       </c>
       <c r="AT13" s="11">
-        <v>232317</v>
+        <v>373392</v>
       </c>
       <c r="AU13" s="11">
-        <v>315531</v>
+        <v>354970</v>
       </c>
       <c r="AV13" s="11">
-        <v>373392</v>
+        <v>330358</v>
       </c>
       <c r="AW13" s="11">
-        <v>354970</v>
+        <v>213095</v>
       </c>
       <c r="AX13" s="11">
-        <v>330358</v>
+        <v>245969</v>
       </c>
       <c r="AY13" s="11">
-        <v>213095</v>
+        <v>318943</v>
       </c>
       <c r="AZ13" s="11">
-        <v>245969</v>
+        <v>339118</v>
       </c>
       <c r="BA13" s="11">
-        <v>318943</v>
+        <v>344624</v>
       </c>
       <c r="BB13" s="11">
-        <v>339118</v>
+        <v>271404</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1996,77 +1996,77 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>108370</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>104006</v>
       </c>
       <c r="AA14" s="13">
-        <v>108370</v>
+        <v>119061</v>
       </c>
       <c r="AB14" s="13">
-        <v>104006</v>
+        <v>143370</v>
       </c>
       <c r="AC14" s="13">
-        <v>119061</v>
+        <v>113940</v>
       </c>
       <c r="AD14" s="13">
-        <v>143370</v>
+        <v>120782</v>
       </c>
       <c r="AE14" s="13">
-        <v>113940</v>
+        <v>115821</v>
       </c>
       <c r="AF14" s="13">
-        <v>120782</v>
+        <v>113508</v>
       </c>
       <c r="AG14" s="13">
-        <v>115821</v>
+        <v>151160</v>
       </c>
       <c r="AH14" s="13">
-        <v>113508</v>
+        <v>147352</v>
       </c>
       <c r="AI14" s="13">
-        <v>151160</v>
+        <v>160975</v>
       </c>
       <c r="AJ14" s="13">
-        <v>147352</v>
+        <v>161391</v>
       </c>
       <c r="AK14" s="13">
-        <v>160975</v>
+        <v>87763</v>
       </c>
       <c r="AL14" s="13">
-        <v>161391</v>
+        <v>107494</v>
       </c>
       <c r="AM14" s="13">
-        <v>87763</v>
+        <v>135660</v>
       </c>
       <c r="AN14" s="13">
-        <v>107494</v>
+        <v>179213</v>
       </c>
       <c r="AO14" s="13">
-        <v>135660</v>
+        <v>172621</v>
       </c>
       <c r="AP14" s="13">
-        <v>179213</v>
+        <v>155418</v>
       </c>
       <c r="AQ14" s="13">
-        <v>172621</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>155418</v>
-      </c>
-      <c r="AS14" s="13">
         <v>161008</v>
       </c>
-      <c r="AT14" s="13">
-        <v>124516</v>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV14" s="13">
-        <v>162356</v>
+      <c r="AV14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW14" s="13" t="s">
         <v>58</v>
@@ -2212,38 +2212,38 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>149014</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>163728</v>
       </c>
       <c r="AT15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU15" s="11">
-        <v>163728</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>58</v>
+      <c r="AU15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>138868</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>77913</v>
       </c>
       <c r="AX15" s="11">
-        <v>138868</v>
+        <v>158592</v>
       </c>
       <c r="AY15" s="11">
-        <v>77913</v>
+        <v>244246</v>
       </c>
       <c r="AZ15" s="11">
-        <v>158592</v>
+        <v>223132</v>
       </c>
       <c r="BA15" s="11">
-        <v>244246</v>
+        <v>219798</v>
       </c>
       <c r="BB15" s="11">
-        <v>223132</v>
+        <v>230549</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2314,11 +2314,11 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
         <v>0</v>
@@ -2341,11 +2341,11 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2473,77 +2473,77 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>219024</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>199764</v>
       </c>
       <c r="AA17" s="11">
-        <v>219024</v>
+        <v>202314</v>
       </c>
       <c r="AB17" s="11">
-        <v>199764</v>
+        <v>156270</v>
       </c>
       <c r="AC17" s="11">
-        <v>202314</v>
+        <v>200274</v>
       </c>
       <c r="AD17" s="11">
-        <v>156270</v>
+        <v>207824</v>
       </c>
       <c r="AE17" s="11">
-        <v>200274</v>
+        <v>175040</v>
       </c>
       <c r="AF17" s="11">
-        <v>207824</v>
+        <v>147085</v>
       </c>
       <c r="AG17" s="11">
-        <v>175040</v>
+        <v>161729</v>
       </c>
       <c r="AH17" s="11">
-        <v>147085</v>
+        <v>181654</v>
       </c>
       <c r="AI17" s="11">
-        <v>161729</v>
+        <v>145020</v>
       </c>
       <c r="AJ17" s="11">
-        <v>181654</v>
+        <v>131140</v>
       </c>
       <c r="AK17" s="11">
-        <v>145020</v>
+        <v>58207</v>
       </c>
       <c r="AL17" s="11">
-        <v>131140</v>
+        <v>37635</v>
       </c>
       <c r="AM17" s="11">
-        <v>58207</v>
+        <v>72668</v>
       </c>
       <c r="AN17" s="11">
-        <v>37635</v>
+        <v>138733</v>
       </c>
       <c r="AO17" s="11">
-        <v>72668</v>
+        <v>170203</v>
       </c>
       <c r="AP17" s="11">
-        <v>138733</v>
+        <v>176986</v>
       </c>
       <c r="AQ17" s="11">
-        <v>170203</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>176986</v>
-      </c>
-      <c r="AS17" s="11">
         <v>157115</v>
       </c>
-      <c r="AT17" s="11">
-        <v>149014</v>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV17" s="11">
-        <v>188789</v>
+      <c r="AV17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW17" s="11" t="s">
         <v>58</v>
@@ -2695,17 +2695,17 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>188789</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>173220</v>
       </c>
       <c r="AV18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW18" s="13">
-        <v>173220</v>
+      <c r="AW18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX18" s="13" t="s">
         <v>58</v>
@@ -2791,11 +2791,11 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2818,11 +2818,11 @@
       <c r="AG19" s="11">
         <v>0</v>
       </c>
-      <c r="AH19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>0</v>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>58</v>
@@ -2949,94 +2949,94 @@
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="Z20" s="15">
-        <v>0</v>
+        <v>828624</v>
       </c>
       <c r="AA20" s="15">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="AB20" s="15">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AC20" s="15">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AD20" s="15">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AE20" s="15">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AF20" s="15">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AG20" s="15">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AH20" s="15">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AI20" s="15">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AJ20" s="15">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AK20" s="15">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AL20" s="15">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AM20" s="15">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AN20" s="15">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AO20" s="15">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AP20" s="15">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AQ20" s="15">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AR20" s="15">
-        <v>1187032</v>
+        <v>929289</v>
       </c>
       <c r="AS20" s="15">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AT20" s="15">
-        <v>929289</v>
+        <v>1146715</v>
       </c>
       <c r="AU20" s="15">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AV20" s="15">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AW20" s="15">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AX20" s="15">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AY20" s="15">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AZ20" s="15">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="BA20" s="15">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="BB20" s="15">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3221,23 +3221,23 @@
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>0</v>
       </c>
       <c r="AX22" s="11">
         <v>0</v>
@@ -3380,11 +3380,11 @@
       <c r="AQ23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="13" t="s">
-        <v>58</v>
+      <c r="AR23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>0</v>
       </c>
       <c r="AT23" s="13" t="s">
         <v>58</v>
@@ -3392,11 +3392,11 @@
       <c r="AU23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW23" s="13" t="s">
-        <v>58</v>
+      <c r="AV23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="13">
+        <v>0</v>
       </c>
       <c r="AX23" s="13">
         <v>0</v>
@@ -3482,11 +3482,11 @@
       <c r="X24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>58</v>
+      <c r="Y24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0</v>
       </c>
       <c r="AA24" s="11">
         <v>0</v>
@@ -3512,11 +3512,11 @@
       <c r="AH24" s="11">
         <v>0</v>
       </c>
-      <c r="AI24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="11">
-        <v>0</v>
+      <c r="AI24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK24" s="11" t="s">
         <v>58</v>
@@ -3698,11 +3698,11 @@
       <c r="AQ25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="13" t="s">
-        <v>58</v>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>0</v>
       </c>
       <c r="AT25" s="13" t="s">
         <v>58</v>
@@ -3710,11 +3710,11 @@
       <c r="AU25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW25" s="13" t="s">
-        <v>58</v>
+      <c r="AV25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>0</v>
       </c>
       <c r="AX25" s="13">
         <v>0</v>
@@ -3800,11 +3800,11 @@
       <c r="X26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>58</v>
+      <c r="Y26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0</v>
       </c>
       <c r="AA26" s="11">
         <v>0</v>
@@ -3827,11 +3827,11 @@
       <c r="AG26" s="11">
         <v>0</v>
       </c>
-      <c r="AH26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="11">
-        <v>0</v>
+      <c r="AH26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ26" s="11" t="s">
         <v>58</v>
@@ -3857,11 +3857,11 @@
       <c r="AQ26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>58</v>
+      <c r="AR26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>0</v>
       </c>
       <c r="AT26" s="11" t="s">
         <v>58</v>
@@ -3959,11 +3959,11 @@
       <c r="X27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
       </c>
       <c r="AA27" s="13">
         <v>0</v>
@@ -3989,11 +3989,11 @@
       <c r="AH27" s="13">
         <v>0</v>
       </c>
-      <c r="AI27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>0</v>
+      <c r="AI27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK27" s="13" t="s">
         <v>58</v>
@@ -4181,11 +4181,11 @@
       <c r="AS28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>58</v>
+      <c r="AT28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>0</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>58</v>
@@ -4648,11 +4648,11 @@
       <c r="X32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="17" t="s">
-        <v>58</v>
+      <c r="Y32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>0</v>
       </c>
       <c r="AA32" s="17">
         <v>0</v>
@@ -4806,94 +4806,94 @@
         <v>0</v>
       </c>
       <c r="Y33" s="15">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="Z33" s="15">
-        <v>0</v>
+        <v>828624</v>
       </c>
       <c r="AA33" s="15">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="AB33" s="15">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AC33" s="15">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AD33" s="15">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AE33" s="15">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AF33" s="15">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AG33" s="15">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AH33" s="15">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AI33" s="15">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AJ33" s="15">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AK33" s="15">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AL33" s="15">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AM33" s="15">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AN33" s="15">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AO33" s="15">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AP33" s="15">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AQ33" s="15">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AR33" s="15">
-        <v>1187032</v>
+        <v>929289</v>
       </c>
       <c r="AS33" s="15">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AT33" s="15">
-        <v>929289</v>
+        <v>1146715</v>
       </c>
       <c r="AU33" s="15">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AV33" s="15">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AW33" s="15">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AX33" s="15">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AY33" s="15">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AZ33" s="15">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="BA33" s="15">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="BB33" s="15">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -5398,95 +5398,95 @@
       <c r="X40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>58</v>
+      <c r="Y40" s="11">
+        <v>4840</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>3507</v>
       </c>
       <c r="AA40" s="11">
-        <v>4840</v>
+        <v>8329</v>
       </c>
       <c r="AB40" s="11">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="11">
-        <v>8329</v>
+        <v>10783</v>
       </c>
       <c r="AD40" s="11">
         <v>0</v>
       </c>
       <c r="AE40" s="11">
-        <v>10783</v>
+        <v>7336</v>
       </c>
       <c r="AF40" s="11">
-        <v>0</v>
+        <v>47037</v>
       </c>
       <c r="AG40" s="11">
-        <v>7336</v>
+        <v>1063</v>
       </c>
       <c r="AH40" s="11">
-        <v>47037</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>1063</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM40" s="11" t="s">
-        <v>58</v>
+      <c r="AL40" s="11">
+        <v>24903</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>218</v>
       </c>
       <c r="AN40" s="11">
-        <v>24903</v>
+        <v>16318</v>
       </c>
       <c r="AO40" s="11">
-        <v>218</v>
+        <v>30393</v>
       </c>
       <c r="AP40" s="11">
-        <v>16318</v>
+        <v>36127</v>
       </c>
       <c r="AQ40" s="11">
-        <v>30393</v>
+        <v>45229</v>
       </c>
       <c r="AR40" s="11">
-        <v>36127</v>
+        <v>74156</v>
       </c>
       <c r="AS40" s="11">
-        <v>45229</v>
+        <v>34683</v>
       </c>
       <c r="AT40" s="11">
-        <v>74156</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="11">
-        <v>34683</v>
-      </c>
-      <c r="AV40" s="11" t="s">
-        <v>58</v>
+        <v>50007</v>
+      </c>
+      <c r="AV40" s="11">
+        <v>0</v>
       </c>
       <c r="AW40" s="11">
-        <v>50007</v>
+        <v>20752</v>
       </c>
       <c r="AX40" s="11">
-        <v>0</v>
+        <v>44038</v>
       </c>
       <c r="AY40" s="11">
-        <v>20752</v>
+        <v>18165</v>
       </c>
       <c r="AZ40" s="11">
-        <v>44038</v>
+        <v>35724</v>
       </c>
       <c r="BA40" s="11">
-        <v>18165</v>
+        <v>27038</v>
       </c>
       <c r="BB40" s="11">
-        <v>35724</v>
+        <v>46456</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5614,38 +5614,38 @@
       <c r="AQ41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT41" s="13" t="s">
-        <v>58</v>
+      <c r="AR41" s="13">
+        <v>81738</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>73970</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>53195</v>
       </c>
       <c r="AU41" s="13">
-        <v>73970</v>
-      </c>
-      <c r="AV41" s="13" t="s">
-        <v>58</v>
+        <v>20944</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>64466</v>
       </c>
       <c r="AW41" s="13">
-        <v>20944</v>
+        <v>88526</v>
       </c>
       <c r="AX41" s="13">
-        <v>64466</v>
+        <v>68109</v>
       </c>
       <c r="AY41" s="13">
-        <v>88526</v>
+        <v>71943</v>
       </c>
       <c r="AZ41" s="13">
-        <v>68109</v>
+        <v>92889</v>
       </c>
       <c r="BA41" s="13">
-        <v>71943</v>
+        <v>92022</v>
       </c>
       <c r="BB41" s="13">
-        <v>92889</v>
+        <v>76248</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5752,53 +5752,53 @@
       <c r="AJ42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL42" s="11" t="s">
-        <v>58</v>
+      <c r="AK42" s="11">
+        <v>54</v>
+      </c>
+      <c r="AL42" s="11">
+        <v>9032</v>
       </c>
       <c r="AM42" s="11">
-        <v>54</v>
+        <v>8191</v>
       </c>
       <c r="AN42" s="11">
-        <v>9032</v>
+        <v>7846</v>
       </c>
       <c r="AO42" s="11">
-        <v>8191</v>
+        <v>10267</v>
       </c>
       <c r="AP42" s="11">
-        <v>7846</v>
-      </c>
-      <c r="AQ42" s="11">
-        <v>10267</v>
+        <v>7446</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR42" s="11">
-        <v>7446</v>
-      </c>
-      <c r="AS42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW42" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="11">
+        <v>15709</v>
+      </c>
+      <c r="AW42" s="11">
+        <v>20884</v>
       </c>
       <c r="AX42" s="11">
-        <v>15709</v>
+        <v>11106</v>
       </c>
       <c r="AY42" s="11">
-        <v>20884</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="11">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="11">
         <v>0</v>
@@ -5875,77 +5875,77 @@
       <c r="X43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>58</v>
+      <c r="Y43" s="13">
+        <v>79921</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>69098</v>
       </c>
       <c r="AA43" s="13">
-        <v>79921</v>
+        <v>75779</v>
       </c>
       <c r="AB43" s="13">
-        <v>69098</v>
+        <v>90506</v>
       </c>
       <c r="AC43" s="13">
-        <v>75779</v>
+        <v>72512</v>
       </c>
       <c r="AD43" s="13">
-        <v>90506</v>
+        <v>93483</v>
       </c>
       <c r="AE43" s="13">
-        <v>72512</v>
+        <v>66471</v>
       </c>
       <c r="AF43" s="13">
-        <v>93483</v>
+        <v>46580</v>
       </c>
       <c r="AG43" s="13">
-        <v>66471</v>
+        <v>82485</v>
       </c>
       <c r="AH43" s="13">
-        <v>46580</v>
+        <v>47954</v>
       </c>
       <c r="AI43" s="13">
-        <v>82485</v>
+        <v>32964</v>
       </c>
       <c r="AJ43" s="13">
-        <v>47954</v>
+        <v>46050</v>
       </c>
       <c r="AK43" s="13">
-        <v>32964</v>
+        <v>19916</v>
       </c>
       <c r="AL43" s="13">
-        <v>46050</v>
+        <v>30683</v>
       </c>
       <c r="AM43" s="13">
-        <v>19916</v>
+        <v>51773</v>
       </c>
       <c r="AN43" s="13">
-        <v>30683</v>
+        <v>57033</v>
       </c>
       <c r="AO43" s="13">
-        <v>51773</v>
+        <v>67190</v>
       </c>
       <c r="AP43" s="13">
-        <v>57033</v>
+        <v>60256</v>
       </c>
       <c r="AQ43" s="13">
-        <v>67190</v>
-      </c>
-      <c r="AR43" s="13">
-        <v>60256</v>
-      </c>
-      <c r="AS43" s="13">
         <v>71222</v>
       </c>
-      <c r="AT43" s="13">
-        <v>81738</v>
+      <c r="AR43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV43" s="13">
-        <v>53195</v>
+      <c r="AV43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW43" s="13" t="s">
         <v>58</v>
@@ -6091,38 +6091,38 @@
       <c r="AQ44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS44" s="11" t="s">
-        <v>58</v>
+      <c r="AR44" s="11">
+        <v>65453</v>
+      </c>
+      <c r="AS44" s="11">
+        <v>65074</v>
       </c>
       <c r="AT44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU44" s="11">
-        <v>65074</v>
-      </c>
-      <c r="AV44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW44" s="11" t="s">
-        <v>58</v>
+      <c r="AU44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV44" s="11">
+        <v>76454</v>
+      </c>
+      <c r="AW44" s="11">
+        <v>76101</v>
       </c>
       <c r="AX44" s="11">
-        <v>76454</v>
+        <v>101557</v>
       </c>
       <c r="AY44" s="11">
-        <v>76101</v>
+        <v>134315</v>
       </c>
       <c r="AZ44" s="11">
-        <v>101557</v>
+        <v>124518</v>
       </c>
       <c r="BA44" s="11">
-        <v>134315</v>
+        <v>104704</v>
       </c>
       <c r="BB44" s="11">
-        <v>124518</v>
+        <v>137162</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6193,11 +6193,11 @@
       <c r="X45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="13" t="s">
-        <v>58</v>
+      <c r="Y45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="13">
+        <v>0</v>
       </c>
       <c r="AA45" s="13">
         <v>0</v>
@@ -6220,11 +6220,11 @@
       <c r="AG45" s="13">
         <v>0</v>
       </c>
-      <c r="AH45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="13">
-        <v>0</v>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="13" t="s">
         <v>58</v>
@@ -6352,77 +6352,77 @@
       <c r="X46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z46" s="11" t="s">
-        <v>58</v>
+      <c r="Y46" s="11">
+        <v>101102</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>116345</v>
       </c>
       <c r="AA46" s="11">
-        <v>101102</v>
+        <v>93110</v>
       </c>
       <c r="AB46" s="11">
-        <v>116345</v>
+        <v>109943</v>
       </c>
       <c r="AC46" s="11">
-        <v>93110</v>
+        <v>99905</v>
       </c>
       <c r="AD46" s="11">
-        <v>109943</v>
+        <v>63318</v>
       </c>
       <c r="AE46" s="11">
-        <v>99905</v>
+        <v>78787</v>
       </c>
       <c r="AF46" s="11">
-        <v>63318</v>
+        <v>63593</v>
       </c>
       <c r="AG46" s="11">
-        <v>78787</v>
+        <v>77922</v>
       </c>
       <c r="AH46" s="11">
-        <v>63593</v>
+        <v>77499</v>
       </c>
       <c r="AI46" s="11">
-        <v>77922</v>
+        <v>79844</v>
       </c>
       <c r="AJ46" s="11">
-        <v>77499</v>
+        <v>49469</v>
       </c>
       <c r="AK46" s="11">
-        <v>79844</v>
+        <v>34955</v>
       </c>
       <c r="AL46" s="11">
-        <v>49469</v>
+        <v>39543</v>
       </c>
       <c r="AM46" s="11">
-        <v>34955</v>
+        <v>49736</v>
       </c>
       <c r="AN46" s="11">
-        <v>39543</v>
+        <v>69465</v>
       </c>
       <c r="AO46" s="11">
-        <v>49736</v>
+        <v>55348</v>
       </c>
       <c r="AP46" s="11">
-        <v>69465</v>
+        <v>76665</v>
       </c>
       <c r="AQ46" s="11">
-        <v>55348</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>76665</v>
-      </c>
-      <c r="AS46" s="11">
         <v>70177</v>
       </c>
-      <c r="AT46" s="11">
-        <v>65453</v>
+      <c r="AR46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV46" s="11">
-        <v>70650</v>
+      <c r="AV46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW46" s="11" t="s">
         <v>58</v>
@@ -6574,17 +6574,17 @@
       <c r="AS47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU47" s="13" t="s">
-        <v>58</v>
+      <c r="AT47" s="13">
+        <v>70650</v>
+      </c>
+      <c r="AU47" s="13">
+        <v>81866</v>
       </c>
       <c r="AV47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW47" s="13">
-        <v>81866</v>
+      <c r="AW47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX47" s="13" t="s">
         <v>58</v>
@@ -6670,14 +6670,14 @@
       <c r="X48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z48" s="11" t="s">
-        <v>58</v>
+      <c r="Y48" s="11">
+        <v>2138</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>0</v>
       </c>
       <c r="AA48" s="11">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="11">
         <v>0</v>
@@ -6697,11 +6697,11 @@
       <c r="AG48" s="11">
         <v>0</v>
       </c>
-      <c r="AH48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="11">
-        <v>0</v>
+      <c r="AH48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ48" s="11" t="s">
         <v>58</v>
@@ -6828,94 +6828,94 @@
         <v>0</v>
       </c>
       <c r="Y49" s="15">
-        <v>0</v>
+        <v>188001</v>
       </c>
       <c r="Z49" s="15">
-        <v>0</v>
+        <v>188950</v>
       </c>
       <c r="AA49" s="15">
-        <v>188001</v>
+        <v>177218</v>
       </c>
       <c r="AB49" s="15">
-        <v>188950</v>
+        <v>200449</v>
       </c>
       <c r="AC49" s="15">
-        <v>177218</v>
+        <v>183200</v>
       </c>
       <c r="AD49" s="15">
-        <v>200449</v>
+        <v>156801</v>
       </c>
       <c r="AE49" s="15">
-        <v>183200</v>
+        <v>152594</v>
       </c>
       <c r="AF49" s="15">
-        <v>156801</v>
+        <v>157210</v>
       </c>
       <c r="AG49" s="15">
-        <v>152594</v>
+        <v>161470</v>
       </c>
       <c r="AH49" s="15">
-        <v>157210</v>
+        <v>125453</v>
       </c>
       <c r="AI49" s="15">
-        <v>161470</v>
+        <v>112808</v>
       </c>
       <c r="AJ49" s="15">
-        <v>125453</v>
+        <v>95519</v>
       </c>
       <c r="AK49" s="15">
-        <v>112808</v>
+        <v>54925</v>
       </c>
       <c r="AL49" s="15">
-        <v>95519</v>
+        <v>104161</v>
       </c>
       <c r="AM49" s="15">
-        <v>54925</v>
+        <v>109918</v>
       </c>
       <c r="AN49" s="15">
-        <v>104161</v>
+        <v>150662</v>
       </c>
       <c r="AO49" s="15">
-        <v>109918</v>
+        <v>163198</v>
       </c>
       <c r="AP49" s="15">
-        <v>150662</v>
+        <v>180494</v>
       </c>
       <c r="AQ49" s="15">
-        <v>163198</v>
+        <v>186628</v>
       </c>
       <c r="AR49" s="15">
-        <v>180494</v>
+        <v>221347</v>
       </c>
       <c r="AS49" s="15">
-        <v>186628</v>
+        <v>173727</v>
       </c>
       <c r="AT49" s="15">
-        <v>221347</v>
+        <v>123845</v>
       </c>
       <c r="AU49" s="15">
-        <v>173727</v>
+        <v>152817</v>
       </c>
       <c r="AV49" s="15">
-        <v>123845</v>
+        <v>156629</v>
       </c>
       <c r="AW49" s="15">
-        <v>152817</v>
+        <v>206263</v>
       </c>
       <c r="AX49" s="15">
-        <v>156629</v>
+        <v>224810</v>
       </c>
       <c r="AY49" s="15">
-        <v>206263</v>
+        <v>224423</v>
       </c>
       <c r="AZ49" s="15">
-        <v>224810</v>
+        <v>253131</v>
       </c>
       <c r="BA49" s="15">
-        <v>224423</v>
+        <v>223764</v>
       </c>
       <c r="BB49" s="15">
-        <v>253131</v>
+        <v>259866</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7100,38 +7100,38 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>41463</v>
+      </c>
+      <c r="AS51" s="11">
+        <v>243848</v>
+      </c>
+      <c r="AT51" s="11">
+        <v>5127</v>
       </c>
       <c r="AU51" s="11">
-        <v>243848</v>
-      </c>
-      <c r="AV51" s="11" t="s">
-        <v>58</v>
+        <v>66996</v>
+      </c>
+      <c r="AV51" s="11">
+        <v>192229</v>
       </c>
       <c r="AW51" s="11">
-        <v>66996</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="11">
-        <v>192229</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="11">
-        <v>0</v>
+        <v>41692</v>
       </c>
       <c r="AZ51" s="11">
-        <v>0</v>
+        <v>54586</v>
       </c>
       <c r="BA51" s="11">
-        <v>41692</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="11">
-        <v>54586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7259,11 +7259,11 @@
       <c r="AQ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS52" s="13" t="s">
-        <v>58</v>
+      <c r="AR52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>0</v>
       </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
@@ -7271,11 +7271,11 @@
       <c r="AU52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW52" s="13" t="s">
-        <v>58</v>
+      <c r="AV52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="13">
+        <v>0</v>
       </c>
       <c r="AX52" s="13">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="13">
-        <v>0</v>
+        <v>24977</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7361,77 +7361,77 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>39779</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>88287</v>
       </c>
       <c r="AA53" s="11">
-        <v>39779</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>88287</v>
+        <v>69757</v>
       </c>
       <c r="AC53" s="11">
-        <v>0</v>
+        <v>40062</v>
       </c>
       <c r="AD53" s="11">
-        <v>69757</v>
+        <v>29678</v>
       </c>
       <c r="AE53" s="11">
-        <v>40062</v>
+        <v>29839</v>
       </c>
       <c r="AF53" s="11">
-        <v>29678</v>
+        <v>44822</v>
       </c>
       <c r="AG53" s="11">
-        <v>29839</v>
+        <v>60374</v>
       </c>
       <c r="AH53" s="11">
-        <v>44822</v>
+        <v>30989</v>
       </c>
       <c r="AI53" s="11">
-        <v>60374</v>
+        <v>142786</v>
       </c>
       <c r="AJ53" s="11">
-        <v>30989</v>
+        <v>39773</v>
       </c>
       <c r="AK53" s="11">
-        <v>142786</v>
+        <v>137483</v>
       </c>
       <c r="AL53" s="11">
-        <v>39773</v>
+        <v>112583</v>
       </c>
       <c r="AM53" s="11">
-        <v>137483</v>
+        <v>40347</v>
       </c>
       <c r="AN53" s="11">
-        <v>112583</v>
+        <v>66548</v>
       </c>
       <c r="AO53" s="11">
-        <v>40347</v>
+        <v>121959</v>
       </c>
       <c r="AP53" s="11">
-        <v>66548</v>
+        <v>41583</v>
       </c>
       <c r="AQ53" s="11">
-        <v>121959</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>41583</v>
-      </c>
-      <c r="AS53" s="11">
         <v>109774</v>
       </c>
-      <c r="AT53" s="11">
-        <v>41463</v>
+      <c r="AR53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV53" s="11">
-        <v>5127</v>
+      <c r="AV53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW53" s="11" t="s">
         <v>58</v>
@@ -7577,38 +7577,38 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>45006</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>210968</v>
       </c>
       <c r="AT54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU54" s="13">
-        <v>210968</v>
-      </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW54" s="13" t="s">
-        <v>58</v>
+      <c r="AU54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>22743</v>
+      </c>
+      <c r="AW54" s="13">
+        <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <v>22743</v>
+        <v>5080</v>
       </c>
       <c r="AY54" s="13">
-        <v>43991</v>
+        <v>213858</v>
       </c>
       <c r="AZ54" s="13">
-        <v>5080</v>
+        <v>47965</v>
       </c>
       <c r="BA54" s="13">
-        <v>213858</v>
+        <v>117567</v>
       </c>
       <c r="BB54" s="13">
-        <v>47965</v>
+        <v>120315</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7679,26 +7679,26 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>2001</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>1965</v>
       </c>
       <c r="AA55" s="11">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="11">
-        <v>1965</v>
+        <v>961</v>
       </c>
       <c r="AC55" s="11">
-        <v>0</v>
+        <v>4396</v>
       </c>
       <c r="AD55" s="11">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="11">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="11">
         <v>0</v>
@@ -7706,11 +7706,11 @@
       <c r="AG55" s="11">
         <v>0</v>
       </c>
-      <c r="AH55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="11">
-        <v>0</v>
+      <c r="AH55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ55" s="11" t="s">
         <v>58</v>
@@ -7736,11 +7736,11 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>0</v>
       </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
@@ -7838,77 +7838,77 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>92369</v>
+      </c>
+      <c r="Z56" s="13">
+        <v>114338</v>
       </c>
       <c r="AA56" s="13">
-        <v>92369</v>
+        <v>65052</v>
       </c>
       <c r="AB56" s="13">
-        <v>114338</v>
+        <v>135671</v>
       </c>
       <c r="AC56" s="13">
-        <v>65052</v>
+        <v>32350</v>
       </c>
       <c r="AD56" s="13">
-        <v>135671</v>
+        <v>122237</v>
       </c>
       <c r="AE56" s="13">
-        <v>32350</v>
+        <v>125725</v>
       </c>
       <c r="AF56" s="13">
-        <v>122237</v>
+        <v>59186</v>
       </c>
       <c r="AG56" s="13">
-        <v>125725</v>
+        <v>79780</v>
       </c>
       <c r="AH56" s="13">
-        <v>59186</v>
+        <v>118394</v>
       </c>
       <c r="AI56" s="13">
-        <v>79780</v>
+        <v>49017</v>
       </c>
       <c r="AJ56" s="13">
-        <v>118394</v>
+        <v>142361</v>
       </c>
       <c r="AK56" s="13">
-        <v>49017</v>
-      </c>
-      <c r="AL56" s="13">
-        <v>142361</v>
+        <v>86358</v>
+      </c>
+      <c r="AL56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM56" s="13">
-        <v>86358</v>
-      </c>
-      <c r="AN56" s="13" t="s">
-        <v>58</v>
+        <v>3664</v>
+      </c>
+      <c r="AN56" s="13">
+        <v>4789</v>
       </c>
       <c r="AO56" s="13">
-        <v>3664</v>
+        <v>20153</v>
       </c>
       <c r="AP56" s="13">
-        <v>4789</v>
+        <v>173777</v>
       </c>
       <c r="AQ56" s="13">
-        <v>20153</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>173777</v>
-      </c>
-      <c r="AS56" s="13">
         <v>68177</v>
       </c>
-      <c r="AT56" s="13">
-        <v>45006</v>
+      <c r="AR56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV56" s="13">
-        <v>55071</v>
+      <c r="AV56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW56" s="13" t="s">
         <v>58</v>
@@ -8060,17 +8060,17 @@
       <c r="AS57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU57" s="11" t="s">
-        <v>58</v>
+      <c r="AT57" s="11">
+        <v>55071</v>
+      </c>
+      <c r="AU57" s="11">
+        <v>89571</v>
       </c>
       <c r="AV57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW57" s="11">
-        <v>89571</v>
+      <c r="AW57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX57" s="11" t="s">
         <v>58</v>
@@ -8201,23 +8201,23 @@
       <c r="AM58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN58" s="13" t="s">
-        <v>58</v>
+      <c r="AN58" s="13">
+        <v>17649</v>
       </c>
       <c r="AO58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP58" s="13">
-        <v>17649</v>
-      </c>
-      <c r="AQ58" s="13" t="s">
-        <v>58</v>
+      <c r="AP58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>23032</v>
       </c>
       <c r="AR58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="13">
-        <v>23032</v>
+      <c r="AS58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT58" s="13" t="s">
         <v>58</v>
@@ -8314,94 +8314,94 @@
         <v>0</v>
       </c>
       <c r="Y59" s="17">
-        <v>0</v>
+        <v>134149</v>
       </c>
       <c r="Z59" s="17">
-        <v>0</v>
+        <v>204590</v>
       </c>
       <c r="AA59" s="17">
-        <v>134149</v>
+        <v>65052</v>
       </c>
       <c r="AB59" s="17">
-        <v>204590</v>
+        <v>206389</v>
       </c>
       <c r="AC59" s="17">
-        <v>65052</v>
+        <v>76808</v>
       </c>
       <c r="AD59" s="17">
-        <v>206389</v>
+        <v>151915</v>
       </c>
       <c r="AE59" s="17">
-        <v>76808</v>
+        <v>155564</v>
       </c>
       <c r="AF59" s="17">
-        <v>151915</v>
+        <v>104008</v>
       </c>
       <c r="AG59" s="17">
-        <v>155564</v>
+        <v>140154</v>
       </c>
       <c r="AH59" s="17">
-        <v>104008</v>
+        <v>149383</v>
       </c>
       <c r="AI59" s="17">
-        <v>140154</v>
+        <v>191803</v>
       </c>
       <c r="AJ59" s="17">
-        <v>149383</v>
+        <v>182134</v>
       </c>
       <c r="AK59" s="17">
-        <v>191803</v>
+        <v>223841</v>
       </c>
       <c r="AL59" s="17">
-        <v>182134</v>
+        <v>112583</v>
       </c>
       <c r="AM59" s="17">
-        <v>223841</v>
+        <v>44011</v>
       </c>
       <c r="AN59" s="17">
-        <v>112583</v>
+        <v>88986</v>
       </c>
       <c r="AO59" s="17">
-        <v>44011</v>
+        <v>142112</v>
       </c>
       <c r="AP59" s="17">
-        <v>88986</v>
+        <v>215360</v>
       </c>
       <c r="AQ59" s="17">
-        <v>142112</v>
+        <v>200983</v>
       </c>
       <c r="AR59" s="17">
-        <v>215360</v>
+        <v>86469</v>
       </c>
       <c r="AS59" s="17">
-        <v>200983</v>
+        <v>454816</v>
       </c>
       <c r="AT59" s="17">
-        <v>86469</v>
+        <v>60198</v>
       </c>
       <c r="AU59" s="17">
-        <v>454816</v>
+        <v>156567</v>
       </c>
       <c r="AV59" s="17">
-        <v>60198</v>
+        <v>214972</v>
       </c>
       <c r="AW59" s="17">
-        <v>156567</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="17">
-        <v>214972</v>
+        <v>5080</v>
       </c>
       <c r="AY59" s="17">
-        <v>43991</v>
+        <v>255550</v>
       </c>
       <c r="AZ59" s="17">
-        <v>5080</v>
+        <v>102551</v>
       </c>
       <c r="BA59" s="17">
-        <v>255550</v>
+        <v>117567</v>
       </c>
       <c r="BB59" s="17">
-        <v>102551</v>
+        <v>145292</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8527,11 +8527,11 @@
       <c r="X61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="17" t="s">
-        <v>58</v>
+      <c r="Y61" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="17">
+        <v>0</v>
       </c>
       <c r="AA61" s="17">
         <v>0</v>
@@ -8741,11 +8741,11 @@
       <c r="X63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="17" t="s">
-        <v>58</v>
+      <c r="Y63" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="17">
+        <v>0</v>
       </c>
       <c r="AA63" s="17">
         <v>0</v>
@@ -8899,94 +8899,94 @@
         <v>0</v>
       </c>
       <c r="Y64" s="15">
-        <v>0</v>
+        <v>322150</v>
       </c>
       <c r="Z64" s="15">
-        <v>0</v>
+        <v>393540</v>
       </c>
       <c r="AA64" s="15">
-        <v>322150</v>
+        <v>242270</v>
       </c>
       <c r="AB64" s="15">
-        <v>393540</v>
+        <v>406838</v>
       </c>
       <c r="AC64" s="15">
-        <v>242270</v>
+        <v>260008</v>
       </c>
       <c r="AD64" s="15">
-        <v>406838</v>
+        <v>308716</v>
       </c>
       <c r="AE64" s="15">
-        <v>260008</v>
+        <v>308158</v>
       </c>
       <c r="AF64" s="15">
-        <v>308716</v>
+        <v>261218</v>
       </c>
       <c r="AG64" s="15">
-        <v>308158</v>
+        <v>301624</v>
       </c>
       <c r="AH64" s="15">
-        <v>261218</v>
+        <v>274836</v>
       </c>
       <c r="AI64" s="15">
-        <v>301624</v>
+        <v>304611</v>
       </c>
       <c r="AJ64" s="15">
-        <v>274836</v>
+        <v>277653</v>
       </c>
       <c r="AK64" s="15">
-        <v>304611</v>
+        <v>278766</v>
       </c>
       <c r="AL64" s="15">
-        <v>277653</v>
+        <v>216744</v>
       </c>
       <c r="AM64" s="15">
-        <v>278766</v>
+        <v>153929</v>
       </c>
       <c r="AN64" s="15">
-        <v>216744</v>
+        <v>239648</v>
       </c>
       <c r="AO64" s="15">
-        <v>153929</v>
+        <v>305310</v>
       </c>
       <c r="AP64" s="15">
-        <v>239648</v>
+        <v>395854</v>
       </c>
       <c r="AQ64" s="15">
-        <v>305310</v>
+        <v>387611</v>
       </c>
       <c r="AR64" s="15">
-        <v>395854</v>
+        <v>307816</v>
       </c>
       <c r="AS64" s="15">
-        <v>387611</v>
+        <v>628543</v>
       </c>
       <c r="AT64" s="15">
-        <v>307816</v>
+        <v>184043</v>
       </c>
       <c r="AU64" s="15">
-        <v>628543</v>
+        <v>309384</v>
       </c>
       <c r="AV64" s="15">
-        <v>184043</v>
+        <v>371601</v>
       </c>
       <c r="AW64" s="15">
-        <v>309384</v>
+        <v>206263</v>
       </c>
       <c r="AX64" s="15">
-        <v>371601</v>
+        <v>229890</v>
       </c>
       <c r="AY64" s="15">
-        <v>250254</v>
+        <v>479973</v>
       </c>
       <c r="AZ64" s="15">
-        <v>229890</v>
+        <v>355682</v>
       </c>
       <c r="BA64" s="15">
-        <v>479973</v>
+        <v>341331</v>
       </c>
       <c r="BB64" s="15">
-        <v>355682</v>
+        <v>405158</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -9491,38 +9491,38 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>67777</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>56854</v>
       </c>
       <c r="AA71" s="11">
-        <v>67777</v>
+        <v>150435</v>
       </c>
       <c r="AB71" s="11">
-        <v>56854</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="11">
-        <v>150435</v>
+        <v>261174</v>
       </c>
       <c r="AD71" s="11">
         <v>0</v>
       </c>
       <c r="AE71" s="11">
-        <v>261174</v>
+        <v>191476</v>
       </c>
       <c r="AF71" s="11">
-        <v>0</v>
+        <v>1150213</v>
       </c>
       <c r="AG71" s="11">
-        <v>191476</v>
+        <v>27752</v>
       </c>
       <c r="AH71" s="11">
-        <v>1150213</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="11">
         <v>0</v>
@@ -9531,55 +9531,55 @@
         <v>0</v>
       </c>
       <c r="AL71" s="11">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AM71" s="11">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="AN71" s="11">
-        <v>895116</v>
+        <v>569957</v>
       </c>
       <c r="AO71" s="11">
-        <v>7856</v>
+        <v>1096016</v>
       </c>
       <c r="AP71" s="11">
-        <v>569957</v>
+        <v>1257921</v>
       </c>
       <c r="AQ71" s="11">
-        <v>1096016</v>
+        <v>1568235</v>
       </c>
       <c r="AR71" s="11">
-        <v>1257921</v>
+        <v>2766542</v>
       </c>
       <c r="AS71" s="11">
-        <v>1568235</v>
+        <v>1468731</v>
       </c>
       <c r="AT71" s="11">
-        <v>2766542</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>1468731</v>
+        <v>1817350</v>
       </c>
       <c r="AV71" s="11">
         <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>1817350</v>
+        <v>695838</v>
       </c>
       <c r="AX71" s="11">
-        <v>0</v>
+        <v>1137049</v>
       </c>
       <c r="AY71" s="11">
-        <v>695838</v>
+        <v>487915</v>
       </c>
       <c r="AZ71" s="11">
-        <v>1137049</v>
+        <v>1001422</v>
       </c>
       <c r="BA71" s="11">
-        <v>487915</v>
+        <v>788880</v>
       </c>
       <c r="BB71" s="11">
-        <v>1001422</v>
+        <v>1389211</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9707,38 +9707,38 @@
       <c r="AQ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" s="13" t="s">
-        <v>58</v>
+      <c r="AR72" s="13">
+        <v>11968690</v>
+      </c>
+      <c r="AS72" s="13">
+        <v>11054404</v>
+      </c>
+      <c r="AT72" s="13">
+        <v>8357961</v>
       </c>
       <c r="AU72" s="13">
-        <v>11054404</v>
-      </c>
-      <c r="AV72" s="13" t="s">
-        <v>58</v>
+        <v>3580896</v>
+      </c>
+      <c r="AV72" s="13">
+        <v>10811264</v>
       </c>
       <c r="AW72" s="13">
-        <v>3580896</v>
+        <v>13335009</v>
       </c>
       <c r="AX72" s="13">
-        <v>10811264</v>
+        <v>9655515</v>
       </c>
       <c r="AY72" s="13">
-        <v>13335009</v>
+        <v>8912430</v>
       </c>
       <c r="AZ72" s="13">
-        <v>9655515</v>
+        <v>10966541</v>
       </c>
       <c r="BA72" s="13">
-        <v>8912430</v>
+        <v>11562359</v>
       </c>
       <c r="BB72" s="13">
-        <v>10966541</v>
+        <v>9840418</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9845,29 +9845,29 @@
       <c r="AJ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL73" s="11" t="s">
-        <v>58</v>
+      <c r="AK73" s="11">
+        <v>4449</v>
+      </c>
+      <c r="AL73" s="11">
+        <v>753174</v>
       </c>
       <c r="AM73" s="11">
-        <v>4449</v>
+        <v>669679</v>
       </c>
       <c r="AN73" s="11">
-        <v>753174</v>
+        <v>658525</v>
       </c>
       <c r="AO73" s="11">
-        <v>669679</v>
+        <v>877656</v>
       </c>
       <c r="AP73" s="11">
-        <v>658525</v>
+        <v>625730</v>
       </c>
       <c r="AQ73" s="11">
-        <v>877656</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="11">
-        <v>625730</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="11">
         <v>0</v>
@@ -9879,19 +9879,19 @@
         <v>0</v>
       </c>
       <c r="AV73" s="11">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AW73" s="11">
-        <v>0</v>
+        <v>1796654</v>
       </c>
       <c r="AX73" s="11">
-        <v>1499746</v>
+        <v>896077</v>
       </c>
       <c r="AY73" s="11">
-        <v>1796654</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="11">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="11">
         <v>0</v>
@@ -9968,77 +9968,77 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>4820961</v>
+      </c>
+      <c r="Z74" s="13">
+        <v>4872331</v>
       </c>
       <c r="AA74" s="13">
-        <v>4820961</v>
+        <v>5635016</v>
       </c>
       <c r="AB74" s="13">
-        <v>4872331</v>
+        <v>8808188</v>
       </c>
       <c r="AC74" s="13">
-        <v>5635016</v>
+        <v>7410055</v>
       </c>
       <c r="AD74" s="13">
-        <v>8808188</v>
+        <v>9597688</v>
       </c>
       <c r="AE74" s="13">
-        <v>7410055</v>
+        <v>7182793</v>
       </c>
       <c r="AF74" s="13">
-        <v>9597688</v>
+        <v>5895455</v>
       </c>
       <c r="AG74" s="13">
-        <v>7182793</v>
+        <v>10362984</v>
       </c>
       <c r="AH74" s="13">
-        <v>5895455</v>
+        <v>6660271</v>
       </c>
       <c r="AI74" s="13">
-        <v>10362984</v>
+        <v>5483906</v>
       </c>
       <c r="AJ74" s="13">
-        <v>6660271</v>
+        <v>7771653</v>
       </c>
       <c r="AK74" s="13">
-        <v>5483906</v>
+        <v>3383187</v>
       </c>
       <c r="AL74" s="13">
-        <v>7771653</v>
+        <v>5157712</v>
       </c>
       <c r="AM74" s="13">
-        <v>3383187</v>
+        <v>8537712</v>
       </c>
       <c r="AN74" s="13">
-        <v>5157712</v>
+        <v>9278929</v>
       </c>
       <c r="AO74" s="13">
-        <v>8537712</v>
+        <v>10294057</v>
       </c>
       <c r="AP74" s="13">
-        <v>9278929</v>
+        <v>9248682</v>
       </c>
       <c r="AQ74" s="13">
-        <v>10294057</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>9248682</v>
-      </c>
-      <c r="AS74" s="13">
         <v>10695500</v>
       </c>
-      <c r="AT74" s="13">
-        <v>11968690</v>
+      <c r="AR74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV74" s="13">
-        <v>8357961</v>
+      <c r="AV74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW74" s="13" t="s">
         <v>58</v>
@@ -10184,38 +10184,38 @@
       <c r="AQ75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS75" s="11" t="s">
-        <v>58</v>
+      <c r="AR75" s="11">
+        <v>8331251</v>
+      </c>
+      <c r="AS75" s="11">
+        <v>8708087</v>
       </c>
       <c r="AT75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU75" s="11">
-        <v>8708087</v>
-      </c>
-      <c r="AV75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW75" s="11" t="s">
-        <v>58</v>
+      <c r="AU75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV75" s="11">
+        <v>11493740</v>
+      </c>
+      <c r="AW75" s="11">
+        <v>11233491</v>
       </c>
       <c r="AX75" s="11">
-        <v>11493740</v>
+        <v>14074611</v>
       </c>
       <c r="AY75" s="11">
-        <v>11233491</v>
+        <v>17223509</v>
       </c>
       <c r="AZ75" s="11">
-        <v>14074611</v>
+        <v>15835461</v>
       </c>
       <c r="BA75" s="11">
-        <v>17223509</v>
+        <v>13802666</v>
       </c>
       <c r="BB75" s="11">
-        <v>15835461</v>
+        <v>18971461</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10286,11 +10286,11 @@
       <c r="X76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z76" s="13" t="s">
-        <v>58</v>
+      <c r="Y76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="13">
+        <v>0</v>
       </c>
       <c r="AA76" s="13">
         <v>0</v>
@@ -10313,11 +10313,11 @@
       <c r="AG76" s="13">
         <v>0</v>
       </c>
-      <c r="AH76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="13">
-        <v>0</v>
+      <c r="AH76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ76" s="13" t="s">
         <v>58</v>
@@ -10445,77 +10445,77 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>6376364</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>8522548</v>
       </c>
       <c r="AA77" s="11">
-        <v>6376364</v>
+        <v>7500645</v>
       </c>
       <c r="AB77" s="11">
-        <v>8522548</v>
+        <v>10341937</v>
       </c>
       <c r="AC77" s="11">
-        <v>7500645</v>
+        <v>10097494</v>
       </c>
       <c r="AD77" s="11">
-        <v>10341937</v>
+        <v>6191783</v>
       </c>
       <c r="AE77" s="11">
-        <v>10097494</v>
+        <v>8870698</v>
       </c>
       <c r="AF77" s="11">
-        <v>6191783</v>
+        <v>6876913</v>
       </c>
       <c r="AG77" s="11">
-        <v>8870698</v>
+        <v>8189548</v>
       </c>
       <c r="AH77" s="11">
-        <v>6876913</v>
+        <v>8400535</v>
       </c>
       <c r="AI77" s="11">
-        <v>8189548</v>
+        <v>9420599</v>
       </c>
       <c r="AJ77" s="11">
-        <v>8400535</v>
+        <v>6098124</v>
       </c>
       <c r="AK77" s="11">
-        <v>9420599</v>
+        <v>4582347</v>
       </c>
       <c r="AL77" s="11">
-        <v>6098124</v>
+        <v>5347647</v>
       </c>
       <c r="AM77" s="11">
-        <v>4582347</v>
+        <v>7004081</v>
       </c>
       <c r="AN77" s="11">
-        <v>5347647</v>
+        <v>9067174</v>
       </c>
       <c r="AO77" s="11">
-        <v>7004081</v>
+        <v>7522348</v>
       </c>
       <c r="AP77" s="11">
-        <v>9067174</v>
+        <v>10349132</v>
       </c>
       <c r="AQ77" s="11">
-        <v>7522348</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>10349132</v>
-      </c>
-      <c r="AS77" s="11">
         <v>9056855</v>
       </c>
-      <c r="AT77" s="11">
-        <v>8331251</v>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV77" s="11">
-        <v>10233422</v>
+      <c r="AV77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>58</v>
@@ -10667,17 +10667,17 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>10233422</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>12582850</v>
       </c>
       <c r="AV78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW78" s="13">
-        <v>12582850</v>
+      <c r="AW78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX78" s="13" t="s">
         <v>58</v>
@@ -10763,14 +10763,14 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>45674</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>0</v>
       </c>
       <c r="AA79" s="11">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="11">
         <v>0</v>
@@ -10790,23 +10790,23 @@
       <c r="AG79" s="11">
         <v>0</v>
       </c>
-      <c r="AH79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="11">
-        <v>0</v>
+      <c r="AH79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK79" s="11" t="s">
-        <v>58</v>
+      <c r="AK79" s="11">
+        <v>0</v>
       </c>
       <c r="AL79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM79" s="11">
-        <v>0</v>
+      <c r="AM79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN79" s="11" t="s">
         <v>58</v>
@@ -10921,94 +10921,94 @@
         <v>0</v>
       </c>
       <c r="Y80" s="15">
-        <v>0</v>
+        <v>11310776</v>
       </c>
       <c r="Z80" s="15">
-        <v>0</v>
+        <v>13451733</v>
       </c>
       <c r="AA80" s="15">
-        <v>11310776</v>
+        <v>13286096</v>
       </c>
       <c r="AB80" s="15">
-        <v>13451733</v>
+        <v>19150125</v>
       </c>
       <c r="AC80" s="15">
-        <v>13286096</v>
+        <v>17768723</v>
       </c>
       <c r="AD80" s="15">
-        <v>19150125</v>
+        <v>15789471</v>
       </c>
       <c r="AE80" s="15">
-        <v>17768723</v>
+        <v>16244967</v>
       </c>
       <c r="AF80" s="15">
-        <v>15789471</v>
+        <v>13922581</v>
       </c>
       <c r="AG80" s="15">
-        <v>16244967</v>
+        <v>18580284</v>
       </c>
       <c r="AH80" s="15">
-        <v>13922581</v>
+        <v>15060806</v>
       </c>
       <c r="AI80" s="15">
-        <v>18580284</v>
+        <v>14904505</v>
       </c>
       <c r="AJ80" s="15">
-        <v>15060806</v>
+        <v>13869777</v>
       </c>
       <c r="AK80" s="15">
-        <v>14904505</v>
+        <v>7969983</v>
       </c>
       <c r="AL80" s="15">
-        <v>13869777</v>
+        <v>12153649</v>
       </c>
       <c r="AM80" s="15">
-        <v>7969983</v>
+        <v>16219328</v>
       </c>
       <c r="AN80" s="15">
-        <v>12153649</v>
+        <v>19574585</v>
       </c>
       <c r="AO80" s="15">
-        <v>16219328</v>
+        <v>19790077</v>
       </c>
       <c r="AP80" s="15">
-        <v>19574585</v>
+        <v>21481465</v>
       </c>
       <c r="AQ80" s="15">
-        <v>19790077</v>
+        <v>21320590</v>
       </c>
       <c r="AR80" s="15">
-        <v>21481465</v>
+        <v>23066483</v>
       </c>
       <c r="AS80" s="15">
-        <v>21320590</v>
+        <v>21231222</v>
       </c>
       <c r="AT80" s="15">
-        <v>23066483</v>
+        <v>18591383</v>
       </c>
       <c r="AU80" s="15">
-        <v>21231222</v>
+        <v>17981096</v>
       </c>
       <c r="AV80" s="15">
-        <v>18591383</v>
+        <v>23804750</v>
       </c>
       <c r="AW80" s="15">
-        <v>17981096</v>
+        <v>27060992</v>
       </c>
       <c r="AX80" s="15">
-        <v>23804750</v>
+        <v>25763252</v>
       </c>
       <c r="AY80" s="15">
-        <v>27060992</v>
+        <v>26623854</v>
       </c>
       <c r="AZ80" s="15">
-        <v>25763252</v>
+        <v>27803424</v>
       </c>
       <c r="BA80" s="15">
-        <v>26623854</v>
+        <v>26153905</v>
       </c>
       <c r="BB80" s="15">
-        <v>27803424</v>
+        <v>30201090</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11193,38 +11193,38 @@
       <c r="AQ82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
+      <c r="AR82" s="11">
+        <v>6561845</v>
+      </c>
+      <c r="AS82" s="11">
+        <v>34651434</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>721448</v>
       </c>
       <c r="AU82" s="11">
-        <v>34651434</v>
-      </c>
-      <c r="AV82" s="11" t="s">
-        <v>58</v>
+        <v>9226588</v>
+      </c>
+      <c r="AV82" s="11">
+        <v>32677764</v>
       </c>
       <c r="AW82" s="11">
-        <v>9226588</v>
+        <v>0</v>
       </c>
       <c r="AX82" s="11">
-        <v>32677764</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="11">
-        <v>0</v>
+        <v>4856793</v>
       </c>
       <c r="AZ82" s="11">
-        <v>0</v>
+        <v>6400655</v>
       </c>
       <c r="BA82" s="11">
-        <v>4856793</v>
+        <v>0</v>
       </c>
       <c r="BB82" s="11">
-        <v>6400655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11352,23 +11352,23 @@
       <c r="AQ83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS83" s="13" t="s">
-        <v>58</v>
+      <c r="AR83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="13">
+        <v>0</v>
       </c>
       <c r="AT83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW83" s="13" t="s">
-        <v>58</v>
+      <c r="AU83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="13">
+        <v>0</v>
       </c>
       <c r="AX83" s="13">
         <v>0</v>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="BB83" s="13">
-        <v>0</v>
+        <v>1987631</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11454,77 +11454,77 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>2163418</v>
+      </c>
+      <c r="Z84" s="11">
+        <v>5555592</v>
       </c>
       <c r="AA84" s="11">
-        <v>2163418</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="11">
-        <v>5555592</v>
+        <v>6262874</v>
       </c>
       <c r="AC84" s="11">
-        <v>0</v>
+        <v>4280294</v>
       </c>
       <c r="AD84" s="11">
-        <v>6262874</v>
+        <v>3349772</v>
       </c>
       <c r="AE84" s="11">
-        <v>4280294</v>
+        <v>3289109</v>
       </c>
       <c r="AF84" s="11">
-        <v>3349772</v>
+        <v>5287110</v>
       </c>
       <c r="AG84" s="11">
-        <v>3289109</v>
+        <v>8807821</v>
       </c>
       <c r="AH84" s="11">
-        <v>5287110</v>
+        <v>4050583</v>
       </c>
       <c r="AI84" s="11">
-        <v>8807821</v>
+        <v>18584987</v>
       </c>
       <c r="AJ84" s="11">
-        <v>4050583</v>
+        <v>5205767</v>
       </c>
       <c r="AK84" s="11">
-        <v>18584987</v>
+        <v>20821224</v>
       </c>
       <c r="AL84" s="11">
-        <v>5205767</v>
+        <v>17448502</v>
       </c>
       <c r="AM84" s="11">
-        <v>20821224</v>
+        <v>6864990</v>
       </c>
       <c r="AN84" s="11">
-        <v>17448502</v>
+        <v>10445836</v>
       </c>
       <c r="AO84" s="11">
-        <v>6864990</v>
+        <v>19834038</v>
       </c>
       <c r="AP84" s="11">
-        <v>10445836</v>
+        <v>6599389</v>
       </c>
       <c r="AQ84" s="11">
-        <v>19834038</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>6599389</v>
-      </c>
-      <c r="AS84" s="11">
         <v>17711649</v>
       </c>
-      <c r="AT84" s="11">
-        <v>6561845</v>
+      <c r="AR84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV84" s="11">
-        <v>721448</v>
+      <c r="AV84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW84" s="11" t="s">
         <v>58</v>
@@ -11670,38 +11670,38 @@
       <c r="AQ85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS85" s="13" t="s">
-        <v>58</v>
+      <c r="AR85" s="13">
+        <v>6651226</v>
+      </c>
+      <c r="AS85" s="13">
+        <v>28850152</v>
       </c>
       <c r="AT85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU85" s="13">
-        <v>28850152</v>
-      </c>
-      <c r="AV85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW85" s="13" t="s">
-        <v>58</v>
+      <c r="AU85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV85" s="13">
+        <v>3913072</v>
+      </c>
+      <c r="AW85" s="13">
+        <v>0</v>
       </c>
       <c r="AX85" s="13">
-        <v>3913072</v>
+        <v>699671</v>
       </c>
       <c r="AY85" s="13">
-        <v>7748516</v>
+        <v>25209536</v>
       </c>
       <c r="AZ85" s="13">
-        <v>699671</v>
+        <v>5810404</v>
       </c>
       <c r="BA85" s="13">
-        <v>25209536</v>
+        <v>15256444</v>
       </c>
       <c r="BB85" s="13">
-        <v>5810404</v>
+        <v>15397391</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11772,26 +11772,26 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>160555</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>126846</v>
       </c>
       <c r="AA86" s="11">
-        <v>160555</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="11">
-        <v>126846</v>
+        <v>73500</v>
       </c>
       <c r="AC86" s="11">
-        <v>0</v>
+        <v>326751</v>
       </c>
       <c r="AD86" s="11">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="AE86" s="11">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AF86" s="11">
         <v>0</v>
@@ -11799,14 +11799,14 @@
       <c r="AG86" s="11">
         <v>0</v>
       </c>
-      <c r="AH86" s="11">
-        <v>0</v>
+      <c r="AH86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI86" s="11">
         <v>0</v>
       </c>
-      <c r="AJ86" s="11" t="s">
-        <v>58</v>
+      <c r="AJ86" s="11">
+        <v>0</v>
       </c>
       <c r="AK86" s="11">
         <v>0</v>
@@ -11835,11 +11835,11 @@
       <c r="AS86" s="11">
         <v>0</v>
       </c>
-      <c r="AT86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU86" s="11">
-        <v>0</v>
+      <c r="AT86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV86" s="11" t="s">
         <v>58</v>
@@ -11931,77 +11931,77 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>5301095</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>7824437</v>
       </c>
       <c r="AA87" s="13">
-        <v>5301095</v>
+        <v>4844694</v>
       </c>
       <c r="AB87" s="13">
-        <v>7824437</v>
+        <v>13122982</v>
       </c>
       <c r="AC87" s="13">
-        <v>4844694</v>
+        <v>3445553</v>
       </c>
       <c r="AD87" s="13">
-        <v>13122982</v>
+        <v>13108096</v>
       </c>
       <c r="AE87" s="13">
-        <v>3445553</v>
+        <v>14068935</v>
       </c>
       <c r="AF87" s="13">
-        <v>13108096</v>
+        <v>7056041</v>
       </c>
       <c r="AG87" s="13">
-        <v>14068935</v>
+        <v>10413755</v>
       </c>
       <c r="AH87" s="13">
-        <v>7056041</v>
+        <v>14829988</v>
       </c>
       <c r="AI87" s="13">
-        <v>10413755</v>
+        <v>5881244</v>
       </c>
       <c r="AJ87" s="13">
-        <v>14829988</v>
+        <v>16680167</v>
       </c>
       <c r="AK87" s="13">
-        <v>5881244</v>
+        <v>10819903</v>
       </c>
       <c r="AL87" s="13">
-        <v>16680167</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="13">
-        <v>10819903</v>
+        <v>518411</v>
       </c>
       <c r="AN87" s="13">
-        <v>0</v>
+        <v>612785</v>
       </c>
       <c r="AO87" s="13">
-        <v>518411</v>
+        <v>2960772</v>
       </c>
       <c r="AP87" s="13">
-        <v>612785</v>
+        <v>25998055</v>
       </c>
       <c r="AQ87" s="13">
-        <v>2960772</v>
-      </c>
-      <c r="AR87" s="13">
-        <v>25998055</v>
-      </c>
-      <c r="AS87" s="13">
         <v>9654225</v>
       </c>
-      <c r="AT87" s="13">
-        <v>6651226</v>
+      <c r="AR87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV87" s="13">
-        <v>7851191</v>
+      <c r="AV87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW87" s="13" t="s">
         <v>58</v>
@@ -12153,17 +12153,17 @@
       <c r="AS88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU88" s="11" t="s">
-        <v>58</v>
+      <c r="AT88" s="11">
+        <v>7851191</v>
+      </c>
+      <c r="AU88" s="11">
+        <v>12873913</v>
       </c>
       <c r="AV88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW88" s="11">
-        <v>12873913</v>
+      <c r="AW88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX88" s="11" t="s">
         <v>58</v>
@@ -12294,26 +12294,26 @@
       <c r="AM89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO89" s="13" t="s">
-        <v>58</v>
+      <c r="AN89" s="13">
+        <v>1409713</v>
+      </c>
+      <c r="AO89" s="13">
+        <v>0</v>
       </c>
       <c r="AP89" s="13">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AQ89" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR89" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS89" s="13">
         <v>1879694</v>
       </c>
-      <c r="AT89" s="13">
-        <v>0</v>
+      <c r="AR89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU89" s="13" t="s">
         <v>58</v>
@@ -12407,94 +12407,94 @@
         <v>0</v>
       </c>
       <c r="Y90" s="17">
-        <v>0</v>
+        <v>7625068</v>
       </c>
       <c r="Z90" s="17">
-        <v>0</v>
+        <v>13506875</v>
       </c>
       <c r="AA90" s="17">
-        <v>7625068</v>
+        <v>4844694</v>
       </c>
       <c r="AB90" s="17">
-        <v>13506875</v>
+        <v>19459356</v>
       </c>
       <c r="AC90" s="17">
-        <v>4844694</v>
+        <v>8052598</v>
       </c>
       <c r="AD90" s="17">
-        <v>19459356</v>
+        <v>16457868</v>
       </c>
       <c r="AE90" s="17">
-        <v>8052598</v>
+        <v>17358044</v>
       </c>
       <c r="AF90" s="17">
-        <v>16457868</v>
+        <v>12343151</v>
       </c>
       <c r="AG90" s="17">
-        <v>17358044</v>
+        <v>19221576</v>
       </c>
       <c r="AH90" s="17">
-        <v>12343151</v>
+        <v>18880571</v>
       </c>
       <c r="AI90" s="17">
-        <v>19221576</v>
+        <v>24466231</v>
       </c>
       <c r="AJ90" s="17">
-        <v>18880571</v>
+        <v>21885934</v>
       </c>
       <c r="AK90" s="17">
-        <v>24466231</v>
+        <v>31641127</v>
       </c>
       <c r="AL90" s="17">
-        <v>21885934</v>
+        <v>17448502</v>
       </c>
       <c r="AM90" s="17">
-        <v>31641127</v>
+        <v>7383401</v>
       </c>
       <c r="AN90" s="17">
-        <v>17448502</v>
+        <v>12468334</v>
       </c>
       <c r="AO90" s="17">
-        <v>7383401</v>
+        <v>22794810</v>
       </c>
       <c r="AP90" s="17">
-        <v>12468334</v>
+        <v>32597444</v>
       </c>
       <c r="AQ90" s="17">
-        <v>22794810</v>
+        <v>29245568</v>
       </c>
       <c r="AR90" s="17">
-        <v>32597444</v>
+        <v>13213071</v>
       </c>
       <c r="AS90" s="17">
-        <v>29245568</v>
+        <v>63501586</v>
       </c>
       <c r="AT90" s="17">
-        <v>13213071</v>
+        <v>8572639</v>
       </c>
       <c r="AU90" s="17">
-        <v>63501586</v>
+        <v>22100501</v>
       </c>
       <c r="AV90" s="17">
-        <v>8572639</v>
+        <v>36590836</v>
       </c>
       <c r="AW90" s="17">
-        <v>22100501</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="17">
-        <v>36590836</v>
+        <v>699671</v>
       </c>
       <c r="AY90" s="17">
-        <v>7748516</v>
+        <v>30066329</v>
       </c>
       <c r="AZ90" s="17">
-        <v>699671</v>
+        <v>12211059</v>
       </c>
       <c r="BA90" s="17">
-        <v>30066329</v>
+        <v>15256444</v>
       </c>
       <c r="BB90" s="17">
-        <v>12211059</v>
+        <v>17385022</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12622,11 +12622,11 @@
       <c r="X92" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z92" s="17" t="s">
-        <v>58</v>
+      <c r="Y92" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="17">
+        <v>0</v>
       </c>
       <c r="AA92" s="17">
         <v>0</v>
@@ -12838,11 +12838,11 @@
       <c r="X94" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z94" s="17" t="s">
-        <v>58</v>
+      <c r="Y94" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="17">
+        <v>0</v>
       </c>
       <c r="AA94" s="17">
         <v>0</v>
@@ -13054,11 +13054,11 @@
       <c r="X96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z96" s="11" t="s">
-        <v>58</v>
+      <c r="Y96" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="11">
+        <v>0</v>
       </c>
       <c r="AA96" s="11">
         <v>0</v>
@@ -13212,94 +13212,94 @@
         <v>0</v>
       </c>
       <c r="Y97" s="15">
-        <v>0</v>
+        <v>18935844</v>
       </c>
       <c r="Z97" s="15">
-        <v>0</v>
+        <v>26958608</v>
       </c>
       <c r="AA97" s="15">
-        <v>18935844</v>
+        <v>18130790</v>
       </c>
       <c r="AB97" s="15">
-        <v>26958608</v>
+        <v>38609481</v>
       </c>
       <c r="AC97" s="15">
-        <v>18130790</v>
+        <v>25821321</v>
       </c>
       <c r="AD97" s="15">
-        <v>38609481</v>
+        <v>32247339</v>
       </c>
       <c r="AE97" s="15">
-        <v>25821321</v>
+        <v>33603011</v>
       </c>
       <c r="AF97" s="15">
-        <v>32247339</v>
+        <v>26265732</v>
       </c>
       <c r="AG97" s="15">
-        <v>33603011</v>
+        <v>37801860</v>
       </c>
       <c r="AH97" s="15">
-        <v>26265732</v>
+        <v>33941377</v>
       </c>
       <c r="AI97" s="15">
-        <v>37801860</v>
+        <v>39370736</v>
       </c>
       <c r="AJ97" s="15">
-        <v>33941377</v>
+        <v>35755711</v>
       </c>
       <c r="AK97" s="15">
-        <v>39370736</v>
+        <v>39611110</v>
       </c>
       <c r="AL97" s="15">
-        <v>35755711</v>
+        <v>29602151</v>
       </c>
       <c r="AM97" s="15">
-        <v>39611110</v>
+        <v>23602729</v>
       </c>
       <c r="AN97" s="15">
-        <v>29602151</v>
+        <v>32042919</v>
       </c>
       <c r="AO97" s="15">
-        <v>23602729</v>
+        <v>42584887</v>
       </c>
       <c r="AP97" s="15">
-        <v>32042919</v>
+        <v>54078909</v>
       </c>
       <c r="AQ97" s="15">
-        <v>42584887</v>
+        <v>50566158</v>
       </c>
       <c r="AR97" s="15">
-        <v>54078909</v>
+        <v>36279554</v>
       </c>
       <c r="AS97" s="15">
-        <v>50566158</v>
+        <v>84732808</v>
       </c>
       <c r="AT97" s="15">
-        <v>36279554</v>
+        <v>27164022</v>
       </c>
       <c r="AU97" s="15">
-        <v>84732808</v>
+        <v>40081597</v>
       </c>
       <c r="AV97" s="15">
-        <v>27164022</v>
+        <v>60395586</v>
       </c>
       <c r="AW97" s="15">
-        <v>40081597</v>
+        <v>27060992</v>
       </c>
       <c r="AX97" s="15">
-        <v>60395586</v>
+        <v>26462923</v>
       </c>
       <c r="AY97" s="15">
-        <v>34809508</v>
+        <v>56690183</v>
       </c>
       <c r="AZ97" s="15">
-        <v>26462923</v>
+        <v>40014483</v>
       </c>
       <c r="BA97" s="15">
-        <v>56690183</v>
+        <v>41410349</v>
       </c>
       <c r="BB97" s="15">
-        <v>40014483</v>
+        <v>47586112</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13804,95 +13804,95 @@
       <c r="X104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z104" s="11" t="s">
-        <v>58</v>
+      <c r="Y104" s="11">
+        <v>14003512</v>
+      </c>
+      <c r="Z104" s="11">
+        <v>16211577</v>
       </c>
       <c r="AA104" s="11">
-        <v>14003512</v>
-      </c>
-      <c r="AB104" s="11">
-        <v>16211577</v>
+        <v>18061592</v>
+      </c>
+      <c r="AB104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC104" s="11">
-        <v>18061592</v>
+        <v>24220903</v>
       </c>
       <c r="AD104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AE104" s="11">
-        <v>24220903</v>
-      </c>
-      <c r="AF104" s="11" t="s">
-        <v>58</v>
+        <v>26100872</v>
+      </c>
+      <c r="AF104" s="11">
+        <v>24453367</v>
       </c>
       <c r="AG104" s="11">
-        <v>26100872</v>
-      </c>
-      <c r="AH104" s="11">
-        <v>24453367</v>
-      </c>
-      <c r="AI104" s="11">
         <v>26107244</v>
       </c>
+      <c r="AH104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AK104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM104" s="11" t="s">
-        <v>58</v>
+      <c r="AL104" s="11">
+        <v>35944103</v>
+      </c>
+      <c r="AM104" s="11">
+        <v>36036697</v>
       </c>
       <c r="AN104" s="11">
-        <v>35944103</v>
+        <v>34928116</v>
       </c>
       <c r="AO104" s="11">
-        <v>36036697</v>
+        <v>36061462</v>
       </c>
       <c r="AP104" s="11">
-        <v>34928116</v>
+        <v>34819415</v>
       </c>
       <c r="AQ104" s="11">
-        <v>36061462</v>
+        <v>34673219</v>
       </c>
       <c r="AR104" s="11">
-        <v>34819415</v>
+        <v>37307055</v>
       </c>
       <c r="AS104" s="11">
-        <v>34673219</v>
-      </c>
-      <c r="AT104" s="11">
-        <v>37307055</v>
+        <v>42347288</v>
+      </c>
+      <c r="AT104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU104" s="11">
-        <v>42347288</v>
+        <v>36341912</v>
       </c>
       <c r="AV104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW104" s="11">
-        <v>36341912</v>
-      </c>
-      <c r="AX104" s="11" t="s">
-        <v>58</v>
+        <v>33531130</v>
+      </c>
+      <c r="AX104" s="11">
+        <v>25819724</v>
       </c>
       <c r="AY104" s="11">
-        <v>33531130</v>
+        <v>26860171</v>
       </c>
       <c r="AZ104" s="11">
-        <v>25819724</v>
+        <v>28032191</v>
       </c>
       <c r="BA104" s="11">
-        <v>26860171</v>
+        <v>29176714</v>
       </c>
       <c r="BB104" s="11">
-        <v>28032191</v>
+        <v>29903801</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -14020,38 +14020,38 @@
       <c r="AQ105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT105" s="13" t="s">
-        <v>58</v>
+      <c r="AR105" s="13">
+        <v>146427488</v>
+      </c>
+      <c r="AS105" s="13">
+        <v>149444423</v>
+      </c>
+      <c r="AT105" s="13">
+        <v>157119297</v>
       </c>
       <c r="AU105" s="13">
-        <v>149444423</v>
-      </c>
-      <c r="AV105" s="13" t="s">
-        <v>58</v>
+        <v>170974790</v>
+      </c>
+      <c r="AV105" s="13">
+        <v>167704899</v>
       </c>
       <c r="AW105" s="13">
-        <v>170974790</v>
+        <v>150633814</v>
       </c>
       <c r="AX105" s="13">
-        <v>167704899</v>
+        <v>141765626</v>
       </c>
       <c r="AY105" s="13">
-        <v>150633814</v>
+        <v>123881823</v>
       </c>
       <c r="AZ105" s="13">
-        <v>141765626</v>
+        <v>118060707</v>
       </c>
       <c r="BA105" s="13">
-        <v>123881823</v>
+        <v>125647769</v>
       </c>
       <c r="BB105" s="13">
-        <v>118060707</v>
+        <v>129058047</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14158,29 +14158,29 @@
       <c r="AJ106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL106" s="11" t="s">
-        <v>58</v>
+      <c r="AK106" s="11">
+        <v>82388889</v>
+      </c>
+      <c r="AL106" s="11">
+        <v>83389504</v>
       </c>
       <c r="AM106" s="11">
-        <v>82388889</v>
+        <v>81757905</v>
       </c>
       <c r="AN106" s="11">
-        <v>83389504</v>
+        <v>83931303</v>
       </c>
       <c r="AO106" s="11">
-        <v>81757905</v>
+        <v>85483199</v>
       </c>
       <c r="AP106" s="11">
-        <v>83931303</v>
-      </c>
-      <c r="AQ106" s="11">
-        <v>85483199</v>
+        <v>84035724</v>
+      </c>
+      <c r="AQ106" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR106" s="11">
-        <v>84035724</v>
+        <v>0</v>
       </c>
       <c r="AS106" s="11" t="s">
         <v>58</v>
@@ -14191,20 +14191,20 @@
       <c r="AU106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW106" s="11" t="s">
-        <v>58</v>
+      <c r="AV106" s="11">
+        <v>95470495</v>
+      </c>
+      <c r="AW106" s="11">
+        <v>86030167</v>
       </c>
       <c r="AX106" s="11">
-        <v>95470495</v>
-      </c>
-      <c r="AY106" s="11">
-        <v>86030167</v>
-      </c>
-      <c r="AZ106" s="11">
         <v>80684045</v>
+      </c>
+      <c r="AY106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ106" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA106" s="11" t="s">
         <v>58</v>
@@ -14281,77 +14281,77 @@
       <c r="X107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z107" s="13" t="s">
-        <v>58</v>
+      <c r="Y107" s="13">
+        <v>60321580</v>
+      </c>
+      <c r="Z107" s="13">
+        <v>70513343</v>
       </c>
       <c r="AA107" s="13">
-        <v>60321580</v>
+        <v>74361182</v>
       </c>
       <c r="AB107" s="13">
-        <v>70513343</v>
+        <v>97321592</v>
       </c>
       <c r="AC107" s="13">
-        <v>74361182</v>
+        <v>102190741</v>
       </c>
       <c r="AD107" s="13">
-        <v>97321592</v>
+        <v>102667736</v>
       </c>
       <c r="AE107" s="13">
-        <v>102190741</v>
+        <v>108059048</v>
       </c>
       <c r="AF107" s="13">
-        <v>102667736</v>
+        <v>126566230</v>
       </c>
       <c r="AG107" s="13">
-        <v>108059048</v>
+        <v>125634770</v>
       </c>
       <c r="AH107" s="13">
-        <v>126566230</v>
+        <v>138888748</v>
       </c>
       <c r="AI107" s="13">
-        <v>125634770</v>
+        <v>166360454</v>
       </c>
       <c r="AJ107" s="13">
-        <v>138888748</v>
+        <v>168765537</v>
       </c>
       <c r="AK107" s="13">
-        <v>166360454</v>
+        <v>169872816</v>
       </c>
       <c r="AL107" s="13">
-        <v>168765537</v>
+        <v>168096731</v>
       </c>
       <c r="AM107" s="13">
-        <v>169872816</v>
+        <v>164906650</v>
       </c>
       <c r="AN107" s="13">
-        <v>168096731</v>
+        <v>162694037</v>
       </c>
       <c r="AO107" s="13">
-        <v>164906650</v>
+        <v>153208171</v>
       </c>
       <c r="AP107" s="13">
-        <v>162694037</v>
+        <v>153489810</v>
       </c>
       <c r="AQ107" s="13">
-        <v>153208171</v>
-      </c>
-      <c r="AR107" s="13">
-        <v>153489810</v>
-      </c>
-      <c r="AS107" s="13">
         <v>150171295</v>
       </c>
-      <c r="AT107" s="13">
-        <v>146427488</v>
+      <c r="AR107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT107" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV107" s="13">
-        <v>157119297</v>
+      <c r="AV107" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW107" s="13" t="s">
         <v>58</v>
@@ -14497,38 +14497,38 @@
       <c r="AQ108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS108" s="11" t="s">
-        <v>58</v>
+      <c r="AR108" s="11">
+        <v>127286007</v>
+      </c>
+      <c r="AS108" s="11">
+        <v>133818222</v>
       </c>
       <c r="AT108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU108" s="11">
-        <v>133818222</v>
-      </c>
-      <c r="AV108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW108" s="11" t="s">
-        <v>58</v>
+      <c r="AU108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV108" s="11">
+        <v>150335365</v>
+      </c>
+      <c r="AW108" s="11">
+        <v>147612922</v>
       </c>
       <c r="AX108" s="11">
-        <v>150335365</v>
+        <v>138588290</v>
       </c>
       <c r="AY108" s="11">
-        <v>147612922</v>
+        <v>128232208</v>
       </c>
       <c r="AZ108" s="11">
-        <v>138588290</v>
+        <v>127174071</v>
       </c>
       <c r="BA108" s="11">
-        <v>128232208</v>
+        <v>131825585</v>
       </c>
       <c r="BB108" s="11">
-        <v>127174071</v>
+        <v>138314263</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -14758,77 +14758,77 @@
       <c r="X110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="11" t="s">
-        <v>58</v>
+      <c r="Y110" s="11">
+        <v>63068624</v>
+      </c>
+      <c r="Z110" s="11">
+        <v>73252379</v>
       </c>
       <c r="AA110" s="11">
-        <v>63068624</v>
+        <v>80556815</v>
       </c>
       <c r="AB110" s="11">
-        <v>73252379</v>
+        <v>94066353</v>
       </c>
       <c r="AC110" s="11">
-        <v>80556815</v>
+        <v>101070957</v>
       </c>
       <c r="AD110" s="11">
-        <v>94066353</v>
+        <v>97788670</v>
       </c>
       <c r="AE110" s="11">
-        <v>101070957</v>
+        <v>112590884</v>
       </c>
       <c r="AF110" s="11">
-        <v>97788670</v>
+        <v>108139465</v>
       </c>
       <c r="AG110" s="11">
-        <v>112590884</v>
+        <v>105099304</v>
       </c>
       <c r="AH110" s="11">
-        <v>108139465</v>
+        <v>108395399</v>
       </c>
       <c r="AI110" s="11">
-        <v>105099304</v>
+        <v>117987563</v>
       </c>
       <c r="AJ110" s="11">
-        <v>108395399</v>
+        <v>123271625</v>
       </c>
       <c r="AK110" s="11">
-        <v>117987563</v>
+        <v>131092748</v>
       </c>
       <c r="AL110" s="11">
-        <v>123271625</v>
+        <v>135236249</v>
       </c>
       <c r="AM110" s="11">
-        <v>131092748</v>
+        <v>140825177</v>
       </c>
       <c r="AN110" s="11">
-        <v>135236249</v>
+        <v>130528669</v>
       </c>
       <c r="AO110" s="11">
-        <v>140825177</v>
+        <v>135910024</v>
       </c>
       <c r="AP110" s="11">
-        <v>130528669</v>
+        <v>134991613</v>
       </c>
       <c r="AQ110" s="11">
-        <v>135910024</v>
-      </c>
-      <c r="AR110" s="11">
-        <v>134991613</v>
-      </c>
-      <c r="AS110" s="11">
         <v>129057312</v>
       </c>
-      <c r="AT110" s="11">
-        <v>127286007</v>
+      <c r="AR110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT110" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV110" s="11">
-        <v>144846737</v>
+      <c r="AV110" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW110" s="11" t="s">
         <v>58</v>
@@ -14980,17 +14980,17 @@
       <c r="AS111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU111" s="13" t="s">
-        <v>58</v>
+      <c r="AT111" s="13">
+        <v>144846737</v>
+      </c>
+      <c r="AU111" s="13">
+        <v>153700559</v>
       </c>
       <c r="AV111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW111" s="13">
-        <v>153700559</v>
+      <c r="AW111" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX111" s="13" t="s">
         <v>58</v>
@@ -15076,14 +15076,14 @@
       <c r="X112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y112" s="11" t="s">
-        <v>58</v>
+      <c r="Y112" s="11">
+        <v>21362956</v>
       </c>
       <c r="Z112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA112" s="11">
-        <v>21362956</v>
+      <c r="AA112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB112" s="11" t="s">
         <v>58</v>
@@ -15349,38 +15349,38 @@
       <c r="AQ114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT114" s="11" t="s">
-        <v>58</v>
+      <c r="AR114" s="11">
+        <v>158257844</v>
+      </c>
+      <c r="AS114" s="11">
+        <v>142102597</v>
+      </c>
+      <c r="AT114" s="11">
+        <v>140715428</v>
       </c>
       <c r="AU114" s="11">
-        <v>142102597</v>
-      </c>
-      <c r="AV114" s="11" t="s">
-        <v>58</v>
+        <v>137718491</v>
+      </c>
+      <c r="AV114" s="11">
+        <v>169993934</v>
       </c>
       <c r="AW114" s="11">
-        <v>137718491</v>
-      </c>
-      <c r="AX114" s="11">
-        <v>169993934</v>
-      </c>
-      <c r="AY114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY114" s="11">
         <v>116492205</v>
       </c>
-      <c r="BB114" s="11">
+      <c r="AZ114" s="11">
         <v>117258180</v>
+      </c>
+      <c r="BA114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB114" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15508,8 +15508,8 @@
       <c r="AQ115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR115" s="13" t="s">
-        <v>58</v>
+      <c r="AR115" s="13">
+        <v>0</v>
       </c>
       <c r="AS115" s="13" t="s">
         <v>58</v>
@@ -15538,8 +15538,8 @@
       <c r="BA115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB115" s="13" t="s">
-        <v>58</v>
+      <c r="BB115" s="13">
+        <v>79578452</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -15610,77 +15610,77 @@
       <c r="X116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA116" s="11">
+      <c r="Y116" s="11">
         <v>54385932</v>
       </c>
+      <c r="Z116" s="11">
+        <v>62926501</v>
+      </c>
+      <c r="AA116" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB116" s="11">
-        <v>62926501</v>
-      </c>
-      <c r="AC116" s="11" t="s">
-        <v>58</v>
+        <v>89781298</v>
+      </c>
+      <c r="AC116" s="11">
+        <v>106841745</v>
       </c>
       <c r="AD116" s="11">
-        <v>89781298</v>
+        <v>112870544</v>
       </c>
       <c r="AE116" s="11">
-        <v>106841745</v>
+        <v>110228526</v>
       </c>
       <c r="AF116" s="11">
-        <v>112870544</v>
+        <v>117957922</v>
       </c>
       <c r="AG116" s="11">
-        <v>110228526</v>
+        <v>145887650</v>
       </c>
       <c r="AH116" s="11">
-        <v>117957922</v>
+        <v>130710349</v>
       </c>
       <c r="AI116" s="11">
-        <v>145887650</v>
+        <v>130159729</v>
       </c>
       <c r="AJ116" s="11">
-        <v>130710349</v>
+        <v>130886958</v>
       </c>
       <c r="AK116" s="11">
-        <v>130159729</v>
+        <v>151445808</v>
       </c>
       <c r="AL116" s="11">
-        <v>130886958</v>
+        <v>154983452</v>
       </c>
       <c r="AM116" s="11">
-        <v>151445808</v>
+        <v>170148710</v>
       </c>
       <c r="AN116" s="11">
-        <v>154983452</v>
+        <v>156966941</v>
       </c>
       <c r="AO116" s="11">
-        <v>170148710</v>
+        <v>162628736</v>
       </c>
       <c r="AP116" s="11">
-        <v>156966941</v>
+        <v>158704014</v>
       </c>
       <c r="AQ116" s="11">
-        <v>162628736</v>
-      </c>
-      <c r="AR116" s="11">
-        <v>158704014</v>
-      </c>
-      <c r="AS116" s="11">
         <v>161346485</v>
       </c>
-      <c r="AT116" s="11">
-        <v>158257844</v>
+      <c r="AR116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV116" s="11">
-        <v>140715428</v>
+      <c r="AV116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW116" s="11" t="s">
         <v>58</v>
@@ -15826,38 +15826,38 @@
       <c r="AQ117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS117" s="13" t="s">
-        <v>58</v>
+      <c r="AR117" s="13">
+        <v>147785318</v>
+      </c>
+      <c r="AS117" s="13">
+        <v>136751318</v>
       </c>
       <c r="AT117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU117" s="13">
-        <v>136751318</v>
-      </c>
-      <c r="AV117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW117" s="13" t="s">
-        <v>58</v>
+      <c r="AU117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV117" s="13">
+        <v>172056105</v>
+      </c>
+      <c r="AW117" s="13">
+        <v>170114914</v>
       </c>
       <c r="AX117" s="13">
-        <v>172056105</v>
+        <v>137730512</v>
       </c>
       <c r="AY117" s="13">
-        <v>176138665</v>
+        <v>117879789</v>
       </c>
       <c r="AZ117" s="13">
-        <v>137730512</v>
+        <v>121138413</v>
       </c>
       <c r="BA117" s="13">
-        <v>117879789</v>
+        <v>129768081</v>
       </c>
       <c r="BB117" s="13">
-        <v>121138413</v>
+        <v>127975656</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -15928,26 +15928,26 @@
       <c r="X118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA118" s="11">
+      <c r="Y118" s="11">
         <v>80237381</v>
       </c>
+      <c r="Z118" s="11">
+        <v>64552672</v>
+      </c>
+      <c r="AA118" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB118" s="11">
-        <v>64552672</v>
-      </c>
-      <c r="AC118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD118" s="11">
         <v>76482830</v>
       </c>
-      <c r="AE118" s="11">
+      <c r="AC118" s="11">
         <v>74329163</v>
+      </c>
+      <c r="AD118" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AF118" s="11" t="s">
         <v>58</v>
@@ -16087,77 +16087,77 @@
       <c r="X119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z119" s="13" t="s">
-        <v>58</v>
+      <c r="Y119" s="13">
+        <v>57390412</v>
+      </c>
+      <c r="Z119" s="13">
+        <v>68432516</v>
       </c>
       <c r="AA119" s="13">
-        <v>57390412</v>
+        <v>74474175</v>
       </c>
       <c r="AB119" s="13">
-        <v>68432516</v>
+        <v>96726508</v>
       </c>
       <c r="AC119" s="13">
-        <v>74474175</v>
+        <v>106508594</v>
       </c>
       <c r="AD119" s="13">
-        <v>96726508</v>
+        <v>107235092</v>
       </c>
       <c r="AE119" s="13">
-        <v>106508594</v>
+        <v>111902446</v>
       </c>
       <c r="AF119" s="13">
-        <v>107235092</v>
+        <v>119218075</v>
       </c>
       <c r="AG119" s="13">
-        <v>111902446</v>
+        <v>130530897</v>
       </c>
       <c r="AH119" s="13">
-        <v>119218075</v>
+        <v>125259625</v>
       </c>
       <c r="AI119" s="13">
-        <v>130530897</v>
+        <v>119983761</v>
       </c>
       <c r="AJ119" s="13">
-        <v>125259625</v>
+        <v>117168094</v>
       </c>
       <c r="AK119" s="13">
-        <v>119983761</v>
-      </c>
-      <c r="AL119" s="13">
-        <v>117168094</v>
+        <v>125291264</v>
+      </c>
+      <c r="AL119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM119" s="13">
-        <v>125291264</v>
-      </c>
-      <c r="AN119" s="13" t="s">
-        <v>58</v>
+        <v>141487718</v>
+      </c>
+      <c r="AN119" s="13">
+        <v>127956776</v>
       </c>
       <c r="AO119" s="13">
-        <v>141487718</v>
+        <v>146914703</v>
       </c>
       <c r="AP119" s="13">
-        <v>127956776</v>
+        <v>149605845</v>
       </c>
       <c r="AQ119" s="13">
-        <v>146914703</v>
-      </c>
-      <c r="AR119" s="13">
-        <v>149605845</v>
-      </c>
-      <c r="AS119" s="13">
         <v>141605307</v>
       </c>
-      <c r="AT119" s="13">
-        <v>147785318</v>
+      <c r="AR119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV119" s="13">
-        <v>142564889</v>
+      <c r="AV119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW119" s="13" t="s">
         <v>58</v>
@@ -16309,17 +16309,17 @@
       <c r="AS120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU120" s="11" t="s">
-        <v>58</v>
+      <c r="AT120" s="11">
+        <v>142564889</v>
+      </c>
+      <c r="AU120" s="11">
+        <v>143728584</v>
       </c>
       <c r="AV120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW120" s="11">
-        <v>143728584</v>
+      <c r="AW120" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX120" s="11" t="s">
         <v>58</v>
@@ -16450,23 +16450,23 @@
       <c r="AM121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN121" s="13" t="s">
-        <v>58</v>
+      <c r="AN121" s="13">
+        <v>79874950</v>
       </c>
       <c r="AO121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP121" s="13">
-        <v>79874950</v>
-      </c>
-      <c r="AQ121" s="13" t="s">
-        <v>58</v>
+      <c r="AP121" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ121" s="13">
+        <v>81612279</v>
       </c>
       <c r="AR121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS121" s="13">
-        <v>81612279</v>
+      <c r="AS121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT121" s="13" t="s">
         <v>58</v>

--- a/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94EA9B-D5C1-4EC1-A5A5-87B98FEF2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F9D1E-05A2-433A-A128-C6B96BF48789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فخوز-فولاد  خوزستان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1513,104 +1513,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>468407</v>
+      </c>
+      <c r="X11" s="11">
+        <v>524854</v>
       </c>
       <c r="Y11" s="11">
-        <v>468407</v>
+        <v>529010</v>
       </c>
       <c r="Z11" s="11">
-        <v>524854</v>
+        <v>526158</v>
       </c>
       <c r="AA11" s="11">
-        <v>529010</v>
+        <v>535181</v>
       </c>
       <c r="AB11" s="11">
-        <v>526158</v>
+        <v>453081</v>
       </c>
       <c r="AC11" s="11">
-        <v>535181</v>
+        <v>493368</v>
       </c>
       <c r="AD11" s="11">
-        <v>453081</v>
+        <v>355713</v>
       </c>
       <c r="AE11" s="11">
-        <v>493368</v>
+        <v>261605</v>
       </c>
       <c r="AF11" s="11">
-        <v>355713</v>
+        <v>505905</v>
       </c>
       <c r="AG11" s="11">
-        <v>261605</v>
+        <v>534781</v>
       </c>
       <c r="AH11" s="11">
-        <v>505905</v>
+        <v>527785</v>
       </c>
       <c r="AI11" s="11">
-        <v>534781</v>
+        <v>405444</v>
       </c>
       <c r="AJ11" s="11">
-        <v>527785</v>
+        <v>420236</v>
       </c>
       <c r="AK11" s="11">
-        <v>405444</v>
+        <v>367497</v>
       </c>
       <c r="AL11" s="11">
-        <v>420236</v>
+        <v>430395</v>
       </c>
       <c r="AM11" s="11">
-        <v>367497</v>
+        <v>513633</v>
       </c>
       <c r="AN11" s="11">
-        <v>430395</v>
+        <v>528153</v>
       </c>
       <c r="AO11" s="11">
-        <v>513633</v>
+        <v>469388</v>
       </c>
       <c r="AP11" s="11">
-        <v>528153</v>
+        <v>423442</v>
       </c>
       <c r="AQ11" s="11">
-        <v>469388</v>
+        <v>495064</v>
       </c>
       <c r="AR11" s="11">
-        <v>423442</v>
+        <v>422178</v>
       </c>
       <c r="AS11" s="11">
-        <v>495064</v>
+        <v>286562</v>
       </c>
       <c r="AT11" s="11">
-        <v>422178</v>
+        <v>457458</v>
       </c>
       <c r="AU11" s="11">
-        <v>286562</v>
+        <v>433810</v>
       </c>
       <c r="AV11" s="11">
-        <v>457458</v>
+        <v>568559</v>
       </c>
       <c r="AW11" s="11">
-        <v>433810</v>
+        <v>502675</v>
       </c>
       <c r="AX11" s="11">
-        <v>568559</v>
+        <v>522404</v>
       </c>
       <c r="AY11" s="11">
-        <v>502675</v>
+        <v>493162</v>
       </c>
       <c r="AZ11" s="11">
-        <v>522404</v>
+        <v>530291</v>
       </c>
       <c r="BA11" s="11">
-        <v>493162</v>
+        <v>345689</v>
       </c>
       <c r="BB11" s="11">
-        <v>530291</v>
+        <v>489912</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1732,44 +1732,44 @@
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
+      <c r="AQ12" s="13">
+        <v>157204</v>
       </c>
       <c r="AR12" s="13">
-        <v>124516</v>
+        <v>162356</v>
       </c>
       <c r="AS12" s="13">
-        <v>157204</v>
+        <v>158524</v>
       </c>
       <c r="AT12" s="13">
-        <v>162356</v>
+        <v>165783</v>
       </c>
       <c r="AU12" s="13">
-        <v>158524</v>
+        <v>121091</v>
       </c>
       <c r="AV12" s="13">
-        <v>165783</v>
+        <v>76607</v>
       </c>
       <c r="AW12" s="13">
-        <v>121091</v>
+        <v>78624</v>
       </c>
       <c r="AX12" s="13">
-        <v>76607</v>
+        <v>105781</v>
       </c>
       <c r="AY12" s="13">
-        <v>78624</v>
+        <v>102583</v>
       </c>
       <c r="AZ12" s="13">
-        <v>105781</v>
+        <v>81505</v>
       </c>
       <c r="BA12" s="13">
-        <v>102583</v>
+        <v>28520</v>
       </c>
       <c r="BB12" s="13">
-        <v>81505</v>
+        <v>118393</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1867,68 +1867,68 @@
       <c r="AH13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>58</v>
+      <c r="AI13" s="11">
+        <v>172127</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>156686</v>
       </c>
       <c r="AK13" s="11">
-        <v>172127</v>
+        <v>228863</v>
       </c>
       <c r="AL13" s="11">
-        <v>156686</v>
+        <v>315803</v>
       </c>
       <c r="AM13" s="11">
-        <v>228863</v>
+        <v>331127</v>
       </c>
       <c r="AN13" s="11">
-        <v>315803</v>
+        <v>326475</v>
       </c>
       <c r="AO13" s="11">
-        <v>331127</v>
+        <v>269811</v>
       </c>
       <c r="AP13" s="11">
-        <v>326475</v>
+        <v>232317</v>
       </c>
       <c r="AQ13" s="11">
-        <v>269811</v>
+        <v>315531</v>
       </c>
       <c r="AR13" s="11">
-        <v>232317</v>
+        <v>373392</v>
       </c>
       <c r="AS13" s="11">
-        <v>315531</v>
+        <v>354970</v>
       </c>
       <c r="AT13" s="11">
-        <v>373392</v>
+        <v>330358</v>
       </c>
       <c r="AU13" s="11">
-        <v>354970</v>
+        <v>213095</v>
       </c>
       <c r="AV13" s="11">
-        <v>330358</v>
+        <v>245969</v>
       </c>
       <c r="AW13" s="11">
-        <v>213095</v>
+        <v>318943</v>
       </c>
       <c r="AX13" s="11">
-        <v>245969</v>
+        <v>339118</v>
       </c>
       <c r="AY13" s="11">
-        <v>318943</v>
+        <v>344624</v>
       </c>
       <c r="AZ13" s="11">
-        <v>339118</v>
+        <v>271404</v>
       </c>
       <c r="BA13" s="11">
-        <v>344624</v>
+        <v>197454</v>
       </c>
       <c r="BB13" s="11">
-        <v>271404</v>
+        <v>284770</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1990,68 +1990,68 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>108370</v>
+      </c>
+      <c r="X14" s="13">
+        <v>104006</v>
       </c>
       <c r="Y14" s="13">
-        <v>108370</v>
+        <v>119061</v>
       </c>
       <c r="Z14" s="13">
-        <v>104006</v>
+        <v>143370</v>
       </c>
       <c r="AA14" s="13">
-        <v>119061</v>
+        <v>113940</v>
       </c>
       <c r="AB14" s="13">
-        <v>143370</v>
+        <v>120782</v>
       </c>
       <c r="AC14" s="13">
-        <v>113940</v>
+        <v>115821</v>
       </c>
       <c r="AD14" s="13">
-        <v>120782</v>
+        <v>113508</v>
       </c>
       <c r="AE14" s="13">
-        <v>115821</v>
+        <v>151160</v>
       </c>
       <c r="AF14" s="13">
-        <v>113508</v>
+        <v>147352</v>
       </c>
       <c r="AG14" s="13">
-        <v>151160</v>
+        <v>160975</v>
       </c>
       <c r="AH14" s="13">
-        <v>147352</v>
+        <v>161391</v>
       </c>
       <c r="AI14" s="13">
-        <v>160975</v>
+        <v>87763</v>
       </c>
       <c r="AJ14" s="13">
-        <v>161391</v>
+        <v>107494</v>
       </c>
       <c r="AK14" s="13">
-        <v>87763</v>
+        <v>135660</v>
       </c>
       <c r="AL14" s="13">
-        <v>107494</v>
+        <v>179213</v>
       </c>
       <c r="AM14" s="13">
-        <v>135660</v>
+        <v>172621</v>
       </c>
       <c r="AN14" s="13">
-        <v>179213</v>
+        <v>155418</v>
       </c>
       <c r="AO14" s="13">
-        <v>172621</v>
+        <v>161008</v>
       </c>
       <c r="AP14" s="13">
-        <v>155418</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>161008</v>
+        <v>124516</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>58</v>
@@ -2087,7 +2087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2209,44 +2209,44 @@
       <c r="AP15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>149014</v>
-      </c>
-      <c r="AS15" s="11">
+      <c r="AQ15" s="11">
         <v>163728</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>138868</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>77913</v>
       </c>
       <c r="AV15" s="11">
-        <v>138868</v>
+        <v>158592</v>
       </c>
       <c r="AW15" s="11">
-        <v>77913</v>
+        <v>244246</v>
       </c>
       <c r="AX15" s="11">
-        <v>158592</v>
+        <v>223132</v>
       </c>
       <c r="AY15" s="11">
-        <v>244246</v>
+        <v>219798</v>
       </c>
       <c r="AZ15" s="11">
-        <v>223132</v>
+        <v>230549</v>
       </c>
       <c r="BA15" s="11">
-        <v>219798</v>
+        <v>219564</v>
       </c>
       <c r="BB15" s="11">
-        <v>230549</v>
+        <v>199837</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2308,11 +2308,11 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2335,11 +2335,11 @@
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
@@ -2405,7 +2405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2467,68 +2467,68 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>219024</v>
+      </c>
+      <c r="X17" s="11">
+        <v>199764</v>
       </c>
       <c r="Y17" s="11">
-        <v>219024</v>
+        <v>202314</v>
       </c>
       <c r="Z17" s="11">
-        <v>199764</v>
+        <v>156270</v>
       </c>
       <c r="AA17" s="11">
-        <v>202314</v>
+        <v>200274</v>
       </c>
       <c r="AB17" s="11">
-        <v>156270</v>
+        <v>207824</v>
       </c>
       <c r="AC17" s="11">
-        <v>200274</v>
+        <v>175040</v>
       </c>
       <c r="AD17" s="11">
-        <v>207824</v>
+        <v>147085</v>
       </c>
       <c r="AE17" s="11">
-        <v>175040</v>
+        <v>161729</v>
       </c>
       <c r="AF17" s="11">
-        <v>147085</v>
+        <v>181654</v>
       </c>
       <c r="AG17" s="11">
-        <v>161729</v>
+        <v>145020</v>
       </c>
       <c r="AH17" s="11">
-        <v>181654</v>
+        <v>131140</v>
       </c>
       <c r="AI17" s="11">
-        <v>145020</v>
+        <v>58207</v>
       </c>
       <c r="AJ17" s="11">
-        <v>131140</v>
+        <v>37635</v>
       </c>
       <c r="AK17" s="11">
-        <v>58207</v>
+        <v>72668</v>
       </c>
       <c r="AL17" s="11">
-        <v>37635</v>
+        <v>138733</v>
       </c>
       <c r="AM17" s="11">
-        <v>72668</v>
+        <v>170203</v>
       </c>
       <c r="AN17" s="11">
-        <v>138733</v>
+        <v>176986</v>
       </c>
       <c r="AO17" s="11">
-        <v>170203</v>
+        <v>157115</v>
       </c>
       <c r="AP17" s="11">
-        <v>176986</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>157115</v>
+        <v>149014</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>58</v>
@@ -2564,7 +2564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2689,18 +2689,18 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT18" s="13">
+      <c r="AR18" s="13">
         <v>188789</v>
       </c>
-      <c r="AU18" s="13">
+      <c r="AS18" s="13">
         <v>173220</v>
       </c>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2785,11 +2785,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2812,11 +2812,11 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2882,7 +2882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2943,103 +2943,103 @@
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="X20" s="15">
-        <v>0</v>
+        <v>828624</v>
       </c>
       <c r="Y20" s="15">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="Z20" s="15">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AA20" s="15">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AB20" s="15">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AC20" s="15">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AD20" s="15">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AE20" s="15">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AF20" s="15">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AG20" s="15">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AH20" s="15">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AI20" s="15">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AJ20" s="15">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AK20" s="15">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AL20" s="15">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AM20" s="15">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AN20" s="15">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AO20" s="15">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AP20" s="15">
-        <v>1187032</v>
+        <v>929289</v>
       </c>
       <c r="AQ20" s="15">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AR20" s="15">
-        <v>929289</v>
+        <v>1146715</v>
       </c>
       <c r="AS20" s="15">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AT20" s="15">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AU20" s="15">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AV20" s="15">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AW20" s="15">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AX20" s="15">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="AY20" s="15">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="AZ20" s="15">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
       <c r="BA20" s="15">
-        <v>1160167</v>
+        <v>791227</v>
       </c>
       <c r="BB20" s="15">
-        <v>1113749</v>
+        <v>1092912</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>59</v>
       </c>
@@ -3218,8 +3218,8 @@
       <c r="AP22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="11" t="s">
-        <v>58</v>
+      <c r="AQ22" s="11">
+        <v>0</v>
       </c>
       <c r="AR22" s="11">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3377,20 +3377,20 @@
       <c r="AP23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="13" t="s">
-        <v>58</v>
+      <c r="AQ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="13">
+        <v>0</v>
       </c>
       <c r="AV23" s="13">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
@@ -3476,11 +3476,11 @@
       <c r="V24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>58</v>
+      <c r="W24" s="11">
+        <v>0</v>
+      </c>
+      <c r="X24" s="11">
+        <v>0</v>
       </c>
       <c r="Y24" s="11">
         <v>0</v>
@@ -3506,11 +3506,11 @@
       <c r="AF24" s="11">
         <v>0</v>
       </c>
-      <c r="AG24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AG24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>58</v>
@@ -3573,7 +3573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>62</v>
       </c>
@@ -3695,20 +3695,20 @@
       <c r="AP25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU25" s="13" t="s">
-        <v>58</v>
+      <c r="AQ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="13">
+        <v>0</v>
       </c>
       <c r="AV25" s="13">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3794,11 +3794,11 @@
       <c r="V26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>58</v>
+      <c r="W26" s="11">
+        <v>0</v>
+      </c>
+      <c r="X26" s="11">
+        <v>0</v>
       </c>
       <c r="Y26" s="11">
         <v>0</v>
@@ -3821,11 +3821,11 @@
       <c r="AE26" s="11">
         <v>0</v>
       </c>
-      <c r="AF26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="11">
-        <v>0</v>
+      <c r="AF26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH26" s="11" t="s">
         <v>58</v>
@@ -3854,14 +3854,14 @@
       <c r="AP26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="11">
-        <v>0</v>
+      <c r="AQ26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT26" s="11" t="s">
         <v>58</v>
@@ -3891,7 +3891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>70</v>
       </c>
@@ -3953,11 +3953,11 @@
       <c r="V27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>58</v>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0</v>
       </c>
       <c r="Y27" s="13">
         <v>0</v>
@@ -3983,11 +3983,11 @@
       <c r="AF27" s="13">
         <v>0</v>
       </c>
-      <c r="AG27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="13">
-        <v>0</v>
+      <c r="AG27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="13" t="s">
         <v>58</v>
@@ -4050,7 +4050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
@@ -4175,17 +4175,17 @@
       <c r="AQ28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="11">
-        <v>0</v>
+      <c r="AR28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>58</v>
@@ -4209,7 +4209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>66</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>71</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>72</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="BA31" s="19"/>
       <c r="BB31" s="19"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
@@ -4642,11 +4642,11 @@
       <c r="V32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>58</v>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
       </c>
       <c r="Y32" s="17">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>74</v>
       </c>
@@ -4800,103 +4800,103 @@
         <v>0</v>
       </c>
       <c r="W33" s="15">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="X33" s="15">
-        <v>0</v>
+        <v>828624</v>
       </c>
       <c r="Y33" s="15">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="Z33" s="15">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AA33" s="15">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AB33" s="15">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AC33" s="15">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AD33" s="15">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AE33" s="15">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AF33" s="15">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AG33" s="15">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AH33" s="15">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AI33" s="15">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AJ33" s="15">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AK33" s="15">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AL33" s="15">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AM33" s="15">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AN33" s="15">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AO33" s="15">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AP33" s="15">
-        <v>1187032</v>
+        <v>929289</v>
       </c>
       <c r="AQ33" s="15">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AR33" s="15">
-        <v>929289</v>
+        <v>1146715</v>
       </c>
       <c r="AS33" s="15">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AT33" s="15">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AU33" s="15">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AV33" s="15">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AW33" s="15">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AX33" s="15">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="AY33" s="15">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="AZ33" s="15">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
       <c r="BA33" s="15">
-        <v>1160167</v>
+        <v>791227</v>
       </c>
       <c r="BB33" s="15">
-        <v>1113749</v>
+        <v>1092912</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5006,7 +5006,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5061,7 +5061,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>75</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5273,7 +5273,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>76</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -5392,104 +5392,104 @@
       <c r="V40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>58</v>
+      <c r="W40" s="11">
+        <v>4840</v>
+      </c>
+      <c r="X40" s="11">
+        <v>3507</v>
       </c>
       <c r="Y40" s="11">
-        <v>4840</v>
+        <v>8329</v>
       </c>
       <c r="Z40" s="11">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="11">
-        <v>8329</v>
+        <v>10783</v>
       </c>
       <c r="AB40" s="11">
         <v>0</v>
       </c>
       <c r="AC40" s="11">
-        <v>10783</v>
+        <v>7336</v>
       </c>
       <c r="AD40" s="11">
-        <v>0</v>
+        <v>47037</v>
       </c>
       <c r="AE40" s="11">
-        <v>7336</v>
+        <v>1063</v>
       </c>
       <c r="AF40" s="11">
-        <v>47037</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>1063</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40" s="11" t="s">
-        <v>58</v>
+      <c r="AJ40" s="11">
+        <v>24903</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>218</v>
       </c>
       <c r="AL40" s="11">
-        <v>24903</v>
+        <v>16318</v>
       </c>
       <c r="AM40" s="11">
-        <v>218</v>
+        <v>30393</v>
       </c>
       <c r="AN40" s="11">
-        <v>16318</v>
+        <v>36127</v>
       </c>
       <c r="AO40" s="11">
-        <v>30393</v>
+        <v>45229</v>
       </c>
       <c r="AP40" s="11">
-        <v>36127</v>
+        <v>74156</v>
       </c>
       <c r="AQ40" s="11">
-        <v>45229</v>
+        <v>34683</v>
       </c>
       <c r="AR40" s="11">
-        <v>74156</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="11">
-        <v>34683</v>
+        <v>50007</v>
       </c>
       <c r="AT40" s="11">
         <v>0</v>
       </c>
       <c r="AU40" s="11">
-        <v>50007</v>
+        <v>20752</v>
       </c>
       <c r="AV40" s="11">
-        <v>0</v>
+        <v>44038</v>
       </c>
       <c r="AW40" s="11">
-        <v>20752</v>
+        <v>18165</v>
       </c>
       <c r="AX40" s="11">
-        <v>44038</v>
+        <v>35724</v>
       </c>
       <c r="AY40" s="11">
-        <v>18165</v>
+        <v>27038</v>
       </c>
       <c r="AZ40" s="11">
-        <v>35724</v>
+        <v>46456</v>
       </c>
       <c r="BA40" s="11">
-        <v>27038</v>
+        <v>54356</v>
       </c>
       <c r="BB40" s="11">
-        <v>46456</v>
+        <v>70927</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
@@ -5611,44 +5611,44 @@
       <c r="AP41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="13" t="s">
-        <v>58</v>
+      <c r="AQ41" s="13">
+        <v>73970</v>
       </c>
       <c r="AR41" s="13">
-        <v>81738</v>
+        <v>53195</v>
       </c>
       <c r="AS41" s="13">
-        <v>73970</v>
+        <v>20944</v>
       </c>
       <c r="AT41" s="13">
-        <v>53195</v>
+        <v>64466</v>
       </c>
       <c r="AU41" s="13">
-        <v>20944</v>
+        <v>88526</v>
       </c>
       <c r="AV41" s="13">
-        <v>64466</v>
+        <v>68109</v>
       </c>
       <c r="AW41" s="13">
-        <v>88526</v>
+        <v>71943</v>
       </c>
       <c r="AX41" s="13">
-        <v>68109</v>
+        <v>92889</v>
       </c>
       <c r="AY41" s="13">
-        <v>71943</v>
+        <v>92022</v>
       </c>
       <c r="AZ41" s="13">
-        <v>92889</v>
+        <v>76248</v>
       </c>
       <c r="BA41" s="13">
-        <v>92022</v>
+        <v>67252</v>
       </c>
       <c r="BB41" s="13">
-        <v>76248</v>
+        <v>104941</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>60</v>
       </c>
@@ -5746,32 +5746,32 @@
       <c r="AH42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ42" s="11" t="s">
-        <v>58</v>
+      <c r="AI42" s="11">
+        <v>54</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>9032</v>
       </c>
       <c r="AK42" s="11">
-        <v>54</v>
+        <v>8191</v>
       </c>
       <c r="AL42" s="11">
-        <v>9032</v>
+        <v>7846</v>
       </c>
       <c r="AM42" s="11">
-        <v>8191</v>
+        <v>10267</v>
       </c>
       <c r="AN42" s="11">
-        <v>7846</v>
-      </c>
-      <c r="AO42" s="11">
-        <v>10267</v>
-      </c>
-      <c r="AP42" s="11">
         <v>7446</v>
       </c>
-      <c r="AQ42" s="11" t="s">
-        <v>58</v>
+      <c r="AO42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>0</v>
       </c>
       <c r="AR42" s="11">
         <v>0</v>
@@ -5780,19 +5780,19 @@
         <v>0</v>
       </c>
       <c r="AT42" s="11">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="AV42" s="11">
-        <v>15709</v>
+        <v>11106</v>
       </c>
       <c r="AW42" s="11">
-        <v>20884</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="11">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>61</v>
       </c>
@@ -5869,68 +5869,68 @@
       <c r="V43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>58</v>
+      <c r="W43" s="13">
+        <v>79921</v>
+      </c>
+      <c r="X43" s="13">
+        <v>69098</v>
       </c>
       <c r="Y43" s="13">
-        <v>79921</v>
+        <v>75779</v>
       </c>
       <c r="Z43" s="13">
-        <v>69098</v>
+        <v>90506</v>
       </c>
       <c r="AA43" s="13">
-        <v>75779</v>
+        <v>72512</v>
       </c>
       <c r="AB43" s="13">
-        <v>90506</v>
+        <v>93483</v>
       </c>
       <c r="AC43" s="13">
-        <v>72512</v>
+        <v>66471</v>
       </c>
       <c r="AD43" s="13">
-        <v>93483</v>
+        <v>46580</v>
       </c>
       <c r="AE43" s="13">
-        <v>66471</v>
+        <v>82485</v>
       </c>
       <c r="AF43" s="13">
-        <v>46580</v>
+        <v>47954</v>
       </c>
       <c r="AG43" s="13">
-        <v>82485</v>
+        <v>32964</v>
       </c>
       <c r="AH43" s="13">
-        <v>47954</v>
+        <v>46050</v>
       </c>
       <c r="AI43" s="13">
-        <v>32964</v>
+        <v>19916</v>
       </c>
       <c r="AJ43" s="13">
-        <v>46050</v>
+        <v>30683</v>
       </c>
       <c r="AK43" s="13">
-        <v>19916</v>
+        <v>51773</v>
       </c>
       <c r="AL43" s="13">
-        <v>30683</v>
+        <v>57033</v>
       </c>
       <c r="AM43" s="13">
-        <v>51773</v>
+        <v>67190</v>
       </c>
       <c r="AN43" s="13">
-        <v>57033</v>
+        <v>60256</v>
       </c>
       <c r="AO43" s="13">
-        <v>67190</v>
+        <v>71222</v>
       </c>
       <c r="AP43" s="13">
-        <v>60256</v>
-      </c>
-      <c r="AQ43" s="13">
-        <v>71222</v>
+        <v>81738</v>
+      </c>
+      <c r="AQ43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR43" s="13" t="s">
         <v>58</v>
@@ -5966,7 +5966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>62</v>
       </c>
@@ -6088,44 +6088,44 @@
       <c r="AP44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>65453</v>
-      </c>
-      <c r="AS44" s="11">
+      <c r="AQ44" s="11">
         <v>65074</v>
       </c>
-      <c r="AT44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU44" s="11" t="s">
-        <v>58</v>
+      <c r="AR44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT44" s="11">
+        <v>76454</v>
+      </c>
+      <c r="AU44" s="11">
+        <v>76101</v>
       </c>
       <c r="AV44" s="11">
-        <v>76454</v>
+        <v>101557</v>
       </c>
       <c r="AW44" s="11">
-        <v>76101</v>
+        <v>134315</v>
       </c>
       <c r="AX44" s="11">
-        <v>101557</v>
+        <v>124518</v>
       </c>
       <c r="AY44" s="11">
-        <v>134315</v>
+        <v>104704</v>
       </c>
       <c r="AZ44" s="11">
-        <v>124518</v>
+        <v>137162</v>
       </c>
       <c r="BA44" s="11">
-        <v>104704</v>
+        <v>159275</v>
       </c>
       <c r="BB44" s="11">
-        <v>137162</v>
+        <v>115320</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>63</v>
       </c>
@@ -6187,11 +6187,11 @@
       <c r="V45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>58</v>
+      <c r="W45" s="13">
+        <v>0</v>
+      </c>
+      <c r="X45" s="13">
+        <v>0</v>
       </c>
       <c r="Y45" s="13">
         <v>0</v>
@@ -6214,11 +6214,11 @@
       <c r="AE45" s="13">
         <v>0</v>
       </c>
-      <c r="AF45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="13">
-        <v>0</v>
+      <c r="AF45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH45" s="13" t="s">
         <v>58</v>
@@ -6284,7 +6284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>64</v>
       </c>
@@ -6346,68 +6346,68 @@
       <c r="V46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="11" t="s">
-        <v>58</v>
+      <c r="W46" s="11">
+        <v>101102</v>
+      </c>
+      <c r="X46" s="11">
+        <v>116345</v>
       </c>
       <c r="Y46" s="11">
-        <v>101102</v>
+        <v>93110</v>
       </c>
       <c r="Z46" s="11">
-        <v>116345</v>
+        <v>109943</v>
       </c>
       <c r="AA46" s="11">
-        <v>93110</v>
+        <v>99905</v>
       </c>
       <c r="AB46" s="11">
-        <v>109943</v>
+        <v>63318</v>
       </c>
       <c r="AC46" s="11">
-        <v>99905</v>
+        <v>78787</v>
       </c>
       <c r="AD46" s="11">
-        <v>63318</v>
+        <v>63593</v>
       </c>
       <c r="AE46" s="11">
-        <v>78787</v>
+        <v>77922</v>
       </c>
       <c r="AF46" s="11">
-        <v>63593</v>
+        <v>77499</v>
       </c>
       <c r="AG46" s="11">
-        <v>77922</v>
+        <v>79844</v>
       </c>
       <c r="AH46" s="11">
-        <v>77499</v>
+        <v>49469</v>
       </c>
       <c r="AI46" s="11">
-        <v>79844</v>
+        <v>34955</v>
       </c>
       <c r="AJ46" s="11">
-        <v>49469</v>
+        <v>39543</v>
       </c>
       <c r="AK46" s="11">
-        <v>34955</v>
+        <v>49736</v>
       </c>
       <c r="AL46" s="11">
-        <v>39543</v>
+        <v>69465</v>
       </c>
       <c r="AM46" s="11">
-        <v>49736</v>
+        <v>55348</v>
       </c>
       <c r="AN46" s="11">
-        <v>69465</v>
+        <v>76665</v>
       </c>
       <c r="AO46" s="11">
-        <v>55348</v>
+        <v>70177</v>
       </c>
       <c r="AP46" s="11">
-        <v>76665</v>
-      </c>
-      <c r="AQ46" s="11">
-        <v>70177</v>
+        <v>65453</v>
+      </c>
+      <c r="AQ46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR46" s="11" t="s">
         <v>58</v>
@@ -6443,7 +6443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>65</v>
       </c>
@@ -6568,18 +6568,18 @@
       <c r="AQ47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT47" s="13">
+      <c r="AR47" s="13">
         <v>70650</v>
       </c>
-      <c r="AU47" s="13">
+      <c r="AS47" s="13">
         <v>81866</v>
       </c>
+      <c r="AT47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU47" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV47" s="13" t="s">
         <v>58</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>66</v>
       </c>
@@ -6664,14 +6664,14 @@
       <c r="V48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>58</v>
+      <c r="W48" s="11">
+        <v>2138</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
       </c>
       <c r="Y48" s="11">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="11">
         <v>0</v>
@@ -6691,11 +6691,11 @@
       <c r="AE48" s="11">
         <v>0</v>
       </c>
-      <c r="AF48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="11">
-        <v>0</v>
+      <c r="AF48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="11" t="s">
         <v>58</v>
@@ -6761,7 +6761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>77</v>
       </c>
@@ -6822,103 +6822,103 @@
         <v>0</v>
       </c>
       <c r="W49" s="15">
-        <v>0</v>
+        <v>188001</v>
       </c>
       <c r="X49" s="15">
-        <v>0</v>
+        <v>188950</v>
       </c>
       <c r="Y49" s="15">
-        <v>188001</v>
+        <v>177218</v>
       </c>
       <c r="Z49" s="15">
-        <v>188950</v>
+        <v>200449</v>
       </c>
       <c r="AA49" s="15">
-        <v>177218</v>
+        <v>183200</v>
       </c>
       <c r="AB49" s="15">
-        <v>200449</v>
+        <v>156801</v>
       </c>
       <c r="AC49" s="15">
-        <v>183200</v>
+        <v>152594</v>
       </c>
       <c r="AD49" s="15">
-        <v>156801</v>
+        <v>157210</v>
       </c>
       <c r="AE49" s="15">
-        <v>152594</v>
+        <v>161470</v>
       </c>
       <c r="AF49" s="15">
-        <v>157210</v>
+        <v>125453</v>
       </c>
       <c r="AG49" s="15">
-        <v>161470</v>
+        <v>112808</v>
       </c>
       <c r="AH49" s="15">
-        <v>125453</v>
+        <v>95519</v>
       </c>
       <c r="AI49" s="15">
-        <v>112808</v>
+        <v>54925</v>
       </c>
       <c r="AJ49" s="15">
-        <v>95519</v>
+        <v>104161</v>
       </c>
       <c r="AK49" s="15">
-        <v>54925</v>
+        <v>109918</v>
       </c>
       <c r="AL49" s="15">
-        <v>104161</v>
+        <v>150662</v>
       </c>
       <c r="AM49" s="15">
-        <v>109918</v>
+        <v>163198</v>
       </c>
       <c r="AN49" s="15">
-        <v>150662</v>
+        <v>180494</v>
       </c>
       <c r="AO49" s="15">
-        <v>163198</v>
+        <v>186628</v>
       </c>
       <c r="AP49" s="15">
-        <v>180494</v>
+        <v>221347</v>
       </c>
       <c r="AQ49" s="15">
-        <v>186628</v>
+        <v>173727</v>
       </c>
       <c r="AR49" s="15">
-        <v>221347</v>
+        <v>123845</v>
       </c>
       <c r="AS49" s="15">
-        <v>173727</v>
+        <v>152817</v>
       </c>
       <c r="AT49" s="15">
-        <v>123845</v>
+        <v>156629</v>
       </c>
       <c r="AU49" s="15">
-        <v>152817</v>
+        <v>206263</v>
       </c>
       <c r="AV49" s="15">
-        <v>156629</v>
+        <v>224810</v>
       </c>
       <c r="AW49" s="15">
-        <v>206263</v>
+        <v>224423</v>
       </c>
       <c r="AX49" s="15">
-        <v>224810</v>
+        <v>253131</v>
       </c>
       <c r="AY49" s="15">
-        <v>224423</v>
+        <v>223764</v>
       </c>
       <c r="AZ49" s="15">
-        <v>253131</v>
+        <v>259866</v>
       </c>
       <c r="BA49" s="15">
-        <v>223764</v>
+        <v>280883</v>
       </c>
       <c r="BB49" s="15">
-        <v>259866</v>
+        <v>291188</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>59</v>
       </c>
@@ -7097,44 +7097,44 @@
       <c r="AP51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="11" t="s">
-        <v>58</v>
+      <c r="AQ51" s="11">
+        <v>243848</v>
       </c>
       <c r="AR51" s="11">
-        <v>41463</v>
+        <v>5127</v>
       </c>
       <c r="AS51" s="11">
-        <v>243848</v>
+        <v>66996</v>
       </c>
       <c r="AT51" s="11">
-        <v>5127</v>
+        <v>192229</v>
       </c>
       <c r="AU51" s="11">
-        <v>66996</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="11">
-        <v>192229</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="11">
-        <v>0</v>
+        <v>41692</v>
       </c>
       <c r="AX51" s="11">
-        <v>0</v>
+        <v>54586</v>
       </c>
       <c r="AY51" s="11">
-        <v>41692</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="11">
-        <v>54586</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="11">
-        <v>0</v>
+        <v>39812</v>
       </c>
       <c r="BB51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -7256,20 +7256,20 @@
       <c r="AP52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU52" s="13" t="s">
-        <v>58</v>
+      <c r="AQ52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>0</v>
       </c>
       <c r="AV52" s="13">
         <v>0</v>
@@ -7284,16 +7284,16 @@
         <v>0</v>
       </c>
       <c r="AZ52" s="13">
-        <v>0</v>
+        <v>24977</v>
       </c>
       <c r="BA52" s="13">
         <v>0</v>
       </c>
       <c r="BB52" s="13">
-        <v>24977</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>69</v>
       </c>
@@ -7355,68 +7355,68 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>39779</v>
+      </c>
+      <c r="X53" s="11">
+        <v>88287</v>
       </c>
       <c r="Y53" s="11">
-        <v>39779</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
-        <v>88287</v>
+        <v>69757</v>
       </c>
       <c r="AA53" s="11">
-        <v>0</v>
+        <v>40062</v>
       </c>
       <c r="AB53" s="11">
-        <v>69757</v>
+        <v>29678</v>
       </c>
       <c r="AC53" s="11">
-        <v>40062</v>
+        <v>29839</v>
       </c>
       <c r="AD53" s="11">
-        <v>29678</v>
+        <v>44822</v>
       </c>
       <c r="AE53" s="11">
-        <v>29839</v>
+        <v>60374</v>
       </c>
       <c r="AF53" s="11">
-        <v>44822</v>
+        <v>30989</v>
       </c>
       <c r="AG53" s="11">
-        <v>60374</v>
+        <v>142786</v>
       </c>
       <c r="AH53" s="11">
-        <v>30989</v>
+        <v>39773</v>
       </c>
       <c r="AI53" s="11">
-        <v>142786</v>
+        <v>137483</v>
       </c>
       <c r="AJ53" s="11">
-        <v>39773</v>
+        <v>112583</v>
       </c>
       <c r="AK53" s="11">
-        <v>137483</v>
+        <v>40347</v>
       </c>
       <c r="AL53" s="11">
-        <v>112583</v>
+        <v>66548</v>
       </c>
       <c r="AM53" s="11">
-        <v>40347</v>
+        <v>121959</v>
       </c>
       <c r="AN53" s="11">
-        <v>66548</v>
+        <v>41583</v>
       </c>
       <c r="AO53" s="11">
-        <v>121959</v>
+        <v>109774</v>
       </c>
       <c r="AP53" s="11">
-        <v>41583</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>109774</v>
+        <v>41463</v>
+      </c>
+      <c r="AQ53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR53" s="11" t="s">
         <v>58</v>
@@ -7452,7 +7452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -7574,44 +7574,44 @@
       <c r="AP54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR54" s="13">
-        <v>45006</v>
-      </c>
-      <c r="AS54" s="13">
+      <c r="AQ54" s="13">
         <v>210968</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT54" s="13">
+        <v>22743</v>
+      </c>
+      <c r="AU54" s="13">
+        <v>43991</v>
       </c>
       <c r="AV54" s="13">
-        <v>22743</v>
+        <v>5080</v>
       </c>
       <c r="AW54" s="13">
-        <v>0</v>
+        <v>213858</v>
       </c>
       <c r="AX54" s="13">
-        <v>5080</v>
+        <v>47965</v>
       </c>
       <c r="AY54" s="13">
-        <v>213858</v>
+        <v>117567</v>
       </c>
       <c r="AZ54" s="13">
-        <v>47965</v>
+        <v>120315</v>
       </c>
       <c r="BA54" s="13">
-        <v>117567</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="13">
-        <v>120315</v>
+        <v>114794</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7673,26 +7673,26 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>2001</v>
+      </c>
+      <c r="X55" s="11">
+        <v>1965</v>
       </c>
       <c r="Y55" s="11">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="11">
-        <v>1965</v>
+        <v>961</v>
       </c>
       <c r="AA55" s="11">
-        <v>0</v>
+        <v>4396</v>
       </c>
       <c r="AB55" s="11">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="11">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="11">
         <v>0</v>
@@ -7700,11 +7700,11 @@
       <c r="AE55" s="11">
         <v>0</v>
       </c>
-      <c r="AF55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+      <c r="AF55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>58</v>
@@ -7733,14 +7733,14 @@
       <c r="AP55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="11">
-        <v>0</v>
+      <c r="AQ55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
@@ -7770,7 +7770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>70</v>
       </c>
@@ -7832,68 +7832,68 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>92369</v>
+      </c>
+      <c r="X56" s="13">
+        <v>114338</v>
       </c>
       <c r="Y56" s="13">
-        <v>92369</v>
+        <v>65052</v>
       </c>
       <c r="Z56" s="13">
-        <v>114338</v>
+        <v>135671</v>
       </c>
       <c r="AA56" s="13">
-        <v>65052</v>
+        <v>32350</v>
       </c>
       <c r="AB56" s="13">
-        <v>135671</v>
+        <v>122237</v>
       </c>
       <c r="AC56" s="13">
-        <v>32350</v>
+        <v>125725</v>
       </c>
       <c r="AD56" s="13">
-        <v>122237</v>
+        <v>59186</v>
       </c>
       <c r="AE56" s="13">
-        <v>125725</v>
+        <v>79780</v>
       </c>
       <c r="AF56" s="13">
-        <v>59186</v>
+        <v>118394</v>
       </c>
       <c r="AG56" s="13">
-        <v>79780</v>
+        <v>49017</v>
       </c>
       <c r="AH56" s="13">
-        <v>118394</v>
+        <v>142361</v>
       </c>
       <c r="AI56" s="13">
-        <v>49017</v>
-      </c>
-      <c r="AJ56" s="13">
-        <v>142361</v>
+        <v>86358</v>
+      </c>
+      <c r="AJ56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK56" s="13">
-        <v>86358</v>
-      </c>
-      <c r="AL56" s="13" t="s">
-        <v>58</v>
+        <v>3664</v>
+      </c>
+      <c r="AL56" s="13">
+        <v>4789</v>
       </c>
       <c r="AM56" s="13">
-        <v>3664</v>
+        <v>20153</v>
       </c>
       <c r="AN56" s="13">
-        <v>4789</v>
+        <v>173777</v>
       </c>
       <c r="AO56" s="13">
-        <v>20153</v>
+        <v>68177</v>
       </c>
       <c r="AP56" s="13">
-        <v>173777</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>68177</v>
+        <v>45006</v>
+      </c>
+      <c r="AQ56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR56" s="13" t="s">
         <v>58</v>
@@ -7929,7 +7929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -8054,18 +8054,18 @@
       <c r="AQ57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT57" s="11">
+      <c r="AR57" s="11">
         <v>55071</v>
       </c>
-      <c r="AU57" s="11">
+      <c r="AS57" s="11">
         <v>89571</v>
       </c>
+      <c r="AT57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV57" s="11" t="s">
         <v>58</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>66</v>
       </c>
@@ -8195,23 +8195,23 @@
       <c r="AK58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL58" s="13" t="s">
-        <v>58</v>
+      <c r="AL58" s="13">
+        <v>17649</v>
       </c>
       <c r="AM58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN58" s="13">
-        <v>17649</v>
-      </c>
-      <c r="AO58" s="13" t="s">
-        <v>58</v>
+      <c r="AN58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>23032</v>
       </c>
       <c r="AP58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="13">
-        <v>23032</v>
+      <c r="AQ58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR58" s="13" t="s">
         <v>58</v>
@@ -8247,7 +8247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -8308,103 +8308,103 @@
         <v>0</v>
       </c>
       <c r="W59" s="17">
-        <v>0</v>
+        <v>134149</v>
       </c>
       <c r="X59" s="17">
-        <v>0</v>
+        <v>204590</v>
       </c>
       <c r="Y59" s="17">
-        <v>134149</v>
+        <v>65052</v>
       </c>
       <c r="Z59" s="17">
-        <v>204590</v>
+        <v>206389</v>
       </c>
       <c r="AA59" s="17">
-        <v>65052</v>
+        <v>76808</v>
       </c>
       <c r="AB59" s="17">
-        <v>206389</v>
+        <v>151915</v>
       </c>
       <c r="AC59" s="17">
-        <v>76808</v>
+        <v>155564</v>
       </c>
       <c r="AD59" s="17">
-        <v>151915</v>
+        <v>104008</v>
       </c>
       <c r="AE59" s="17">
-        <v>155564</v>
+        <v>140154</v>
       </c>
       <c r="AF59" s="17">
-        <v>104008</v>
+        <v>149383</v>
       </c>
       <c r="AG59" s="17">
-        <v>140154</v>
+        <v>191803</v>
       </c>
       <c r="AH59" s="17">
-        <v>149383</v>
+        <v>182134</v>
       </c>
       <c r="AI59" s="17">
-        <v>191803</v>
+        <v>223841</v>
       </c>
       <c r="AJ59" s="17">
-        <v>182134</v>
+        <v>112583</v>
       </c>
       <c r="AK59" s="17">
-        <v>223841</v>
+        <v>44011</v>
       </c>
       <c r="AL59" s="17">
-        <v>112583</v>
+        <v>88986</v>
       </c>
       <c r="AM59" s="17">
-        <v>44011</v>
+        <v>142112</v>
       </c>
       <c r="AN59" s="17">
-        <v>88986</v>
+        <v>215360</v>
       </c>
       <c r="AO59" s="17">
-        <v>142112</v>
+        <v>200983</v>
       </c>
       <c r="AP59" s="17">
-        <v>215360</v>
+        <v>86469</v>
       </c>
       <c r="AQ59" s="17">
-        <v>200983</v>
+        <v>454816</v>
       </c>
       <c r="AR59" s="17">
-        <v>86469</v>
+        <v>60198</v>
       </c>
       <c r="AS59" s="17">
-        <v>454816</v>
+        <v>156567</v>
       </c>
       <c r="AT59" s="17">
-        <v>60198</v>
+        <v>214972</v>
       </c>
       <c r="AU59" s="17">
-        <v>156567</v>
+        <v>43991</v>
       </c>
       <c r="AV59" s="17">
-        <v>214972</v>
+        <v>5080</v>
       </c>
       <c r="AW59" s="17">
-        <v>0</v>
+        <v>255550</v>
       </c>
       <c r="AX59" s="17">
-        <v>5080</v>
+        <v>102551</v>
       </c>
       <c r="AY59" s="17">
-        <v>255550</v>
+        <v>117567</v>
       </c>
       <c r="AZ59" s="17">
-        <v>102551</v>
+        <v>145292</v>
       </c>
       <c r="BA59" s="17">
-        <v>117567</v>
+        <v>39812</v>
       </c>
       <c r="BB59" s="17">
-        <v>145292</v>
+        <v>114794</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>72</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="BA60" s="19"/>
       <c r="BB60" s="19"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>73</v>
       </c>
@@ -8521,11 +8521,11 @@
       <c r="V61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>58</v>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
       </c>
       <c r="Y61" s="17">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>80</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="BA62" s="19"/>
       <c r="BB62" s="19"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
         <v>81</v>
       </c>
@@ -8735,11 +8735,11 @@
       <c r="V63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="17" t="s">
-        <v>58</v>
+      <c r="W63" s="17">
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
+        <v>0</v>
       </c>
       <c r="Y63" s="17">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>74</v>
       </c>
@@ -8893,103 +8893,103 @@
         <v>0</v>
       </c>
       <c r="W64" s="15">
-        <v>0</v>
+        <v>322150</v>
       </c>
       <c r="X64" s="15">
-        <v>0</v>
+        <v>393540</v>
       </c>
       <c r="Y64" s="15">
-        <v>322150</v>
+        <v>242270</v>
       </c>
       <c r="Z64" s="15">
-        <v>393540</v>
+        <v>406838</v>
       </c>
       <c r="AA64" s="15">
-        <v>242270</v>
+        <v>260008</v>
       </c>
       <c r="AB64" s="15">
-        <v>406838</v>
+        <v>308716</v>
       </c>
       <c r="AC64" s="15">
-        <v>260008</v>
+        <v>308158</v>
       </c>
       <c r="AD64" s="15">
-        <v>308716</v>
+        <v>261218</v>
       </c>
       <c r="AE64" s="15">
-        <v>308158</v>
+        <v>301624</v>
       </c>
       <c r="AF64" s="15">
-        <v>261218</v>
+        <v>274836</v>
       </c>
       <c r="AG64" s="15">
-        <v>301624</v>
+        <v>304611</v>
       </c>
       <c r="AH64" s="15">
-        <v>274836</v>
+        <v>277653</v>
       </c>
       <c r="AI64" s="15">
-        <v>304611</v>
+        <v>278766</v>
       </c>
       <c r="AJ64" s="15">
-        <v>277653</v>
+        <v>216744</v>
       </c>
       <c r="AK64" s="15">
-        <v>278766</v>
+        <v>153929</v>
       </c>
       <c r="AL64" s="15">
-        <v>216744</v>
+        <v>239648</v>
       </c>
       <c r="AM64" s="15">
-        <v>153929</v>
+        <v>305310</v>
       </c>
       <c r="AN64" s="15">
-        <v>239648</v>
+        <v>395854</v>
       </c>
       <c r="AO64" s="15">
-        <v>305310</v>
+        <v>387611</v>
       </c>
       <c r="AP64" s="15">
-        <v>395854</v>
+        <v>307816</v>
       </c>
       <c r="AQ64" s="15">
-        <v>387611</v>
+        <v>628543</v>
       </c>
       <c r="AR64" s="15">
-        <v>307816</v>
+        <v>184043</v>
       </c>
       <c r="AS64" s="15">
-        <v>628543</v>
+        <v>309384</v>
       </c>
       <c r="AT64" s="15">
-        <v>184043</v>
+        <v>371601</v>
       </c>
       <c r="AU64" s="15">
-        <v>309384</v>
+        <v>250254</v>
       </c>
       <c r="AV64" s="15">
-        <v>371601</v>
+        <v>229890</v>
       </c>
       <c r="AW64" s="15">
-        <v>206263</v>
+        <v>479973</v>
       </c>
       <c r="AX64" s="15">
-        <v>229890</v>
+        <v>355682</v>
       </c>
       <c r="AY64" s="15">
-        <v>479973</v>
+        <v>341331</v>
       </c>
       <c r="AZ64" s="15">
-        <v>355682</v>
+        <v>405158</v>
       </c>
       <c r="BA64" s="15">
-        <v>341331</v>
+        <v>320695</v>
       </c>
       <c r="BB64" s="15">
-        <v>405158</v>
+        <v>405982</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9044,7 +9044,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9099,7 +9099,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9154,7 +9154,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9366,7 +9366,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
@@ -9485,38 +9485,38 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>67777</v>
+      </c>
+      <c r="X71" s="11">
+        <v>56854</v>
       </c>
       <c r="Y71" s="11">
-        <v>67777</v>
+        <v>150435</v>
       </c>
       <c r="Z71" s="11">
-        <v>56854</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="11">
-        <v>150435</v>
+        <v>261174</v>
       </c>
       <c r="AB71" s="11">
         <v>0</v>
       </c>
       <c r="AC71" s="11">
-        <v>261174</v>
+        <v>191476</v>
       </c>
       <c r="AD71" s="11">
-        <v>0</v>
+        <v>1150213</v>
       </c>
       <c r="AE71" s="11">
-        <v>191476</v>
+        <v>27752</v>
       </c>
       <c r="AF71" s="11">
-        <v>1150213</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="11">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="11">
         <v>0</v>
@@ -9525,64 +9525,64 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="11">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AK71" s="11">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="AL71" s="11">
-        <v>895116</v>
+        <v>569957</v>
       </c>
       <c r="AM71" s="11">
-        <v>7856</v>
+        <v>1096016</v>
       </c>
       <c r="AN71" s="11">
-        <v>569957</v>
+        <v>1257921</v>
       </c>
       <c r="AO71" s="11">
-        <v>1096016</v>
+        <v>1568235</v>
       </c>
       <c r="AP71" s="11">
-        <v>1257921</v>
+        <v>2766542</v>
       </c>
       <c r="AQ71" s="11">
-        <v>1568235</v>
+        <v>1468731</v>
       </c>
       <c r="AR71" s="11">
-        <v>2766542</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="11">
-        <v>1468731</v>
+        <v>1817350</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>1817350</v>
+        <v>695838</v>
       </c>
       <c r="AV71" s="11">
-        <v>0</v>
+        <v>1137049</v>
       </c>
       <c r="AW71" s="11">
-        <v>695838</v>
+        <v>487915</v>
       </c>
       <c r="AX71" s="11">
-        <v>1137049</v>
+        <v>1001422</v>
       </c>
       <c r="AY71" s="11">
-        <v>487915</v>
+        <v>788880</v>
       </c>
       <c r="AZ71" s="11">
-        <v>1001422</v>
+        <v>1389211</v>
       </c>
       <c r="BA71" s="11">
-        <v>788880</v>
+        <v>1949853</v>
       </c>
       <c r="BB71" s="11">
-        <v>1389211</v>
+        <v>2706146</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>59</v>
       </c>
@@ -9704,44 +9704,44 @@
       <c r="AP72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ72" s="13" t="s">
-        <v>58</v>
+      <c r="AQ72" s="13">
+        <v>11054404</v>
       </c>
       <c r="AR72" s="13">
-        <v>11968690</v>
+        <v>8357961</v>
       </c>
       <c r="AS72" s="13">
-        <v>11054404</v>
+        <v>3580896</v>
       </c>
       <c r="AT72" s="13">
-        <v>8357961</v>
+        <v>10811264</v>
       </c>
       <c r="AU72" s="13">
-        <v>3580896</v>
+        <v>13335009</v>
       </c>
       <c r="AV72" s="13">
-        <v>10811264</v>
+        <v>9655515</v>
       </c>
       <c r="AW72" s="13">
-        <v>13335009</v>
+        <v>8912430</v>
       </c>
       <c r="AX72" s="13">
-        <v>9655515</v>
+        <v>10966541</v>
       </c>
       <c r="AY72" s="13">
-        <v>8912430</v>
+        <v>11562359</v>
       </c>
       <c r="AZ72" s="13">
-        <v>10966541</v>
+        <v>9840418</v>
       </c>
       <c r="BA72" s="13">
-        <v>11562359</v>
+        <v>8218459</v>
       </c>
       <c r="BB72" s="13">
-        <v>9840418</v>
+        <v>13945433</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
@@ -9839,29 +9839,29 @@
       <c r="AH73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ73" s="11" t="s">
-        <v>58</v>
+      <c r="AI73" s="11">
+        <v>4449</v>
+      </c>
+      <c r="AJ73" s="11">
+        <v>753174</v>
       </c>
       <c r="AK73" s="11">
-        <v>4449</v>
+        <v>669679</v>
       </c>
       <c r="AL73" s="11">
-        <v>753174</v>
+        <v>658525</v>
       </c>
       <c r="AM73" s="11">
-        <v>669679</v>
+        <v>877656</v>
       </c>
       <c r="AN73" s="11">
-        <v>658525</v>
+        <v>625730</v>
       </c>
       <c r="AO73" s="11">
-        <v>877656</v>
+        <v>0</v>
       </c>
       <c r="AP73" s="11">
-        <v>625730</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="11">
         <v>0</v>
@@ -9873,19 +9873,19 @@
         <v>0</v>
       </c>
       <c r="AT73" s="11">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AU73" s="11">
-        <v>0</v>
+        <v>1796654</v>
       </c>
       <c r="AV73" s="11">
-        <v>1499746</v>
+        <v>896077</v>
       </c>
       <c r="AW73" s="11">
-        <v>1796654</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="11">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -9962,68 +9962,68 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>4820961</v>
+      </c>
+      <c r="X74" s="13">
+        <v>4872331</v>
       </c>
       <c r="Y74" s="13">
-        <v>4820961</v>
+        <v>5635016</v>
       </c>
       <c r="Z74" s="13">
-        <v>4872331</v>
+        <v>8808188</v>
       </c>
       <c r="AA74" s="13">
-        <v>5635016</v>
+        <v>7410055</v>
       </c>
       <c r="AB74" s="13">
-        <v>8808188</v>
+        <v>9597688</v>
       </c>
       <c r="AC74" s="13">
-        <v>7410055</v>
+        <v>7182793</v>
       </c>
       <c r="AD74" s="13">
-        <v>9597688</v>
+        <v>5895455</v>
       </c>
       <c r="AE74" s="13">
-        <v>7182793</v>
+        <v>10362984</v>
       </c>
       <c r="AF74" s="13">
-        <v>5895455</v>
+        <v>6660271</v>
       </c>
       <c r="AG74" s="13">
-        <v>10362984</v>
+        <v>5483906</v>
       </c>
       <c r="AH74" s="13">
-        <v>6660271</v>
+        <v>7771653</v>
       </c>
       <c r="AI74" s="13">
-        <v>5483906</v>
+        <v>3383187</v>
       </c>
       <c r="AJ74" s="13">
-        <v>7771653</v>
+        <v>5157712</v>
       </c>
       <c r="AK74" s="13">
-        <v>3383187</v>
+        <v>8537712</v>
       </c>
       <c r="AL74" s="13">
-        <v>5157712</v>
+        <v>9278929</v>
       </c>
       <c r="AM74" s="13">
-        <v>8537712</v>
+        <v>10294057</v>
       </c>
       <c r="AN74" s="13">
-        <v>9278929</v>
+        <v>9248682</v>
       </c>
       <c r="AO74" s="13">
-        <v>10294057</v>
+        <v>10695500</v>
       </c>
       <c r="AP74" s="13">
-        <v>9248682</v>
-      </c>
-      <c r="AQ74" s="13">
-        <v>10695500</v>
+        <v>11968690</v>
+      </c>
+      <c r="AQ74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR74" s="13" t="s">
         <v>58</v>
@@ -10059,7 +10059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10181,44 +10181,44 @@
       <c r="AP75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR75" s="11">
-        <v>8331251</v>
-      </c>
-      <c r="AS75" s="11">
+      <c r="AQ75" s="11">
         <v>8708087</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>58</v>
+      <c r="AR75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT75" s="11">
+        <v>11493740</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>11233491</v>
       </c>
       <c r="AV75" s="11">
-        <v>11493740</v>
+        <v>14074611</v>
       </c>
       <c r="AW75" s="11">
-        <v>11233491</v>
+        <v>17223509</v>
       </c>
       <c r="AX75" s="11">
-        <v>14074611</v>
+        <v>15835461</v>
       </c>
       <c r="AY75" s="11">
-        <v>17223509</v>
+        <v>13802666</v>
       </c>
       <c r="AZ75" s="11">
-        <v>15835461</v>
+        <v>18971461</v>
       </c>
       <c r="BA75" s="11">
-        <v>13802666</v>
+        <v>23054075</v>
       </c>
       <c r="BB75" s="11">
-        <v>18971461</v>
+        <v>18722987</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>63</v>
       </c>
@@ -10280,11 +10280,11 @@
       <c r="V76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>58</v>
+      <c r="W76" s="13">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13">
+        <v>0</v>
       </c>
       <c r="Y76" s="13">
         <v>0</v>
@@ -10307,11 +10307,11 @@
       <c r="AE76" s="13">
         <v>0</v>
       </c>
-      <c r="AF76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="13">
-        <v>0</v>
+      <c r="AF76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH76" s="13" t="s">
         <v>58</v>
@@ -10377,7 +10377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
@@ -10439,68 +10439,68 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>6376364</v>
+      </c>
+      <c r="X77" s="11">
+        <v>8522548</v>
       </c>
       <c r="Y77" s="11">
-        <v>6376364</v>
+        <v>7500645</v>
       </c>
       <c r="Z77" s="11">
-        <v>8522548</v>
+        <v>10341937</v>
       </c>
       <c r="AA77" s="11">
-        <v>7500645</v>
+        <v>10097494</v>
       </c>
       <c r="AB77" s="11">
-        <v>10341937</v>
+        <v>6191783</v>
       </c>
       <c r="AC77" s="11">
-        <v>10097494</v>
+        <v>8870698</v>
       </c>
       <c r="AD77" s="11">
-        <v>6191783</v>
+        <v>6876913</v>
       </c>
       <c r="AE77" s="11">
-        <v>8870698</v>
+        <v>8189548</v>
       </c>
       <c r="AF77" s="11">
-        <v>6876913</v>
+        <v>8400535</v>
       </c>
       <c r="AG77" s="11">
-        <v>8189548</v>
+        <v>9420599</v>
       </c>
       <c r="AH77" s="11">
-        <v>8400535</v>
+        <v>6098124</v>
       </c>
       <c r="AI77" s="11">
-        <v>9420599</v>
+        <v>4582347</v>
       </c>
       <c r="AJ77" s="11">
-        <v>6098124</v>
+        <v>5347647</v>
       </c>
       <c r="AK77" s="11">
-        <v>4582347</v>
+        <v>7004081</v>
       </c>
       <c r="AL77" s="11">
-        <v>5347647</v>
+        <v>9067174</v>
       </c>
       <c r="AM77" s="11">
-        <v>7004081</v>
+        <v>7522348</v>
       </c>
       <c r="AN77" s="11">
-        <v>9067174</v>
+        <v>10349132</v>
       </c>
       <c r="AO77" s="11">
-        <v>7522348</v>
+        <v>9056855</v>
       </c>
       <c r="AP77" s="11">
-        <v>10349132</v>
-      </c>
-      <c r="AQ77" s="11">
-        <v>9056855</v>
+        <v>8331251</v>
+      </c>
+      <c r="AQ77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR77" s="11" t="s">
         <v>58</v>
@@ -10536,7 +10536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>65</v>
       </c>
@@ -10661,18 +10661,18 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT78" s="13">
+      <c r="AR78" s="13">
         <v>10233422</v>
       </c>
-      <c r="AU78" s="13">
+      <c r="AS78" s="13">
         <v>12582850</v>
       </c>
+      <c r="AT78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU78" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV78" s="13" t="s">
         <v>58</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>66</v>
       </c>
@@ -10757,14 +10757,14 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>45674</v>
+      </c>
+      <c r="X79" s="11">
+        <v>0</v>
       </c>
       <c r="Y79" s="11">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="11">
         <v>0</v>
@@ -10784,23 +10784,23 @@
       <c r="AE79" s="11">
         <v>0</v>
       </c>
-      <c r="AF79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="11">
-        <v>0</v>
+      <c r="AF79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI79" s="11" t="s">
-        <v>58</v>
+      <c r="AI79" s="11">
+        <v>0</v>
       </c>
       <c r="AJ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK79" s="11">
-        <v>0</v>
+      <c r="AK79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL79" s="11" t="s">
         <v>58</v>
@@ -10854,7 +10854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>77</v>
       </c>
@@ -10915,103 +10915,103 @@
         <v>0</v>
       </c>
       <c r="W80" s="15">
-        <v>0</v>
+        <v>11310776</v>
       </c>
       <c r="X80" s="15">
-        <v>0</v>
+        <v>13451733</v>
       </c>
       <c r="Y80" s="15">
-        <v>11310776</v>
+        <v>13286096</v>
       </c>
       <c r="Z80" s="15">
-        <v>13451733</v>
+        <v>19150125</v>
       </c>
       <c r="AA80" s="15">
-        <v>13286096</v>
+        <v>17768723</v>
       </c>
       <c r="AB80" s="15">
-        <v>19150125</v>
+        <v>15789471</v>
       </c>
       <c r="AC80" s="15">
-        <v>17768723</v>
+        <v>16244967</v>
       </c>
       <c r="AD80" s="15">
-        <v>15789471</v>
+        <v>13922581</v>
       </c>
       <c r="AE80" s="15">
-        <v>16244967</v>
+        <v>18580284</v>
       </c>
       <c r="AF80" s="15">
-        <v>13922581</v>
+        <v>15060806</v>
       </c>
       <c r="AG80" s="15">
-        <v>18580284</v>
+        <v>14904505</v>
       </c>
       <c r="AH80" s="15">
-        <v>15060806</v>
+        <v>13869777</v>
       </c>
       <c r="AI80" s="15">
-        <v>14904505</v>
+        <v>7969983</v>
       </c>
       <c r="AJ80" s="15">
-        <v>13869777</v>
+        <v>12153649</v>
       </c>
       <c r="AK80" s="15">
-        <v>7969983</v>
+        <v>16219328</v>
       </c>
       <c r="AL80" s="15">
-        <v>12153649</v>
+        <v>19574585</v>
       </c>
       <c r="AM80" s="15">
-        <v>16219328</v>
+        <v>19790077</v>
       </c>
       <c r="AN80" s="15">
-        <v>19574585</v>
+        <v>21481465</v>
       </c>
       <c r="AO80" s="15">
-        <v>19790077</v>
+        <v>21320590</v>
       </c>
       <c r="AP80" s="15">
-        <v>21481465</v>
+        <v>23066483</v>
       </c>
       <c r="AQ80" s="15">
-        <v>21320590</v>
+        <v>21231222</v>
       </c>
       <c r="AR80" s="15">
-        <v>23066483</v>
+        <v>18591383</v>
       </c>
       <c r="AS80" s="15">
-        <v>21231222</v>
+        <v>17981096</v>
       </c>
       <c r="AT80" s="15">
-        <v>18591383</v>
+        <v>23804750</v>
       </c>
       <c r="AU80" s="15">
-        <v>17981096</v>
+        <v>27060992</v>
       </c>
       <c r="AV80" s="15">
-        <v>23804750</v>
+        <v>25763252</v>
       </c>
       <c r="AW80" s="15">
-        <v>27060992</v>
+        <v>26623854</v>
       </c>
       <c r="AX80" s="15">
-        <v>25763252</v>
+        <v>27803424</v>
       </c>
       <c r="AY80" s="15">
-        <v>26623854</v>
+        <v>26153905</v>
       </c>
       <c r="AZ80" s="15">
-        <v>27803424</v>
+        <v>30201090</v>
       </c>
       <c r="BA80" s="15">
-        <v>26153905</v>
+        <v>33222387</v>
       </c>
       <c r="BB80" s="15">
-        <v>30201090</v>
+        <v>35374566</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>85</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>59</v>
       </c>
@@ -11190,44 +11190,44 @@
       <c r="AP82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="11" t="s">
-        <v>58</v>
+      <c r="AQ82" s="11">
+        <v>34651434</v>
       </c>
       <c r="AR82" s="11">
-        <v>6561845</v>
+        <v>721448</v>
       </c>
       <c r="AS82" s="11">
-        <v>34651434</v>
+        <v>9226588</v>
       </c>
       <c r="AT82" s="11">
-        <v>721448</v>
+        <v>32677764</v>
       </c>
       <c r="AU82" s="11">
-        <v>9226588</v>
+        <v>0</v>
       </c>
       <c r="AV82" s="11">
-        <v>32677764</v>
+        <v>0</v>
       </c>
       <c r="AW82" s="11">
-        <v>0</v>
+        <v>4856793</v>
       </c>
       <c r="AX82" s="11">
-        <v>0</v>
+        <v>6400655</v>
       </c>
       <c r="AY82" s="11">
-        <v>4856793</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="11">
-        <v>6400655</v>
+        <v>0</v>
       </c>
       <c r="BA82" s="11">
-        <v>0</v>
+        <v>4102470</v>
       </c>
       <c r="BB82" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>60</v>
       </c>
@@ -11349,20 +11349,20 @@
       <c r="AP83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU83" s="13" t="s">
-        <v>58</v>
+      <c r="AQ83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="13">
+        <v>0</v>
       </c>
       <c r="AV83" s="13">
         <v>0</v>
@@ -11377,16 +11377,16 @@
         <v>0</v>
       </c>
       <c r="AZ83" s="13">
-        <v>0</v>
+        <v>1987631</v>
       </c>
       <c r="BA83" s="13">
         <v>0</v>
       </c>
       <c r="BB83" s="13">
-        <v>1987631</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>69</v>
       </c>
@@ -11448,68 +11448,68 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>2163418</v>
+      </c>
+      <c r="X84" s="11">
+        <v>5555592</v>
       </c>
       <c r="Y84" s="11">
-        <v>2163418</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="11">
-        <v>5555592</v>
+        <v>6262874</v>
       </c>
       <c r="AA84" s="11">
-        <v>0</v>
+        <v>4280294</v>
       </c>
       <c r="AB84" s="11">
-        <v>6262874</v>
+        <v>3349772</v>
       </c>
       <c r="AC84" s="11">
-        <v>4280294</v>
+        <v>3289109</v>
       </c>
       <c r="AD84" s="11">
-        <v>3349772</v>
+        <v>5287110</v>
       </c>
       <c r="AE84" s="11">
-        <v>3289109</v>
+        <v>8807821</v>
       </c>
       <c r="AF84" s="11">
-        <v>5287110</v>
+        <v>4050583</v>
       </c>
       <c r="AG84" s="11">
-        <v>8807821</v>
+        <v>18584987</v>
       </c>
       <c r="AH84" s="11">
-        <v>4050583</v>
+        <v>5205767</v>
       </c>
       <c r="AI84" s="11">
-        <v>18584987</v>
+        <v>20821224</v>
       </c>
       <c r="AJ84" s="11">
-        <v>5205767</v>
+        <v>17448502</v>
       </c>
       <c r="AK84" s="11">
-        <v>20821224</v>
+        <v>6864990</v>
       </c>
       <c r="AL84" s="11">
-        <v>17448502</v>
+        <v>10445836</v>
       </c>
       <c r="AM84" s="11">
-        <v>6864990</v>
+        <v>19834038</v>
       </c>
       <c r="AN84" s="11">
-        <v>10445836</v>
+        <v>6599389</v>
       </c>
       <c r="AO84" s="11">
-        <v>19834038</v>
+        <v>17711649</v>
       </c>
       <c r="AP84" s="11">
-        <v>6599389</v>
-      </c>
-      <c r="AQ84" s="11">
-        <v>17711649</v>
+        <v>6561845</v>
+      </c>
+      <c r="AQ84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR84" s="11" t="s">
         <v>58</v>
@@ -11545,7 +11545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>62</v>
       </c>
@@ -11667,44 +11667,44 @@
       <c r="AP85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR85" s="13">
-        <v>6651226</v>
-      </c>
-      <c r="AS85" s="13">
+      <c r="AQ85" s="13">
         <v>28850152</v>
       </c>
-      <c r="AT85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU85" s="13" t="s">
-        <v>58</v>
+      <c r="AR85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT85" s="13">
+        <v>3913072</v>
+      </c>
+      <c r="AU85" s="13">
+        <v>7748516</v>
       </c>
       <c r="AV85" s="13">
-        <v>3913072</v>
+        <v>699671</v>
       </c>
       <c r="AW85" s="13">
-        <v>0</v>
+        <v>25209536</v>
       </c>
       <c r="AX85" s="13">
-        <v>699671</v>
+        <v>5810404</v>
       </c>
       <c r="AY85" s="13">
-        <v>25209536</v>
+        <v>15256444</v>
       </c>
       <c r="AZ85" s="13">
-        <v>5810404</v>
+        <v>15397391</v>
       </c>
       <c r="BA85" s="13">
-        <v>15256444</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="13">
-        <v>15397391</v>
+        <v>14568463</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>63</v>
       </c>
@@ -11766,26 +11766,26 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
+      <c r="W86" s="11">
+        <v>160555</v>
+      </c>
+      <c r="X86" s="11">
+        <v>126846</v>
       </c>
       <c r="Y86" s="11">
-        <v>160555</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="11">
-        <v>126846</v>
+        <v>73500</v>
       </c>
       <c r="AA86" s="11">
-        <v>0</v>
+        <v>326751</v>
       </c>
       <c r="AB86" s="11">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="11">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="11">
         <v>0</v>
@@ -11793,14 +11793,14 @@
       <c r="AE86" s="11">
         <v>0</v>
       </c>
-      <c r="AF86" s="11">
-        <v>0</v>
+      <c r="AF86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG86" s="11">
         <v>0</v>
       </c>
-      <c r="AH86" s="11" t="s">
-        <v>58</v>
+      <c r="AH86" s="11">
+        <v>0</v>
       </c>
       <c r="AI86" s="11">
         <v>0</v>
@@ -11829,11 +11829,11 @@
       <c r="AQ86" s="11">
         <v>0</v>
       </c>
-      <c r="AR86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>0</v>
+      <c r="AR86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT86" s="11" t="s">
         <v>58</v>
@@ -11863,7 +11863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>70</v>
       </c>
@@ -11925,68 +11925,68 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>5301095</v>
+      </c>
+      <c r="X87" s="13">
+        <v>7824437</v>
       </c>
       <c r="Y87" s="13">
-        <v>5301095</v>
+        <v>4844694</v>
       </c>
       <c r="Z87" s="13">
-        <v>7824437</v>
+        <v>13122982</v>
       </c>
       <c r="AA87" s="13">
-        <v>4844694</v>
+        <v>3445553</v>
       </c>
       <c r="AB87" s="13">
-        <v>13122982</v>
+        <v>13108096</v>
       </c>
       <c r="AC87" s="13">
-        <v>3445553</v>
+        <v>14068935</v>
       </c>
       <c r="AD87" s="13">
-        <v>13108096</v>
+        <v>7056041</v>
       </c>
       <c r="AE87" s="13">
-        <v>14068935</v>
+        <v>10413755</v>
       </c>
       <c r="AF87" s="13">
-        <v>7056041</v>
+        <v>14829988</v>
       </c>
       <c r="AG87" s="13">
-        <v>10413755</v>
+        <v>5881244</v>
       </c>
       <c r="AH87" s="13">
-        <v>14829988</v>
+        <v>16680167</v>
       </c>
       <c r="AI87" s="13">
-        <v>5881244</v>
+        <v>10819903</v>
       </c>
       <c r="AJ87" s="13">
-        <v>16680167</v>
+        <v>0</v>
       </c>
       <c r="AK87" s="13">
-        <v>10819903</v>
+        <v>518411</v>
       </c>
       <c r="AL87" s="13">
-        <v>0</v>
+        <v>612785</v>
       </c>
       <c r="AM87" s="13">
-        <v>518411</v>
+        <v>2960772</v>
       </c>
       <c r="AN87" s="13">
-        <v>612785</v>
+        <v>25998055</v>
       </c>
       <c r="AO87" s="13">
-        <v>2960772</v>
+        <v>9654225</v>
       </c>
       <c r="AP87" s="13">
-        <v>25998055</v>
-      </c>
-      <c r="AQ87" s="13">
-        <v>9654225</v>
+        <v>6651226</v>
+      </c>
+      <c r="AQ87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR87" s="13" t="s">
         <v>58</v>
@@ -12022,7 +12022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>65</v>
       </c>
@@ -12147,18 +12147,18 @@
       <c r="AQ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT88" s="11">
+      <c r="AR88" s="11">
         <v>7851191</v>
       </c>
-      <c r="AU88" s="11">
+      <c r="AS88" s="11">
         <v>12873913</v>
       </c>
+      <c r="AT88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV88" s="11" t="s">
         <v>58</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>66</v>
       </c>
@@ -12288,23 +12288,23 @@
       <c r="AK89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM89" s="13" t="s">
-        <v>58</v>
+      <c r="AL89" s="13">
+        <v>1409713</v>
+      </c>
+      <c r="AM89" s="13">
+        <v>0</v>
       </c>
       <c r="AN89" s="13">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AO89" s="13">
-        <v>0</v>
+        <v>1879694</v>
       </c>
       <c r="AP89" s="13">
         <v>0</v>
       </c>
-      <c r="AQ89" s="13">
-        <v>1879694</v>
+      <c r="AQ89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR89" s="13" t="s">
         <v>58</v>
@@ -12340,7 +12340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="16" t="s">
         <v>79</v>
       </c>
@@ -12401,103 +12401,103 @@
         <v>0</v>
       </c>
       <c r="W90" s="17">
-        <v>0</v>
+        <v>7625068</v>
       </c>
       <c r="X90" s="17">
-        <v>0</v>
+        <v>13506875</v>
       </c>
       <c r="Y90" s="17">
-        <v>7625068</v>
+        <v>4844694</v>
       </c>
       <c r="Z90" s="17">
-        <v>13506875</v>
+        <v>19459356</v>
       </c>
       <c r="AA90" s="17">
-        <v>4844694</v>
+        <v>8052598</v>
       </c>
       <c r="AB90" s="17">
-        <v>19459356</v>
+        <v>16457868</v>
       </c>
       <c r="AC90" s="17">
-        <v>8052598</v>
+        <v>17358044</v>
       </c>
       <c r="AD90" s="17">
-        <v>16457868</v>
+        <v>12343151</v>
       </c>
       <c r="AE90" s="17">
-        <v>17358044</v>
+        <v>19221576</v>
       </c>
       <c r="AF90" s="17">
-        <v>12343151</v>
+        <v>18880571</v>
       </c>
       <c r="AG90" s="17">
-        <v>19221576</v>
+        <v>24466231</v>
       </c>
       <c r="AH90" s="17">
-        <v>18880571</v>
+        <v>21885934</v>
       </c>
       <c r="AI90" s="17">
-        <v>24466231</v>
+        <v>31641127</v>
       </c>
       <c r="AJ90" s="17">
-        <v>21885934</v>
+        <v>17448502</v>
       </c>
       <c r="AK90" s="17">
-        <v>31641127</v>
+        <v>7383401</v>
       </c>
       <c r="AL90" s="17">
-        <v>17448502</v>
+        <v>12468334</v>
       </c>
       <c r="AM90" s="17">
-        <v>7383401</v>
+        <v>22794810</v>
       </c>
       <c r="AN90" s="17">
-        <v>12468334</v>
+        <v>32597444</v>
       </c>
       <c r="AO90" s="17">
-        <v>22794810</v>
+        <v>29245568</v>
       </c>
       <c r="AP90" s="17">
-        <v>32597444</v>
+        <v>13213071</v>
       </c>
       <c r="AQ90" s="17">
-        <v>29245568</v>
+        <v>63501586</v>
       </c>
       <c r="AR90" s="17">
-        <v>13213071</v>
+        <v>8572639</v>
       </c>
       <c r="AS90" s="17">
-        <v>63501586</v>
+        <v>22100501</v>
       </c>
       <c r="AT90" s="17">
-        <v>8572639</v>
+        <v>36590836</v>
       </c>
       <c r="AU90" s="17">
-        <v>22100501</v>
+        <v>7748516</v>
       </c>
       <c r="AV90" s="17">
-        <v>36590836</v>
+        <v>699671</v>
       </c>
       <c r="AW90" s="17">
-        <v>0</v>
+        <v>30066329</v>
       </c>
       <c r="AX90" s="17">
-        <v>699671</v>
+        <v>12211059</v>
       </c>
       <c r="AY90" s="17">
-        <v>30066329</v>
+        <v>15256444</v>
       </c>
       <c r="AZ90" s="17">
-        <v>12211059</v>
+        <v>17385022</v>
       </c>
       <c r="BA90" s="17">
-        <v>15256444</v>
+        <v>4102470</v>
       </c>
       <c r="BB90" s="17">
-        <v>17385022</v>
+        <v>14568463</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>86</v>
       </c>
@@ -12554,7 +12554,7 @@
       <c r="BA91" s="19"/>
       <c r="BB91" s="19"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
         <v>73</v>
       </c>
@@ -12616,11 +12616,11 @@
       <c r="V92" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W92" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X92" s="17" t="s">
-        <v>58</v>
+      <c r="W92" s="17">
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>0</v>
       </c>
       <c r="Y92" s="17">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>87</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="BA93" s="19"/>
       <c r="BB93" s="19"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
         <v>81</v>
       </c>
@@ -12832,11 +12832,11 @@
       <c r="V94" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W94" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X94" s="17" t="s">
-        <v>58</v>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <v>0</v>
       </c>
       <c r="Y94" s="17">
         <v>0</v>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>88</v>
       </c>
@@ -12986,7 +12986,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>89</v>
       </c>
@@ -13048,11 +13048,11 @@
       <c r="V96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>58</v>
+      <c r="W96" s="11">
+        <v>0</v>
+      </c>
+      <c r="X96" s="11">
+        <v>0</v>
       </c>
       <c r="Y96" s="11">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>74</v>
       </c>
@@ -13206,103 +13206,103 @@
         <v>0</v>
       </c>
       <c r="W97" s="15">
-        <v>0</v>
+        <v>18935844</v>
       </c>
       <c r="X97" s="15">
-        <v>0</v>
+        <v>26958608</v>
       </c>
       <c r="Y97" s="15">
-        <v>18935844</v>
+        <v>18130790</v>
       </c>
       <c r="Z97" s="15">
-        <v>26958608</v>
+        <v>38609481</v>
       </c>
       <c r="AA97" s="15">
-        <v>18130790</v>
+        <v>25821321</v>
       </c>
       <c r="AB97" s="15">
-        <v>38609481</v>
+        <v>32247339</v>
       </c>
       <c r="AC97" s="15">
-        <v>25821321</v>
+        <v>33603011</v>
       </c>
       <c r="AD97" s="15">
-        <v>32247339</v>
+        <v>26265732</v>
       </c>
       <c r="AE97" s="15">
-        <v>33603011</v>
+        <v>37801860</v>
       </c>
       <c r="AF97" s="15">
-        <v>26265732</v>
+        <v>33941377</v>
       </c>
       <c r="AG97" s="15">
-        <v>37801860</v>
+        <v>39370736</v>
       </c>
       <c r="AH97" s="15">
-        <v>33941377</v>
+        <v>35755711</v>
       </c>
       <c r="AI97" s="15">
-        <v>39370736</v>
+        <v>39611110</v>
       </c>
       <c r="AJ97" s="15">
-        <v>35755711</v>
+        <v>29602151</v>
       </c>
       <c r="AK97" s="15">
-        <v>39611110</v>
+        <v>23602729</v>
       </c>
       <c r="AL97" s="15">
-        <v>29602151</v>
+        <v>32042919</v>
       </c>
       <c r="AM97" s="15">
-        <v>23602729</v>
+        <v>42584887</v>
       </c>
       <c r="AN97" s="15">
-        <v>32042919</v>
+        <v>54078909</v>
       </c>
       <c r="AO97" s="15">
-        <v>42584887</v>
+        <v>50566158</v>
       </c>
       <c r="AP97" s="15">
-        <v>54078909</v>
+        <v>36279554</v>
       </c>
       <c r="AQ97" s="15">
-        <v>50566158</v>
+        <v>84732808</v>
       </c>
       <c r="AR97" s="15">
-        <v>36279554</v>
+        <v>27164022</v>
       </c>
       <c r="AS97" s="15">
-        <v>84732808</v>
+        <v>40081597</v>
       </c>
       <c r="AT97" s="15">
-        <v>27164022</v>
+        <v>60395586</v>
       </c>
       <c r="AU97" s="15">
-        <v>40081597</v>
+        <v>34809508</v>
       </c>
       <c r="AV97" s="15">
-        <v>60395586</v>
+        <v>26462923</v>
       </c>
       <c r="AW97" s="15">
-        <v>27060992</v>
+        <v>56690183</v>
       </c>
       <c r="AX97" s="15">
-        <v>26462923</v>
+        <v>40014483</v>
       </c>
       <c r="AY97" s="15">
-        <v>56690183</v>
+        <v>41410349</v>
       </c>
       <c r="AZ97" s="15">
-        <v>40014483</v>
+        <v>47586112</v>
       </c>
       <c r="BA97" s="15">
-        <v>41410349</v>
+        <v>37324857</v>
       </c>
       <c r="BB97" s="15">
-        <v>47586112</v>
+        <v>49943029</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -13357,7 +13357,7 @@
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13412,7 +13412,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13467,7 +13467,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>90</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13679,7 +13679,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>91</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>56</v>
       </c>
@@ -13798,104 +13798,104 @@
       <c r="V104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="11" t="s">
-        <v>58</v>
+      <c r="W104" s="11">
+        <v>14003512</v>
+      </c>
+      <c r="X104" s="11">
+        <v>16211577</v>
       </c>
       <c r="Y104" s="11">
-        <v>14003512</v>
-      </c>
-      <c r="Z104" s="11">
-        <v>16211577</v>
+        <v>18061592</v>
+      </c>
+      <c r="Z104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA104" s="11">
-        <v>18061592</v>
+        <v>24220903</v>
       </c>
       <c r="AB104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AC104" s="11">
-        <v>24220903</v>
-      </c>
-      <c r="AD104" s="11" t="s">
-        <v>58</v>
+        <v>26100872</v>
+      </c>
+      <c r="AD104" s="11">
+        <v>24453367</v>
       </c>
       <c r="AE104" s="11">
-        <v>26100872</v>
-      </c>
-      <c r="AF104" s="11">
-        <v>24453367</v>
-      </c>
-      <c r="AG104" s="11">
         <v>26107244</v>
       </c>
+      <c r="AF104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AI104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK104" s="11" t="s">
-        <v>58</v>
+      <c r="AJ104" s="11">
+        <v>35944103</v>
+      </c>
+      <c r="AK104" s="11">
+        <v>36036697</v>
       </c>
       <c r="AL104" s="11">
-        <v>35944103</v>
+        <v>34928116</v>
       </c>
       <c r="AM104" s="11">
-        <v>36036697</v>
+        <v>36061462</v>
       </c>
       <c r="AN104" s="11">
-        <v>34928116</v>
+        <v>34819415</v>
       </c>
       <c r="AO104" s="11">
-        <v>36061462</v>
+        <v>34673219</v>
       </c>
       <c r="AP104" s="11">
-        <v>34819415</v>
+        <v>37307055</v>
       </c>
       <c r="AQ104" s="11">
-        <v>34673219</v>
-      </c>
-      <c r="AR104" s="11">
-        <v>37307055</v>
+        <v>42347288</v>
+      </c>
+      <c r="AR104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS104" s="11">
-        <v>42347288</v>
+        <v>36341912</v>
       </c>
       <c r="AT104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU104" s="11">
-        <v>36341912</v>
-      </c>
-      <c r="AV104" s="11" t="s">
-        <v>58</v>
+        <v>33531130</v>
+      </c>
+      <c r="AV104" s="11">
+        <v>25819724</v>
       </c>
       <c r="AW104" s="11">
-        <v>33531130</v>
+        <v>26860171</v>
       </c>
       <c r="AX104" s="11">
-        <v>25819724</v>
+        <v>28032191</v>
       </c>
       <c r="AY104" s="11">
-        <v>26860171</v>
+        <v>29176714</v>
       </c>
       <c r="AZ104" s="11">
-        <v>28032191</v>
+        <v>29903801</v>
       </c>
       <c r="BA104" s="11">
-        <v>29176714</v>
+        <v>35871900</v>
       </c>
       <c r="BB104" s="11">
-        <v>29903801</v>
+        <v>38153961</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>59</v>
       </c>
@@ -14017,44 +14017,44 @@
       <c r="AP105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ105" s="13" t="s">
-        <v>58</v>
+      <c r="AQ105" s="13">
+        <v>149444423</v>
       </c>
       <c r="AR105" s="13">
-        <v>146427488</v>
+        <v>157119297</v>
       </c>
       <c r="AS105" s="13">
-        <v>149444423</v>
+        <v>170974790</v>
       </c>
       <c r="AT105" s="13">
-        <v>157119297</v>
+        <v>167704899</v>
       </c>
       <c r="AU105" s="13">
-        <v>170974790</v>
+        <v>150633814</v>
       </c>
       <c r="AV105" s="13">
-        <v>167704899</v>
+        <v>141765626</v>
       </c>
       <c r="AW105" s="13">
-        <v>150633814</v>
+        <v>123881823</v>
       </c>
       <c r="AX105" s="13">
-        <v>141765626</v>
+        <v>118060707</v>
       </c>
       <c r="AY105" s="13">
-        <v>123881823</v>
+        <v>125647769</v>
       </c>
       <c r="AZ105" s="13">
-        <v>118060707</v>
+        <v>129058047</v>
       </c>
       <c r="BA105" s="13">
-        <v>125647769</v>
+        <v>122203934</v>
       </c>
       <c r="BB105" s="13">
-        <v>129058047</v>
+        <v>132888318</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
@@ -14152,54 +14152,54 @@
       <c r="AH106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ106" s="11" t="s">
-        <v>58</v>
+      <c r="AI106" s="11">
+        <v>82388889</v>
+      </c>
+      <c r="AJ106" s="11">
+        <v>83389504</v>
       </c>
       <c r="AK106" s="11">
-        <v>82388889</v>
+        <v>81757905</v>
       </c>
       <c r="AL106" s="11">
-        <v>83389504</v>
+        <v>83931303</v>
       </c>
       <c r="AM106" s="11">
-        <v>81757905</v>
+        <v>85483199</v>
       </c>
       <c r="AN106" s="11">
-        <v>83931303</v>
-      </c>
-      <c r="AO106" s="11">
-        <v>85483199</v>
-      </c>
-      <c r="AP106" s="11">
         <v>84035724</v>
       </c>
+      <c r="AO106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP106" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="11">
-        <v>0</v>
+      <c r="AR106" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU106" s="11" t="s">
-        <v>58</v>
+      <c r="AT106" s="11">
+        <v>95470495</v>
+      </c>
+      <c r="AU106" s="11">
+        <v>86030167</v>
       </c>
       <c r="AV106" s="11">
-        <v>95470495</v>
-      </c>
-      <c r="AW106" s="11">
-        <v>86030167</v>
-      </c>
-      <c r="AX106" s="11">
         <v>80684045</v>
       </c>
+      <c r="AW106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX106" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY106" s="11" t="s">
         <v>58</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>61</v>
       </c>
@@ -14275,68 +14275,68 @@
       <c r="V107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="13" t="s">
-        <v>58</v>
+      <c r="W107" s="13">
+        <v>60321580</v>
+      </c>
+      <c r="X107" s="13">
+        <v>70513343</v>
       </c>
       <c r="Y107" s="13">
-        <v>60321580</v>
+        <v>74361182</v>
       </c>
       <c r="Z107" s="13">
-        <v>70513343</v>
+        <v>97321592</v>
       </c>
       <c r="AA107" s="13">
-        <v>74361182</v>
+        <v>102190741</v>
       </c>
       <c r="AB107" s="13">
-        <v>97321592</v>
+        <v>102667736</v>
       </c>
       <c r="AC107" s="13">
-        <v>102190741</v>
+        <v>108059048</v>
       </c>
       <c r="AD107" s="13">
-        <v>102667736</v>
+        <v>126566230</v>
       </c>
       <c r="AE107" s="13">
-        <v>108059048</v>
+        <v>125634770</v>
       </c>
       <c r="AF107" s="13">
-        <v>126566230</v>
+        <v>138888748</v>
       </c>
       <c r="AG107" s="13">
-        <v>125634770</v>
+        <v>166360454</v>
       </c>
       <c r="AH107" s="13">
-        <v>138888748</v>
+        <v>168765537</v>
       </c>
       <c r="AI107" s="13">
-        <v>166360454</v>
+        <v>169872816</v>
       </c>
       <c r="AJ107" s="13">
-        <v>168765537</v>
+        <v>168096731</v>
       </c>
       <c r="AK107" s="13">
-        <v>169872816</v>
+        <v>164906650</v>
       </c>
       <c r="AL107" s="13">
-        <v>168096731</v>
+        <v>162694037</v>
       </c>
       <c r="AM107" s="13">
-        <v>164906650</v>
+        <v>153208171</v>
       </c>
       <c r="AN107" s="13">
-        <v>162694037</v>
+        <v>153489810</v>
       </c>
       <c r="AO107" s="13">
-        <v>153208171</v>
+        <v>150171295</v>
       </c>
       <c r="AP107" s="13">
-        <v>153489810</v>
-      </c>
-      <c r="AQ107" s="13">
-        <v>150171295</v>
+        <v>146427488</v>
+      </c>
+      <c r="AQ107" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR107" s="13" t="s">
         <v>58</v>
@@ -14372,7 +14372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>62</v>
       </c>
@@ -14494,44 +14494,44 @@
       <c r="AP108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR108" s="11">
-        <v>127286007</v>
-      </c>
-      <c r="AS108" s="11">
+      <c r="AQ108" s="11">
         <v>133818222</v>
       </c>
-      <c r="AT108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU108" s="11" t="s">
-        <v>58</v>
+      <c r="AR108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT108" s="11">
+        <v>150335365</v>
+      </c>
+      <c r="AU108" s="11">
+        <v>147612922</v>
       </c>
       <c r="AV108" s="11">
-        <v>150335365</v>
+        <v>138588290</v>
       </c>
       <c r="AW108" s="11">
-        <v>147612922</v>
+        <v>128232208</v>
       </c>
       <c r="AX108" s="11">
-        <v>138588290</v>
+        <v>127174071</v>
       </c>
       <c r="AY108" s="11">
-        <v>128232208</v>
+        <v>131825585</v>
       </c>
       <c r="AZ108" s="11">
-        <v>127174071</v>
+        <v>138314263</v>
       </c>
       <c r="BA108" s="11">
-        <v>131825585</v>
+        <v>144743839</v>
       </c>
       <c r="BB108" s="11">
-        <v>138314263</v>
+        <v>162356807</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>63</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>64</v>
       </c>
@@ -14752,68 +14752,68 @@
       <c r="V110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="11" t="s">
-        <v>58</v>
+      <c r="W110" s="11">
+        <v>63068624</v>
+      </c>
+      <c r="X110" s="11">
+        <v>73252379</v>
       </c>
       <c r="Y110" s="11">
-        <v>63068624</v>
+        <v>80556815</v>
       </c>
       <c r="Z110" s="11">
-        <v>73252379</v>
+        <v>94066353</v>
       </c>
       <c r="AA110" s="11">
-        <v>80556815</v>
+        <v>101070957</v>
       </c>
       <c r="AB110" s="11">
-        <v>94066353</v>
+        <v>97788670</v>
       </c>
       <c r="AC110" s="11">
-        <v>101070957</v>
+        <v>112590884</v>
       </c>
       <c r="AD110" s="11">
-        <v>97788670</v>
+        <v>108139465</v>
       </c>
       <c r="AE110" s="11">
-        <v>112590884</v>
+        <v>105099304</v>
       </c>
       <c r="AF110" s="11">
-        <v>108139465</v>
+        <v>108395399</v>
       </c>
       <c r="AG110" s="11">
-        <v>105099304</v>
+        <v>117987563</v>
       </c>
       <c r="AH110" s="11">
-        <v>108395399</v>
+        <v>123271625</v>
       </c>
       <c r="AI110" s="11">
-        <v>117987563</v>
+        <v>131092748</v>
       </c>
       <c r="AJ110" s="11">
-        <v>123271625</v>
+        <v>135236249</v>
       </c>
       <c r="AK110" s="11">
-        <v>131092748</v>
+        <v>140825177</v>
       </c>
       <c r="AL110" s="11">
-        <v>135236249</v>
+        <v>130528669</v>
       </c>
       <c r="AM110" s="11">
-        <v>140825177</v>
+        <v>135910024</v>
       </c>
       <c r="AN110" s="11">
-        <v>130528669</v>
+        <v>134991613</v>
       </c>
       <c r="AO110" s="11">
-        <v>135910024</v>
+        <v>129057312</v>
       </c>
       <c r="AP110" s="11">
-        <v>134991613</v>
-      </c>
-      <c r="AQ110" s="11">
-        <v>129057312</v>
+        <v>127286007</v>
+      </c>
+      <c r="AQ110" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR110" s="11" t="s">
         <v>58</v>
@@ -14849,7 +14849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>65</v>
       </c>
@@ -14974,18 +14974,18 @@
       <c r="AQ111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT111" s="13">
+      <c r="AR111" s="13">
         <v>144846737</v>
       </c>
-      <c r="AU111" s="13">
+      <c r="AS111" s="13">
         <v>153700559</v>
       </c>
+      <c r="AT111" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU111" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV111" s="13" t="s">
         <v>58</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>66</v>
       </c>
@@ -15070,14 +15070,14 @@
       <c r="V112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W112" s="11" t="s">
-        <v>58</v>
+      <c r="W112" s="11">
+        <v>21362956</v>
       </c>
       <c r="X112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y112" s="11">
-        <v>21362956</v>
+      <c r="Y112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z112" s="11" t="s">
         <v>58</v>
@@ -15167,7 +15167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>93</v>
       </c>
@@ -15224,7 +15224,7 @@
       <c r="BA113" s="9"/>
       <c r="BB113" s="9"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>59</v>
       </c>
@@ -15346,44 +15346,44 @@
       <c r="AP114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ114" s="11" t="s">
-        <v>58</v>
+      <c r="AQ114" s="11">
+        <v>142102597</v>
       </c>
       <c r="AR114" s="11">
-        <v>158257844</v>
+        <v>140715428</v>
       </c>
       <c r="AS114" s="11">
-        <v>142102597</v>
+        <v>137718491</v>
       </c>
       <c r="AT114" s="11">
-        <v>140715428</v>
-      </c>
-      <c r="AU114" s="11">
-        <v>137718491</v>
-      </c>
-      <c r="AV114" s="11">
         <v>169993934</v>
       </c>
+      <c r="AU114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV114" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY114" s="11">
         <v>116492205</v>
       </c>
-      <c r="AZ114" s="11">
+      <c r="AX114" s="11">
         <v>117258180</v>
       </c>
-      <c r="BA114" s="11" t="s">
-        <v>58</v>
+      <c r="AY114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA114" s="11">
+        <v>103046067</v>
       </c>
       <c r="BB114" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>60</v>
       </c>
@@ -15508,8 +15508,8 @@
       <c r="AQ115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR115" s="13">
-        <v>0</v>
+      <c r="AR115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS115" s="13" t="s">
         <v>58</v>
@@ -15532,17 +15532,17 @@
       <c r="AY115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ115" s="13" t="s">
-        <v>58</v>
+      <c r="AZ115" s="13">
+        <v>79578452</v>
       </c>
       <c r="BA115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB115" s="13">
-        <v>79578452</v>
+      <c r="BB115" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>69</v>
       </c>
@@ -15604,68 +15604,68 @@
       <c r="V116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y116" s="11">
+      <c r="W116" s="11">
         <v>54385932</v>
       </c>
+      <c r="X116" s="11">
+        <v>62926501</v>
+      </c>
+      <c r="Y116" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Z116" s="11">
-        <v>62926501</v>
-      </c>
-      <c r="AA116" s="11" t="s">
-        <v>58</v>
+        <v>89781298</v>
+      </c>
+      <c r="AA116" s="11">
+        <v>106841745</v>
       </c>
       <c r="AB116" s="11">
-        <v>89781298</v>
+        <v>112870544</v>
       </c>
       <c r="AC116" s="11">
-        <v>106841745</v>
+        <v>110228526</v>
       </c>
       <c r="AD116" s="11">
-        <v>112870544</v>
+        <v>117957922</v>
       </c>
       <c r="AE116" s="11">
-        <v>110228526</v>
+        <v>145887650</v>
       </c>
       <c r="AF116" s="11">
-        <v>117957922</v>
+        <v>130710349</v>
       </c>
       <c r="AG116" s="11">
-        <v>145887650</v>
+        <v>130159729</v>
       </c>
       <c r="AH116" s="11">
-        <v>130710349</v>
+        <v>130886958</v>
       </c>
       <c r="AI116" s="11">
-        <v>130159729</v>
+        <v>151445808</v>
       </c>
       <c r="AJ116" s="11">
-        <v>130886958</v>
+        <v>154983452</v>
       </c>
       <c r="AK116" s="11">
-        <v>151445808</v>
+        <v>170148710</v>
       </c>
       <c r="AL116" s="11">
-        <v>154983452</v>
+        <v>156966941</v>
       </c>
       <c r="AM116" s="11">
-        <v>170148710</v>
+        <v>162628736</v>
       </c>
       <c r="AN116" s="11">
-        <v>156966941</v>
+        <v>158704014</v>
       </c>
       <c r="AO116" s="11">
-        <v>162628736</v>
+        <v>161346485</v>
       </c>
       <c r="AP116" s="11">
-        <v>158704014</v>
-      </c>
-      <c r="AQ116" s="11">
-        <v>161346485</v>
+        <v>158257844</v>
+      </c>
+      <c r="AQ116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR116" s="11" t="s">
         <v>58</v>
@@ -15701,7 +15701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>62</v>
       </c>
@@ -15823,44 +15823,44 @@
       <c r="AP117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR117" s="13">
-        <v>147785318</v>
-      </c>
-      <c r="AS117" s="13">
+      <c r="AQ117" s="13">
         <v>136751318</v>
       </c>
-      <c r="AT117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU117" s="13" t="s">
-        <v>58</v>
+      <c r="AR117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT117" s="13">
+        <v>172056105</v>
+      </c>
+      <c r="AU117" s="13">
+        <v>176138665</v>
       </c>
       <c r="AV117" s="13">
-        <v>172056105</v>
+        <v>137730512</v>
       </c>
       <c r="AW117" s="13">
-        <v>170114914</v>
+        <v>117879789</v>
       </c>
       <c r="AX117" s="13">
-        <v>137730512</v>
+        <v>121138413</v>
       </c>
       <c r="AY117" s="13">
-        <v>117879789</v>
+        <v>129768081</v>
       </c>
       <c r="AZ117" s="13">
-        <v>121138413</v>
-      </c>
-      <c r="BA117" s="13">
-        <v>129768081</v>
+        <v>127975656</v>
+      </c>
+      <c r="BA117" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB117" s="13">
-        <v>127975656</v>
+        <v>126909621</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>63</v>
       </c>
@@ -15922,27 +15922,27 @@
       <c r="V118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y118" s="11">
+      <c r="W118" s="11">
         <v>80237381</v>
       </c>
+      <c r="X118" s="11">
+        <v>64552672</v>
+      </c>
+      <c r="Y118" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Z118" s="11">
-        <v>64552672</v>
-      </c>
-      <c r="AA118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB118" s="11">
         <v>76482830</v>
       </c>
-      <c r="AC118" s="11">
+      <c r="AA118" s="11">
         <v>74329163</v>
       </c>
+      <c r="AB118" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC118" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD118" s="11" t="s">
         <v>58</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>70</v>
       </c>
@@ -16081,68 +16081,68 @@
       <c r="V119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X119" s="13" t="s">
-        <v>58</v>
+      <c r="W119" s="13">
+        <v>57390412</v>
+      </c>
+      <c r="X119" s="13">
+        <v>68432516</v>
       </c>
       <c r="Y119" s="13">
-        <v>57390412</v>
+        <v>74474175</v>
       </c>
       <c r="Z119" s="13">
-        <v>68432516</v>
+        <v>96726508</v>
       </c>
       <c r="AA119" s="13">
-        <v>74474175</v>
+        <v>106508594</v>
       </c>
       <c r="AB119" s="13">
-        <v>96726508</v>
+        <v>107235092</v>
       </c>
       <c r="AC119" s="13">
-        <v>106508594</v>
+        <v>111902446</v>
       </c>
       <c r="AD119" s="13">
-        <v>107235092</v>
+        <v>119218075</v>
       </c>
       <c r="AE119" s="13">
-        <v>111902446</v>
+        <v>130530897</v>
       </c>
       <c r="AF119" s="13">
-        <v>119218075</v>
+        <v>125259625</v>
       </c>
       <c r="AG119" s="13">
-        <v>130530897</v>
+        <v>119983761</v>
       </c>
       <c r="AH119" s="13">
-        <v>125259625</v>
+        <v>117168094</v>
       </c>
       <c r="AI119" s="13">
-        <v>119983761</v>
-      </c>
-      <c r="AJ119" s="13">
-        <v>117168094</v>
+        <v>125291264</v>
+      </c>
+      <c r="AJ119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK119" s="13">
-        <v>125291264</v>
-      </c>
-      <c r="AL119" s="13" t="s">
-        <v>58</v>
+        <v>141487718</v>
+      </c>
+      <c r="AL119" s="13">
+        <v>127956776</v>
       </c>
       <c r="AM119" s="13">
-        <v>141487718</v>
+        <v>146914703</v>
       </c>
       <c r="AN119" s="13">
-        <v>127956776</v>
+        <v>149605845</v>
       </c>
       <c r="AO119" s="13">
-        <v>146914703</v>
+        <v>141605307</v>
       </c>
       <c r="AP119" s="13">
-        <v>149605845</v>
-      </c>
-      <c r="AQ119" s="13">
-        <v>141605307</v>
+        <v>147785318</v>
+      </c>
+      <c r="AQ119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR119" s="13" t="s">
         <v>58</v>
@@ -16178,7 +16178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>65</v>
       </c>
@@ -16303,18 +16303,18 @@
       <c r="AQ120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT120" s="11">
+      <c r="AR120" s="11">
         <v>142564889</v>
       </c>
-      <c r="AU120" s="11">
+      <c r="AS120" s="11">
         <v>143728584</v>
       </c>
+      <c r="AT120" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU120" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV120" s="11" t="s">
         <v>58</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>66</v>
       </c>
@@ -16444,23 +16444,23 @@
       <c r="AK121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL121" s="13" t="s">
-        <v>58</v>
+      <c r="AL121" s="13">
+        <v>79874950</v>
       </c>
       <c r="AM121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN121" s="13">
-        <v>79874950</v>
-      </c>
-      <c r="AO121" s="13" t="s">
-        <v>58</v>
+      <c r="AN121" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO121" s="13">
+        <v>81612279</v>
       </c>
       <c r="AP121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ121" s="13">
-        <v>81612279</v>
+      <c r="AQ121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR121" s="13" t="s">
         <v>58</v>

--- a/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="94">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3314,107 +3314,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>468407</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>468407</v>
+        <v>524854</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>524854</v>
+        <v>529010</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>529010</v>
+        <v>526158</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>526158</v>
+        <v>535181</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>535181</v>
+        <v>453081</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>453081</v>
+        <v>493368</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>493368</v>
+        <v>355713</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>355713</v>
+        <v>261605</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>261605</v>
+        <v>505905</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>505905</v>
+        <v>534781</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>534781</v>
+        <v>527785</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>527785</v>
+        <v>405444</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>405444</v>
+        <v>420236</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>420236</v>
+        <v>367497</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>367497</v>
+        <v>430395</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>430395</v>
+        <v>513633</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>513633</v>
+        <v>528153</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>528153</v>
+        <v>469388</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>469388</v>
+        <v>423442</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>423442</v>
+        <v>495064</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>495064</v>
+        <v>422178</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>422178</v>
+        <v>286562</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>286562</v>
+        <v>457458</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>457458</v>
+        <v>433810</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>433810</v>
+        <v>568559</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>568559</v>
+        <v>502675</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>502675</v>
+        <v>522404</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>522404</v>
+        <v>493162</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>493162</v>
+        <v>530291</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>530291</v>
+        <v>345689</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>345689</v>
+        <v>489912</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>489912</v>
+        <v>508390</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>508390</v>
+        <v>559912</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,47 +3533,47 @@
       <c r="AN12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>58</v>
+      <c r="AO12" s="16" t="n">
+        <v>157204</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>157204</v>
+        <v>162356</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>162356</v>
+        <v>158524</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>158524</v>
+        <v>165783</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>165783</v>
+        <v>121091</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>121091</v>
+        <v>76607</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>76607</v>
+        <v>78624</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>78624</v>
+        <v>105781</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>105781</v>
+        <v>102583</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>102583</v>
+        <v>81505</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>81505</v>
+        <v>28520</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>28520</v>
+        <v>118393</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>118393</v>
+        <v>132186</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>132186</v>
+        <v>156985</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,71 +3668,71 @@
       <c r="AF13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG13" s="13" t="s">
-        <v>58</v>
+      <c r="AG13" s="13" t="n">
+        <v>172127</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>172127</v>
+        <v>156686</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>156686</v>
+        <v>228863</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>228863</v>
+        <v>315803</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>315803</v>
+        <v>331127</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>331127</v>
+        <v>326475</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>326475</v>
+        <v>269811</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>269811</v>
+        <v>232317</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>232317</v>
+        <v>315531</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>315531</v>
+        <v>373392</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>373392</v>
+        <v>354970</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>354970</v>
+        <v>330358</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>330358</v>
+        <v>213095</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>213095</v>
+        <v>245969</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>245969</v>
+        <v>318943</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>318943</v>
+        <v>339118</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>339118</v>
+        <v>344624</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>344624</v>
+        <v>271404</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>271404</v>
+        <v>197454</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>197454</v>
+        <v>284770</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>284770</v>
+        <v>330688</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>330688</v>
+        <v>388018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,68 +3791,68 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>108370</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>108370</v>
+        <v>104006</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>104006</v>
+        <v>119061</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>119061</v>
+        <v>143370</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>143370</v>
+        <v>113940</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>113940</v>
+        <v>120782</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>120782</v>
+        <v>115821</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>115821</v>
+        <v>113508</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>113508</v>
+        <v>151160</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>151160</v>
+        <v>147352</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>147352</v>
+        <v>160975</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>160975</v>
+        <v>161391</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>161391</v>
+        <v>87763</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>87763</v>
+        <v>107494</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>107494</v>
+        <v>135660</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>135660</v>
+        <v>179213</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>179213</v>
+        <v>172621</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>172621</v>
+        <v>155418</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>155418</v>
+        <v>161008</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>161008</v>
-      </c>
-      <c r="AO14" s="16" t="n">
         <v>124516</v>
+      </c>
+      <c r="AO14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP14" s="16" t="s">
         <v>58</v>
@@ -4010,47 +4010,47 @@
       <c r="AN15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AO15" s="13" t="n">
         <v>163728</v>
       </c>
+      <c r="AP15" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="13" t="s">
-        <v>58</v>
+      <c r="AR15" s="13" t="n">
+        <v>138868</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>138868</v>
+        <v>77913</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>77913</v>
+        <v>158592</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>158592</v>
+        <v>244246</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>244246</v>
+        <v>223132</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>223132</v>
+        <v>219798</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>219798</v>
+        <v>230549</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>230549</v>
+        <v>219564</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>219564</v>
+        <v>199837</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>199837</v>
+        <v>185368</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>185368</v>
+        <v>195487</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,8 +4109,8 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
         <v>0</v>
@@ -4136,8 +4136,8 @@
       <c r="AC16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="16" t="n">
-        <v>0</v>
+      <c r="AD16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE16" s="16" t="s">
         <v>58</v>
@@ -4268,68 +4268,68 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>219024</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>219024</v>
+        <v>199764</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>199764</v>
+        <v>202314</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>202314</v>
+        <v>156270</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>156270</v>
+        <v>200274</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>200274</v>
+        <v>207824</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>207824</v>
+        <v>175040</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>175040</v>
+        <v>147085</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>147085</v>
+        <v>161729</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>161729</v>
+        <v>181654</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>181654</v>
+        <v>145020</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>145020</v>
+        <v>131140</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>131140</v>
+        <v>58207</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>58207</v>
+        <v>37635</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>37635</v>
+        <v>72668</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>72668</v>
+        <v>138733</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>138733</v>
+        <v>170203</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>170203</v>
+        <v>176986</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>176986</v>
+        <v>157115</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>157115</v>
-      </c>
-      <c r="AO17" s="13" t="n">
         <v>149014</v>
+      </c>
+      <c r="AO17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP17" s="13" t="s">
         <v>58</v>
@@ -4490,14 +4490,14 @@
       <c r="AO18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="16" t="s">
-        <v>58</v>
+      <c r="AP18" s="16" t="n">
+        <v>188789</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>188789</v>
-      </c>
-      <c r="AR18" s="16" t="n">
         <v>173220</v>
+      </c>
+      <c r="AR18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS18" s="16" t="s">
         <v>58</v>
@@ -4586,8 +4586,8 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4613,8 +4613,8 @@
       <c r="AC19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="13" t="n">
-        <v>0</v>
+      <c r="AD19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>58</v>
@@ -4744,106 +4744,106 @@
         <v>0</v>
       </c>
       <c r="U20" s="18" t="n">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="V20" s="18" t="n">
-        <v>795801</v>
+        <v>828624</v>
       </c>
       <c r="W20" s="18" t="n">
-        <v>828624</v>
+        <v>850385</v>
       </c>
       <c r="X20" s="18" t="n">
-        <v>850385</v>
+        <v>825798</v>
       </c>
       <c r="Y20" s="18" t="n">
-        <v>825798</v>
+        <v>849395</v>
       </c>
       <c r="Z20" s="18" t="n">
-        <v>849395</v>
+        <v>781687</v>
       </c>
       <c r="AA20" s="18" t="n">
-        <v>781687</v>
+        <v>784229</v>
       </c>
       <c r="AB20" s="18" t="n">
-        <v>784229</v>
+        <v>616306</v>
       </c>
       <c r="AC20" s="18" t="n">
-        <v>616306</v>
+        <v>574494</v>
       </c>
       <c r="AD20" s="18" t="n">
-        <v>574494</v>
+        <v>834911</v>
       </c>
       <c r="AE20" s="18" t="n">
-        <v>834911</v>
+        <v>840776</v>
       </c>
       <c r="AF20" s="18" t="n">
-        <v>840776</v>
+        <v>820316</v>
       </c>
       <c r="AG20" s="18" t="n">
-        <v>820316</v>
+        <v>723541</v>
       </c>
       <c r="AH20" s="18" t="n">
-        <v>723541</v>
+        <v>722051</v>
       </c>
       <c r="AI20" s="18" t="n">
-        <v>722051</v>
+        <v>804688</v>
       </c>
       <c r="AJ20" s="18" t="n">
-        <v>804688</v>
+        <v>1064144</v>
       </c>
       <c r="AK20" s="18" t="n">
-        <v>1064144</v>
+        <v>1187584</v>
       </c>
       <c r="AL20" s="18" t="n">
-        <v>1187584</v>
+        <v>1187032</v>
       </c>
       <c r="AM20" s="18" t="n">
-        <v>1187032</v>
+        <v>1057322</v>
       </c>
       <c r="AN20" s="18" t="n">
-        <v>1057322</v>
+        <v>929289</v>
       </c>
       <c r="AO20" s="18" t="n">
-        <v>929289</v>
+        <v>1131527</v>
       </c>
       <c r="AP20" s="18" t="n">
-        <v>1131527</v>
+        <v>1146715</v>
       </c>
       <c r="AQ20" s="18" t="n">
-        <v>1146715</v>
+        <v>973276</v>
       </c>
       <c r="AR20" s="18" t="n">
-        <v>973276</v>
+        <v>1092467</v>
       </c>
       <c r="AS20" s="18" t="n">
-        <v>1092467</v>
+        <v>845909</v>
       </c>
       <c r="AT20" s="18" t="n">
-        <v>845909</v>
+        <v>1049727</v>
       </c>
       <c r="AU20" s="18" t="n">
-        <v>1049727</v>
+        <v>1144488</v>
       </c>
       <c r="AV20" s="18" t="n">
-        <v>1144488</v>
+        <v>1190435</v>
       </c>
       <c r="AW20" s="18" t="n">
-        <v>1190435</v>
+        <v>1160167</v>
       </c>
       <c r="AX20" s="18" t="n">
-        <v>1160167</v>
+        <v>1113749</v>
       </c>
       <c r="AY20" s="18" t="n">
-        <v>1113749</v>
+        <v>791227</v>
       </c>
       <c r="AZ20" s="18" t="n">
-        <v>791227</v>
+        <v>1092912</v>
       </c>
       <c r="BA20" s="18" t="n">
-        <v>1092912</v>
+        <v>1156632</v>
       </c>
       <c r="BB20" s="18" t="n">
-        <v>1156632</v>
+        <v>1300402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,8 +5019,8 @@
       <c r="AN22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="13" t="s">
-        <v>58</v>
+      <c r="AO22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP22" s="13" t="n">
         <v>0</v>
@@ -5178,17 +5178,17 @@
       <c r="AN23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP23" s="16" t="n">
-        <v>0</v>
+      <c r="AO23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="16" t="s">
-        <v>58</v>
+      <c r="AR23" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS23" s="16" t="n">
         <v>0</v>
@@ -5277,8 +5277,8 @@
       <c r="T24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="13" t="s">
-        <v>58</v>
+      <c r="U24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="13" t="n">
         <v>0</v>
@@ -5307,8 +5307,8 @@
       <c r="AD24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" s="13" t="n">
-        <v>0</v>
+      <c r="AE24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF24" s="13" t="s">
         <v>58</v>
@@ -5496,17 +5496,17 @@
       <c r="AN25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP25" s="16" t="n">
-        <v>0</v>
+      <c r="AO25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="16" t="s">
-        <v>58</v>
+      <c r="AR25" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS25" s="16" t="n">
         <v>0</v>
@@ -5595,8 +5595,8 @@
       <c r="T26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>58</v>
+      <c r="U26" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V26" s="13" t="n">
         <v>0</v>
@@ -5622,8 +5622,8 @@
       <c r="AC26" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" s="13" t="n">
-        <v>0</v>
+      <c r="AD26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE26" s="13" t="s">
         <v>58</v>
@@ -5655,11 +5655,11 @@
       <c r="AN26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP26" s="13" t="n">
-        <v>0</v>
+      <c r="AO26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ26" s="13" t="s">
         <v>58</v>
@@ -5754,8 +5754,8 @@
       <c r="T27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="16" t="s">
-        <v>58</v>
+      <c r="U27" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="16" t="n">
         <v>0</v>
@@ -5784,8 +5784,8 @@
       <c r="AD27" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE27" s="16" t="n">
-        <v>0</v>
+      <c r="AE27" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF27" s="16" t="s">
         <v>58</v>
@@ -5976,14 +5976,14 @@
       <c r="AO28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP28" s="13" t="s">
-        <v>58</v>
+      <c r="AP28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AR28" s="13" t="n">
-        <v>0</v>
+      <c r="AR28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>58</v>
@@ -6443,8 +6443,8 @@
       <c r="T32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="20" t="s">
-        <v>58</v>
+      <c r="U32" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="20" t="n">
         <v>0</v>
@@ -6601,106 +6601,106 @@
         <v>0</v>
       </c>
       <c r="U33" s="18" t="n">
-        <v>0</v>
+        <v>795801</v>
       </c>
       <c r="V33" s="18" t="n">
-        <v>795801</v>
+        <v>828624</v>
       </c>
       <c r="W33" s="18" t="n">
-        <v>828624</v>
+        <v>850385</v>
       </c>
       <c r="X33" s="18" t="n">
-        <v>850385</v>
+        <v>825798</v>
       </c>
       <c r="Y33" s="18" t="n">
-        <v>825798</v>
+        <v>849395</v>
       </c>
       <c r="Z33" s="18" t="n">
-        <v>849395</v>
+        <v>781687</v>
       </c>
       <c r="AA33" s="18" t="n">
-        <v>781687</v>
+        <v>784229</v>
       </c>
       <c r="AB33" s="18" t="n">
-        <v>784229</v>
+        <v>616306</v>
       </c>
       <c r="AC33" s="18" t="n">
-        <v>616306</v>
+        <v>574494</v>
       </c>
       <c r="AD33" s="18" t="n">
-        <v>574494</v>
+        <v>834911</v>
       </c>
       <c r="AE33" s="18" t="n">
-        <v>834911</v>
+        <v>840776</v>
       </c>
       <c r="AF33" s="18" t="n">
-        <v>840776</v>
+        <v>820316</v>
       </c>
       <c r="AG33" s="18" t="n">
-        <v>820316</v>
+        <v>723541</v>
       </c>
       <c r="AH33" s="18" t="n">
-        <v>723541</v>
+        <v>722051</v>
       </c>
       <c r="AI33" s="18" t="n">
-        <v>722051</v>
+        <v>804688</v>
       </c>
       <c r="AJ33" s="18" t="n">
-        <v>804688</v>
+        <v>1064144</v>
       </c>
       <c r="AK33" s="18" t="n">
-        <v>1064144</v>
+        <v>1187584</v>
       </c>
       <c r="AL33" s="18" t="n">
-        <v>1187584</v>
+        <v>1187032</v>
       </c>
       <c r="AM33" s="18" t="n">
-        <v>1187032</v>
+        <v>1057322</v>
       </c>
       <c r="AN33" s="18" t="n">
-        <v>1057322</v>
+        <v>929289</v>
       </c>
       <c r="AO33" s="18" t="n">
-        <v>929289</v>
+        <v>1131527</v>
       </c>
       <c r="AP33" s="18" t="n">
-        <v>1131527</v>
+        <v>1146715</v>
       </c>
       <c r="AQ33" s="18" t="n">
-        <v>1146715</v>
+        <v>973276</v>
       </c>
       <c r="AR33" s="18" t="n">
-        <v>973276</v>
+        <v>1092467</v>
       </c>
       <c r="AS33" s="18" t="n">
-        <v>1092467</v>
+        <v>845909</v>
       </c>
       <c r="AT33" s="18" t="n">
-        <v>845909</v>
+        <v>1049727</v>
       </c>
       <c r="AU33" s="18" t="n">
-        <v>1049727</v>
+        <v>1144488</v>
       </c>
       <c r="AV33" s="18" t="n">
-        <v>1144488</v>
+        <v>1190435</v>
       </c>
       <c r="AW33" s="18" t="n">
-        <v>1190435</v>
+        <v>1160167</v>
       </c>
       <c r="AX33" s="18" t="n">
-        <v>1160167</v>
+        <v>1113749</v>
       </c>
       <c r="AY33" s="18" t="n">
-        <v>1113749</v>
+        <v>791227</v>
       </c>
       <c r="AZ33" s="18" t="n">
-        <v>791227</v>
+        <v>1092912</v>
       </c>
       <c r="BA33" s="18" t="n">
-        <v>1092912</v>
+        <v>1156632</v>
       </c>
       <c r="BB33" s="18" t="n">
-        <v>1156632</v>
+        <v>1300402</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,38 +7193,38 @@
       <c r="T40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
+      <c r="U40" s="13" t="n">
+        <v>4840</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>4840</v>
+        <v>3507</v>
       </c>
       <c r="W40" s="13" t="n">
-        <v>3507</v>
+        <v>8329</v>
       </c>
       <c r="X40" s="13" t="n">
-        <v>8329</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="13" t="n">
-        <v>0</v>
+        <v>10783</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="13" t="n">
-        <v>0</v>
+        <v>7336</v>
       </c>
       <c r="AB40" s="13" t="n">
-        <v>7336</v>
+        <v>47037</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>47037</v>
+        <v>1063</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>1063</v>
-      </c>
-      <c r="AE40" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF40" s="13" t="s">
         <v>58</v>
@@ -7232,68 +7232,68 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13" t="n">
+        <v>24903</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>24903</v>
+        <v>218</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>218</v>
+        <v>16318</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>16318</v>
+        <v>30393</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>30393</v>
+        <v>36127</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>36127</v>
+        <v>45229</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>45229</v>
+        <v>74156</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>74156</v>
+        <v>34683</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>34683</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>0</v>
+        <v>50007</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>50007</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>0</v>
+        <v>20752</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>20752</v>
+        <v>44038</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>44038</v>
+        <v>18165</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>18165</v>
+        <v>35724</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>35724</v>
+        <v>27038</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>27038</v>
+        <v>46456</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>46456</v>
+        <v>54356</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>54356</v>
+        <v>70927</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>70927</v>
+        <v>43283</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>43283</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,47 +7412,47 @@
       <c r="AN41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="16" t="s">
-        <v>58</v>
+      <c r="AO41" s="16" t="n">
+        <v>73970</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>73970</v>
+        <v>53195</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>53195</v>
+        <v>20944</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>20944</v>
+        <v>64466</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>64466</v>
+        <v>88526</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>88526</v>
+        <v>68109</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>68109</v>
+        <v>71943</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>71943</v>
+        <v>92889</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>92889</v>
+        <v>92022</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>92022</v>
+        <v>76248</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>76248</v>
+        <v>67252</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>67252</v>
+        <v>104941</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>104941</v>
+        <v>157157</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>157157</v>
+        <v>78258</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7547,32 +7547,32 @@
       <c r="AF42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG42" s="13" t="s">
-        <v>58</v>
+      <c r="AG42" s="13" t="n">
+        <v>54</v>
       </c>
       <c r="AH42" s="13" t="n">
-        <v>54</v>
+        <v>9032</v>
       </c>
       <c r="AI42" s="13" t="n">
-        <v>9032</v>
+        <v>8191</v>
       </c>
       <c r="AJ42" s="13" t="n">
-        <v>8191</v>
+        <v>7846</v>
       </c>
       <c r="AK42" s="13" t="n">
-        <v>7846</v>
+        <v>10267</v>
       </c>
       <c r="AL42" s="13" t="n">
-        <v>10267</v>
-      </c>
-      <c r="AM42" s="13" t="n">
         <v>7446</v>
       </c>
+      <c r="AM42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO42" s="13" t="s">
-        <v>58</v>
+      <c r="AO42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP42" s="13" t="n">
         <v>0</v>
@@ -7581,16 +7581,16 @@
         <v>0</v>
       </c>
       <c r="AR42" s="13" t="n">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="AS42" s="13" t="n">
-        <v>15709</v>
+        <v>20884</v>
       </c>
       <c r="AT42" s="13" t="n">
-        <v>20884</v>
+        <v>11106</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="13" t="n">
         <v>0</v>
@@ -7670,68 +7670,68 @@
       <c r="T43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="16" t="s">
-        <v>58</v>
+      <c r="U43" s="16" t="n">
+        <v>79921</v>
       </c>
       <c r="V43" s="16" t="n">
-        <v>79921</v>
+        <v>69098</v>
       </c>
       <c r="W43" s="16" t="n">
-        <v>69098</v>
+        <v>75779</v>
       </c>
       <c r="X43" s="16" t="n">
-        <v>75779</v>
+        <v>90506</v>
       </c>
       <c r="Y43" s="16" t="n">
-        <v>90506</v>
+        <v>72512</v>
       </c>
       <c r="Z43" s="16" t="n">
-        <v>72512</v>
+        <v>93483</v>
       </c>
       <c r="AA43" s="16" t="n">
-        <v>93483</v>
+        <v>66471</v>
       </c>
       <c r="AB43" s="16" t="n">
-        <v>66471</v>
+        <v>46580</v>
       </c>
       <c r="AC43" s="16" t="n">
-        <v>46580</v>
+        <v>82485</v>
       </c>
       <c r="AD43" s="16" t="n">
-        <v>82485</v>
+        <v>47954</v>
       </c>
       <c r="AE43" s="16" t="n">
-        <v>47954</v>
+        <v>32964</v>
       </c>
       <c r="AF43" s="16" t="n">
-        <v>32964</v>
+        <v>46050</v>
       </c>
       <c r="AG43" s="16" t="n">
-        <v>46050</v>
+        <v>19916</v>
       </c>
       <c r="AH43" s="16" t="n">
-        <v>19916</v>
+        <v>30683</v>
       </c>
       <c r="AI43" s="16" t="n">
-        <v>30683</v>
+        <v>51773</v>
       </c>
       <c r="AJ43" s="16" t="n">
-        <v>51773</v>
+        <v>57033</v>
       </c>
       <c r="AK43" s="16" t="n">
-        <v>57033</v>
+        <v>67190</v>
       </c>
       <c r="AL43" s="16" t="n">
-        <v>67190</v>
+        <v>60256</v>
       </c>
       <c r="AM43" s="16" t="n">
-        <v>60256</v>
+        <v>71222</v>
       </c>
       <c r="AN43" s="16" t="n">
-        <v>71222</v>
-      </c>
-      <c r="AO43" s="16" t="n">
         <v>81738</v>
+      </c>
+      <c r="AO43" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP43" s="16" t="s">
         <v>58</v>
@@ -7889,47 +7889,47 @@
       <c r="AN44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP44" s="13" t="n">
+      <c r="AO44" s="13" t="n">
         <v>65074</v>
       </c>
+      <c r="AP44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
+      <c r="AR44" s="13" t="n">
+        <v>76454</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>76454</v>
+        <v>76101</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>76101</v>
+        <v>101557</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>101557</v>
+        <v>134315</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>134315</v>
+        <v>124518</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>124518</v>
+        <v>104704</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>104704</v>
+        <v>137162</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>137162</v>
+        <v>159275</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>159275</v>
+        <v>115320</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>115320</v>
+        <v>174245</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>174245</v>
+        <v>94373</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,8 +7988,8 @@
       <c r="T45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="16" t="s">
-        <v>58</v>
+      <c r="U45" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="16" t="n">
         <v>0</v>
@@ -8015,8 +8015,8 @@
       <c r="AC45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="16" t="n">
-        <v>0</v>
+      <c r="AD45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="16" t="s">
         <v>58</v>
@@ -8147,68 +8147,68 @@
       <c r="T46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="13" t="s">
-        <v>58</v>
+      <c r="U46" s="13" t="n">
+        <v>101102</v>
       </c>
       <c r="V46" s="13" t="n">
-        <v>101102</v>
+        <v>116345</v>
       </c>
       <c r="W46" s="13" t="n">
-        <v>116345</v>
+        <v>93110</v>
       </c>
       <c r="X46" s="13" t="n">
-        <v>93110</v>
+        <v>109943</v>
       </c>
       <c r="Y46" s="13" t="n">
-        <v>109943</v>
+        <v>99905</v>
       </c>
       <c r="Z46" s="13" t="n">
-        <v>99905</v>
+        <v>63318</v>
       </c>
       <c r="AA46" s="13" t="n">
-        <v>63318</v>
+        <v>78787</v>
       </c>
       <c r="AB46" s="13" t="n">
-        <v>78787</v>
+        <v>63593</v>
       </c>
       <c r="AC46" s="13" t="n">
-        <v>63593</v>
+        <v>77922</v>
       </c>
       <c r="AD46" s="13" t="n">
-        <v>77922</v>
+        <v>77499</v>
       </c>
       <c r="AE46" s="13" t="n">
-        <v>77499</v>
+        <v>79844</v>
       </c>
       <c r="AF46" s="13" t="n">
-        <v>79844</v>
+        <v>49469</v>
       </c>
       <c r="AG46" s="13" t="n">
-        <v>49469</v>
+        <v>34955</v>
       </c>
       <c r="AH46" s="13" t="n">
-        <v>34955</v>
+        <v>39543</v>
       </c>
       <c r="AI46" s="13" t="n">
-        <v>39543</v>
+        <v>49736</v>
       </c>
       <c r="AJ46" s="13" t="n">
-        <v>49736</v>
+        <v>69465</v>
       </c>
       <c r="AK46" s="13" t="n">
-        <v>69465</v>
+        <v>55348</v>
       </c>
       <c r="AL46" s="13" t="n">
-        <v>55348</v>
+        <v>76665</v>
       </c>
       <c r="AM46" s="13" t="n">
-        <v>76665</v>
+        <v>70177</v>
       </c>
       <c r="AN46" s="13" t="n">
-        <v>70177</v>
-      </c>
-      <c r="AO46" s="13" t="n">
         <v>65453</v>
+      </c>
+      <c r="AO46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP46" s="13" t="s">
         <v>58</v>
@@ -8369,14 +8369,14 @@
       <c r="AO47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP47" s="16" t="s">
-        <v>58</v>
+      <c r="AP47" s="16" t="n">
+        <v>70650</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>70650</v>
-      </c>
-      <c r="AR47" s="16" t="n">
         <v>81866</v>
+      </c>
+      <c r="AR47" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS47" s="16" t="s">
         <v>58</v>
@@ -8465,11 +8465,11 @@
       <c r="T48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>58</v>
+      <c r="U48" s="13" t="n">
+        <v>2138</v>
       </c>
       <c r="V48" s="13" t="n">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="W48" s="13" t="n">
         <v>0</v>
@@ -8492,8 +8492,8 @@
       <c r="AC48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD48" s="13" t="n">
-        <v>0</v>
+      <c r="AD48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE48" s="13" t="s">
         <v>58</v>
@@ -8623,106 +8623,106 @@
         <v>0</v>
       </c>
       <c r="U49" s="18" t="n">
-        <v>0</v>
+        <v>188001</v>
       </c>
       <c r="V49" s="18" t="n">
-        <v>188001</v>
+        <v>188950</v>
       </c>
       <c r="W49" s="18" t="n">
-        <v>188950</v>
+        <v>177218</v>
       </c>
       <c r="X49" s="18" t="n">
-        <v>177218</v>
+        <v>200449</v>
       </c>
       <c r="Y49" s="18" t="n">
-        <v>200449</v>
+        <v>183200</v>
       </c>
       <c r="Z49" s="18" t="n">
-        <v>183200</v>
+        <v>156801</v>
       </c>
       <c r="AA49" s="18" t="n">
-        <v>156801</v>
+        <v>152594</v>
       </c>
       <c r="AB49" s="18" t="n">
-        <v>152594</v>
+        <v>157210</v>
       </c>
       <c r="AC49" s="18" t="n">
-        <v>157210</v>
+        <v>161470</v>
       </c>
       <c r="AD49" s="18" t="n">
-        <v>161470</v>
+        <v>125453</v>
       </c>
       <c r="AE49" s="18" t="n">
-        <v>125453</v>
+        <v>112808</v>
       </c>
       <c r="AF49" s="18" t="n">
-        <v>112808</v>
+        <v>95519</v>
       </c>
       <c r="AG49" s="18" t="n">
-        <v>95519</v>
+        <v>54925</v>
       </c>
       <c r="AH49" s="18" t="n">
-        <v>54925</v>
+        <v>104161</v>
       </c>
       <c r="AI49" s="18" t="n">
-        <v>104161</v>
+        <v>109918</v>
       </c>
       <c r="AJ49" s="18" t="n">
-        <v>109918</v>
+        <v>150662</v>
       </c>
       <c r="AK49" s="18" t="n">
-        <v>150662</v>
+        <v>163198</v>
       </c>
       <c r="AL49" s="18" t="n">
-        <v>163198</v>
+        <v>180494</v>
       </c>
       <c r="AM49" s="18" t="n">
-        <v>180494</v>
+        <v>186628</v>
       </c>
       <c r="AN49" s="18" t="n">
-        <v>186628</v>
+        <v>221347</v>
       </c>
       <c r="AO49" s="18" t="n">
-        <v>221347</v>
+        <v>173727</v>
       </c>
       <c r="AP49" s="18" t="n">
-        <v>173727</v>
+        <v>123845</v>
       </c>
       <c r="AQ49" s="18" t="n">
-        <v>123845</v>
+        <v>152817</v>
       </c>
       <c r="AR49" s="18" t="n">
-        <v>152817</v>
+        <v>156629</v>
       </c>
       <c r="AS49" s="18" t="n">
-        <v>156629</v>
+        <v>206263</v>
       </c>
       <c r="AT49" s="18" t="n">
-        <v>206263</v>
+        <v>224810</v>
       </c>
       <c r="AU49" s="18" t="n">
-        <v>224810</v>
+        <v>224423</v>
       </c>
       <c r="AV49" s="18" t="n">
-        <v>224423</v>
+        <v>253131</v>
       </c>
       <c r="AW49" s="18" t="n">
-        <v>253131</v>
+        <v>223764</v>
       </c>
       <c r="AX49" s="18" t="n">
-        <v>223764</v>
+        <v>259866</v>
       </c>
       <c r="AY49" s="18" t="n">
-        <v>259866</v>
+        <v>280883</v>
       </c>
       <c r="AZ49" s="18" t="n">
-        <v>280883</v>
+        <v>291188</v>
       </c>
       <c r="BA49" s="18" t="n">
-        <v>291188</v>
+        <v>374685</v>
       </c>
       <c r="BB49" s="18" t="n">
-        <v>374685</v>
+        <v>193332</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,41 +8898,41 @@
       <c r="AN51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="13" t="s">
-        <v>58</v>
+      <c r="AO51" s="13" t="n">
+        <v>243848</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>243848</v>
+        <v>5127</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>5127</v>
+        <v>66996</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>66996</v>
+        <v>192229</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>192229</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>0</v>
+        <v>41692</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>41692</v>
+        <v>54586</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>54586</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>0</v>
+        <v>39812</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>39812</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="13" t="n">
         <v>0</v>
@@ -9057,17 +9057,17 @@
       <c r="AN52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP52" s="16" t="n">
-        <v>0</v>
+      <c r="AO52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="16" t="s">
-        <v>58</v>
+      <c r="AR52" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS52" s="16" t="n">
         <v>0</v>
@@ -9085,19 +9085,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>0</v>
+        <v>24977</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>24977</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,68 +9156,68 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>39779</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>39779</v>
+        <v>88287</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>88287</v>
+        <v>0</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>0</v>
+        <v>69757</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>69757</v>
+        <v>40062</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>40062</v>
+        <v>29678</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>29678</v>
+        <v>29839</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>29839</v>
+        <v>44822</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>44822</v>
+        <v>60374</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>60374</v>
+        <v>30989</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>30989</v>
+        <v>142786</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>142786</v>
+        <v>39773</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>39773</v>
+        <v>137483</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>137483</v>
+        <v>112583</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>112583</v>
+        <v>40347</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>40347</v>
+        <v>66548</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>66548</v>
+        <v>121959</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>121959</v>
+        <v>41583</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>41583</v>
+        <v>109774</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>109774</v>
-      </c>
-      <c r="AO53" s="13" t="n">
         <v>41463</v>
+      </c>
+      <c r="AO53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP53" s="13" t="s">
         <v>58</v>
@@ -9375,47 +9375,47 @@
       <c r="AN54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP54" s="16" t="n">
+      <c r="AO54" s="16" t="n">
         <v>210968</v>
       </c>
+      <c r="AP54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="16" t="s">
-        <v>58</v>
+      <c r="AR54" s="16" t="n">
+        <v>22743</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>22743</v>
+        <v>43991</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>43991</v>
+        <v>5080</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>5080</v>
+        <v>213858</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>213858</v>
+        <v>47965</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>47965</v>
+        <v>117567</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>117567</v>
+        <v>120315</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>120315</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>0</v>
+        <v>114794</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>114794</v>
+        <v>80572</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>80572</v>
+        <v>59851</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9474,23 +9474,23 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>2001</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>2001</v>
+        <v>1965</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>961</v>
+        <v>4396</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="13" t="n">
         <v>0</v>
@@ -9501,8 +9501,8 @@
       <c r="AC55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="13" t="n">
-        <v>0</v>
+      <c r="AD55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>58</v>
@@ -9534,11 +9534,11 @@
       <c r="AN55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP55" s="13" t="n">
-        <v>0</v>
+      <c r="AO55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ55" s="13" t="s">
         <v>58</v>
@@ -9633,68 +9633,68 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>92369</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>92369</v>
+        <v>114338</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>114338</v>
+        <v>65052</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>65052</v>
+        <v>135671</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>135671</v>
+        <v>32350</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>32350</v>
+        <v>122237</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>122237</v>
+        <v>125725</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>125725</v>
+        <v>59186</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>59186</v>
+        <v>79780</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>79780</v>
+        <v>118394</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>118394</v>
+        <v>49017</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>49017</v>
+        <v>142361</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>142361</v>
-      </c>
-      <c r="AH56" s="16" t="n">
         <v>86358</v>
       </c>
-      <c r="AI56" s="16" t="s">
-        <v>58</v>
+      <c r="AH56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI56" s="16" t="n">
+        <v>3664</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>3664</v>
+        <v>4789</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>4789</v>
+        <v>20153</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>20153</v>
+        <v>173777</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>173777</v>
+        <v>68177</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>68177</v>
-      </c>
-      <c r="AO56" s="16" t="n">
         <v>45006</v>
+      </c>
+      <c r="AO56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP56" s="16" t="s">
         <v>58</v>
@@ -9855,14 +9855,14 @@
       <c r="AO57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="13" t="s">
-        <v>58</v>
+      <c r="AP57" s="13" t="n">
+        <v>55071</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>55071</v>
-      </c>
-      <c r="AR57" s="13" t="n">
         <v>89571</v>
+      </c>
+      <c r="AR57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS57" s="13" t="s">
         <v>58</v>
@@ -9996,20 +9996,20 @@
       <c r="AI58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK58" s="16" t="n">
+      <c r="AJ58" s="16" t="n">
         <v>17649</v>
       </c>
+      <c r="AK58" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AL58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN58" s="16" t="n">
+      <c r="AM58" s="16" t="n">
         <v>23032</v>
+      </c>
+      <c r="AN58" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO58" s="16" t="s">
         <v>58</v>
@@ -10109,106 +10109,106 @@
         <v>0</v>
       </c>
       <c r="U59" s="20" t="n">
-        <v>0</v>
+        <v>134149</v>
       </c>
       <c r="V59" s="20" t="n">
-        <v>134149</v>
+        <v>204590</v>
       </c>
       <c r="W59" s="20" t="n">
-        <v>204590</v>
+        <v>65052</v>
       </c>
       <c r="X59" s="20" t="n">
-        <v>65052</v>
+        <v>206389</v>
       </c>
       <c r="Y59" s="20" t="n">
-        <v>206389</v>
+        <v>76808</v>
       </c>
       <c r="Z59" s="20" t="n">
-        <v>76808</v>
+        <v>151915</v>
       </c>
       <c r="AA59" s="20" t="n">
-        <v>151915</v>
+        <v>155564</v>
       </c>
       <c r="AB59" s="20" t="n">
-        <v>155564</v>
+        <v>104008</v>
       </c>
       <c r="AC59" s="20" t="n">
-        <v>104008</v>
+        <v>140154</v>
       </c>
       <c r="AD59" s="20" t="n">
-        <v>140154</v>
+        <v>149383</v>
       </c>
       <c r="AE59" s="20" t="n">
-        <v>149383</v>
+        <v>191803</v>
       </c>
       <c r="AF59" s="20" t="n">
-        <v>191803</v>
+        <v>182134</v>
       </c>
       <c r="AG59" s="20" t="n">
-        <v>182134</v>
+        <v>223841</v>
       </c>
       <c r="AH59" s="20" t="n">
-        <v>223841</v>
+        <v>112583</v>
       </c>
       <c r="AI59" s="20" t="n">
-        <v>112583</v>
+        <v>44011</v>
       </c>
       <c r="AJ59" s="20" t="n">
-        <v>44011</v>
+        <v>88986</v>
       </c>
       <c r="AK59" s="20" t="n">
-        <v>88986</v>
+        <v>142112</v>
       </c>
       <c r="AL59" s="20" t="n">
-        <v>142112</v>
+        <v>215360</v>
       </c>
       <c r="AM59" s="20" t="n">
-        <v>215360</v>
+        <v>200983</v>
       </c>
       <c r="AN59" s="20" t="n">
-        <v>200983</v>
+        <v>86469</v>
       </c>
       <c r="AO59" s="20" t="n">
-        <v>86469</v>
+        <v>454816</v>
       </c>
       <c r="AP59" s="20" t="n">
-        <v>454816</v>
+        <v>60198</v>
       </c>
       <c r="AQ59" s="20" t="n">
-        <v>60198</v>
+        <v>156567</v>
       </c>
       <c r="AR59" s="20" t="n">
-        <v>156567</v>
+        <v>214972</v>
       </c>
       <c r="AS59" s="20" t="n">
-        <v>214972</v>
+        <v>43991</v>
       </c>
       <c r="AT59" s="20" t="n">
-        <v>43991</v>
+        <v>5080</v>
       </c>
       <c r="AU59" s="20" t="n">
-        <v>5080</v>
+        <v>255550</v>
       </c>
       <c r="AV59" s="20" t="n">
-        <v>255550</v>
+        <v>102551</v>
       </c>
       <c r="AW59" s="20" t="n">
-        <v>102551</v>
+        <v>117567</v>
       </c>
       <c r="AX59" s="20" t="n">
-        <v>117567</v>
+        <v>145292</v>
       </c>
       <c r="AY59" s="20" t="n">
-        <v>145292</v>
+        <v>39812</v>
       </c>
       <c r="AZ59" s="20" t="n">
-        <v>39812</v>
+        <v>114794</v>
       </c>
       <c r="BA59" s="20" t="n">
-        <v>114794</v>
+        <v>80537</v>
       </c>
       <c r="BB59" s="20" t="n">
-        <v>80537</v>
+        <v>59851</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,8 +10322,8 @@
       <c r="T61" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="20" t="s">
-        <v>58</v>
+      <c r="U61" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="20" t="n">
         <v>0</v>
@@ -10536,8 +10536,8 @@
       <c r="T63" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="20" t="s">
-        <v>58</v>
+      <c r="U63" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="20" t="n">
         <v>0</v>
@@ -10694,106 +10694,106 @@
         <v>0</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>0</v>
+        <v>322150</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>322150</v>
+        <v>393540</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>393540</v>
+        <v>242270</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>242270</v>
+        <v>406838</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>406838</v>
+        <v>260008</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>260008</v>
+        <v>308716</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>308716</v>
+        <v>308158</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>308158</v>
+        <v>261218</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>261218</v>
+        <v>301624</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>301624</v>
+        <v>274836</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>274836</v>
+        <v>304611</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>304611</v>
+        <v>277653</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>277653</v>
+        <v>278766</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>278766</v>
+        <v>216744</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>216744</v>
+        <v>153929</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>153929</v>
+        <v>239648</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>239648</v>
+        <v>305310</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>305310</v>
+        <v>395854</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>395854</v>
+        <v>387611</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>387611</v>
+        <v>307816</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>307816</v>
+        <v>628543</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>628543</v>
+        <v>184043</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>184043</v>
+        <v>309384</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>309384</v>
+        <v>371601</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>371601</v>
+        <v>250254</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>250254</v>
+        <v>229890</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>229890</v>
+        <v>479973</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>479973</v>
+        <v>355682</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>355682</v>
+        <v>341331</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>341331</v>
+        <v>405158</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>405158</v>
+        <v>320695</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>320695</v>
+        <v>405982</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>405982</v>
+        <v>455222</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>455222</v>
+        <v>253183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11286,35 +11286,35 @@
       <c r="T71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>58</v>
+      <c r="U71" s="13" t="n">
+        <v>67777</v>
       </c>
       <c r="V71" s="13" t="n">
-        <v>67777</v>
+        <v>56854</v>
       </c>
       <c r="W71" s="13" t="n">
-        <v>56854</v>
+        <v>150435</v>
       </c>
       <c r="X71" s="13" t="n">
-        <v>150435</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="13" t="n">
-        <v>0</v>
+        <v>261174</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>261174</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>0</v>
+        <v>191476</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>191476</v>
+        <v>1150213</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>1150213</v>
+        <v>27752</v>
       </c>
       <c r="AD71" s="13" t="n">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="13" t="n">
         <v>0</v>
@@ -11326,67 +11326,67 @@
         <v>0</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AI71" s="13" t="n">
-        <v>895116</v>
+        <v>7856</v>
       </c>
       <c r="AJ71" s="13" t="n">
-        <v>7856</v>
+        <v>569957</v>
       </c>
       <c r="AK71" s="13" t="n">
-        <v>569957</v>
+        <v>1096016</v>
       </c>
       <c r="AL71" s="13" t="n">
-        <v>1096016</v>
+        <v>1257921</v>
       </c>
       <c r="AM71" s="13" t="n">
-        <v>1257921</v>
+        <v>1568235</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>1568235</v>
+        <v>2766542</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>2766542</v>
+        <v>1468731</v>
       </c>
       <c r="AP71" s="13" t="n">
-        <v>1468731</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>0</v>
+        <v>1817350</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>1817350</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>0</v>
+        <v>695838</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>695838</v>
+        <v>1137049</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>1137049</v>
+        <v>487915</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>487915</v>
+        <v>1001422</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>1001422</v>
+        <v>788880</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>788880</v>
+        <v>1389211</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>1389211</v>
+        <v>1949853</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>1949853</v>
+        <v>2706146</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>2706146</v>
+        <v>1760598</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>1760598</v>
+        <v>865323</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11505,47 +11505,47 @@
       <c r="AN72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO72" s="16" t="s">
-        <v>58</v>
+      <c r="AO72" s="16" t="n">
+        <v>11054404</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>11054404</v>
+        <v>8357961</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>8357961</v>
+        <v>3580896</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>3580896</v>
+        <v>10811264</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>10811264</v>
+        <v>13335009</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>13335009</v>
+        <v>9655515</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>9655515</v>
+        <v>8912430</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>8912430</v>
+        <v>10966541</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>10966541</v>
+        <v>11562359</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>11562359</v>
+        <v>9840418</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>9840418</v>
+        <v>8218459</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>8218459</v>
+        <v>13945433</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>13945433</v>
+        <v>27619422</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>27619422</v>
+        <v>15368762</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11640,26 +11640,26 @@
       <c r="AF73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG73" s="13" t="s">
-        <v>58</v>
+      <c r="AG73" s="13" t="n">
+        <v>4449</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>4449</v>
+        <v>753174</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>753174</v>
+        <v>669679</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>669679</v>
+        <v>658525</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>658525</v>
+        <v>877656</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>877656</v>
+        <v>625730</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>625730</v>
+        <v>0</v>
       </c>
       <c r="AN73" s="13" t="n">
         <v>0</v>
@@ -11674,16 +11674,16 @@
         <v>0</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>1499746</v>
+        <v>1796654</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>1796654</v>
+        <v>896077</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="AV73" s="13" t="n">
         <v>0</v>
@@ -11763,68 +11763,68 @@
       <c r="T74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>58</v>
+      <c r="U74" s="16" t="n">
+        <v>4820961</v>
       </c>
       <c r="V74" s="16" t="n">
-        <v>4820961</v>
+        <v>4872331</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>4872331</v>
+        <v>5635016</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>5635016</v>
+        <v>8808188</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>8808188</v>
+        <v>7410055</v>
       </c>
       <c r="Z74" s="16" t="n">
-        <v>7410055</v>
+        <v>9597688</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>9597688</v>
+        <v>7182793</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>7182793</v>
+        <v>5895455</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>5895455</v>
+        <v>10362984</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>10362984</v>
+        <v>6660271</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>6660271</v>
+        <v>5483906</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>5483906</v>
+        <v>7771653</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>7771653</v>
+        <v>3383187</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>3383187</v>
+        <v>5157712</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>5157712</v>
+        <v>8537712</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>8537712</v>
+        <v>9278929</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>9278929</v>
+        <v>10294057</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>10294057</v>
+        <v>9248682</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>9248682</v>
+        <v>10695500</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>10695500</v>
-      </c>
-      <c r="AO74" s="16" t="n">
         <v>11968690</v>
+      </c>
+      <c r="AO74" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP74" s="16" t="s">
         <v>58</v>
@@ -11982,47 +11982,47 @@
       <c r="AN75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP75" s="13" t="n">
+      <c r="AO75" s="13" t="n">
         <v>8708087</v>
       </c>
+      <c r="AP75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR75" s="13" t="s">
-        <v>58</v>
+      <c r="AR75" s="13" t="n">
+        <v>11493740</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>11493740</v>
+        <v>11233491</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>11233491</v>
+        <v>14074611</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>14074611</v>
+        <v>17223509</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>17223509</v>
+        <v>15835461</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>15835461</v>
+        <v>13802666</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>13802666</v>
+        <v>18971461</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>18971461</v>
+        <v>23054075</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>23054075</v>
+        <v>18722987</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>18722987</v>
+        <v>34630807</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>34630807</v>
+        <v>19148284</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12081,8 +12081,8 @@
       <c r="T76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="16" t="s">
-        <v>58</v>
+      <c r="U76" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V76" s="16" t="n">
         <v>0</v>
@@ -12108,8 +12108,8 @@
       <c r="AC76" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD76" s="16" t="n">
-        <v>0</v>
+      <c r="AD76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE76" s="16" t="s">
         <v>58</v>
@@ -12240,68 +12240,68 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13" t="n">
+        <v>6376364</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>6376364</v>
+        <v>8522548</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>8522548</v>
+        <v>7500645</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>7500645</v>
+        <v>10341937</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>10341937</v>
+        <v>10097494</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>10097494</v>
+        <v>6191783</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>6191783</v>
+        <v>8870698</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>8870698</v>
+        <v>6876913</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>6876913</v>
+        <v>8189548</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>8189548</v>
+        <v>8400535</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>8400535</v>
+        <v>9420599</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>9420599</v>
+        <v>6098124</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>6098124</v>
+        <v>4582347</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>4582347</v>
+        <v>5347647</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>5347647</v>
+        <v>7004081</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>7004081</v>
+        <v>9067174</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>9067174</v>
+        <v>7522348</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>7522348</v>
+        <v>10349132</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>10349132</v>
+        <v>9056855</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>9056855</v>
-      </c>
-      <c r="AO77" s="13" t="n">
         <v>8331251</v>
+      </c>
+      <c r="AO77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP77" s="13" t="s">
         <v>58</v>
@@ -12462,14 +12462,14 @@
       <c r="AO78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="16" t="s">
-        <v>58</v>
+      <c r="AP78" s="16" t="n">
+        <v>10233422</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>10233422</v>
-      </c>
-      <c r="AR78" s="16" t="n">
         <v>12582850</v>
+      </c>
+      <c r="AR78" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS78" s="16" t="s">
         <v>58</v>
@@ -12558,11 +12558,11 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>45674</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="W79" s="13" t="n">
         <v>0</v>
@@ -12585,8 +12585,8 @@
       <c r="AC79" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD79" s="13" t="n">
-        <v>0</v>
+      <c r="AD79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE79" s="13" t="s">
         <v>58</v>
@@ -12594,11 +12594,11 @@
       <c r="AF79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH79" s="13" t="n">
-        <v>0</v>
+      <c r="AG79" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI79" s="13" t="s">
         <v>58</v>
@@ -12716,106 +12716,106 @@
         <v>0</v>
       </c>
       <c r="U80" s="18" t="n">
-        <v>0</v>
+        <v>11310776</v>
       </c>
       <c r="V80" s="18" t="n">
-        <v>11310776</v>
+        <v>13451733</v>
       </c>
       <c r="W80" s="18" t="n">
-        <v>13451733</v>
+        <v>13286096</v>
       </c>
       <c r="X80" s="18" t="n">
-        <v>13286096</v>
+        <v>19150125</v>
       </c>
       <c r="Y80" s="18" t="n">
-        <v>19150125</v>
+        <v>17768723</v>
       </c>
       <c r="Z80" s="18" t="n">
-        <v>17768723</v>
+        <v>15789471</v>
       </c>
       <c r="AA80" s="18" t="n">
-        <v>15789471</v>
+        <v>16244967</v>
       </c>
       <c r="AB80" s="18" t="n">
-        <v>16244967</v>
+        <v>13922581</v>
       </c>
       <c r="AC80" s="18" t="n">
-        <v>13922581</v>
+        <v>18580284</v>
       </c>
       <c r="AD80" s="18" t="n">
-        <v>18580284</v>
+        <v>15060806</v>
       </c>
       <c r="AE80" s="18" t="n">
-        <v>15060806</v>
+        <v>14904505</v>
       </c>
       <c r="AF80" s="18" t="n">
-        <v>14904505</v>
+        <v>13869777</v>
       </c>
       <c r="AG80" s="18" t="n">
-        <v>13869777</v>
+        <v>7969983</v>
       </c>
       <c r="AH80" s="18" t="n">
-        <v>7969983</v>
+        <v>12153649</v>
       </c>
       <c r="AI80" s="18" t="n">
-        <v>12153649</v>
+        <v>16219328</v>
       </c>
       <c r="AJ80" s="18" t="n">
-        <v>16219328</v>
+        <v>19574585</v>
       </c>
       <c r="AK80" s="18" t="n">
-        <v>19574585</v>
+        <v>19790077</v>
       </c>
       <c r="AL80" s="18" t="n">
-        <v>19790077</v>
+        <v>21481465</v>
       </c>
       <c r="AM80" s="18" t="n">
-        <v>21481465</v>
+        <v>21320590</v>
       </c>
       <c r="AN80" s="18" t="n">
-        <v>21320590</v>
+        <v>23066483</v>
       </c>
       <c r="AO80" s="18" t="n">
-        <v>23066483</v>
+        <v>21231222</v>
       </c>
       <c r="AP80" s="18" t="n">
-        <v>21231222</v>
+        <v>18591383</v>
       </c>
       <c r="AQ80" s="18" t="n">
-        <v>18591383</v>
+        <v>17981096</v>
       </c>
       <c r="AR80" s="18" t="n">
-        <v>17981096</v>
+        <v>23804750</v>
       </c>
       <c r="AS80" s="18" t="n">
-        <v>23804750</v>
+        <v>27060992</v>
       </c>
       <c r="AT80" s="18" t="n">
-        <v>27060992</v>
+        <v>25763252</v>
       </c>
       <c r="AU80" s="18" t="n">
-        <v>25763252</v>
+        <v>26623854</v>
       </c>
       <c r="AV80" s="18" t="n">
-        <v>26623854</v>
+        <v>27803424</v>
       </c>
       <c r="AW80" s="18" t="n">
-        <v>27803424</v>
+        <v>26153905</v>
       </c>
       <c r="AX80" s="18" t="n">
-        <v>26153905</v>
+        <v>30201090</v>
       </c>
       <c r="AY80" s="18" t="n">
-        <v>30201090</v>
+        <v>33222387</v>
       </c>
       <c r="AZ80" s="18" t="n">
-        <v>33222387</v>
+        <v>35374566</v>
       </c>
       <c r="BA80" s="18" t="n">
-        <v>35374566</v>
+        <v>64010827</v>
       </c>
       <c r="BB80" s="18" t="n">
-        <v>64010827</v>
+        <v>35382369</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12991,41 +12991,41 @@
       <c r="AN82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="13" t="s">
-        <v>58</v>
+      <c r="AO82" s="13" t="n">
+        <v>34651434</v>
       </c>
       <c r="AP82" s="13" t="n">
-        <v>34651434</v>
+        <v>721448</v>
       </c>
       <c r="AQ82" s="13" t="n">
-        <v>721448</v>
+        <v>9226588</v>
       </c>
       <c r="AR82" s="13" t="n">
-        <v>9226588</v>
+        <v>32677764</v>
       </c>
       <c r="AS82" s="13" t="n">
-        <v>32677764</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU82" s="13" t="n">
-        <v>0</v>
+        <v>4856793</v>
       </c>
       <c r="AV82" s="13" t="n">
-        <v>4856793</v>
+        <v>6400655</v>
       </c>
       <c r="AW82" s="13" t="n">
-        <v>6400655</v>
+        <v>0</v>
       </c>
       <c r="AX82" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AY82" s="13" t="n">
-        <v>0</v>
+        <v>4102470</v>
       </c>
       <c r="AZ82" s="13" t="n">
-        <v>4102470</v>
+        <v>0</v>
       </c>
       <c r="BA82" s="13" t="n">
         <v>0</v>
@@ -13150,17 +13150,17 @@
       <c r="AN83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP83" s="16" t="n">
-        <v>0</v>
+      <c r="AO83" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR83" s="16" t="s">
-        <v>58</v>
+      <c r="AR83" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS83" s="16" t="n">
         <v>0</v>
@@ -13178,19 +13178,19 @@
         <v>0</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>0</v>
+        <v>1987631</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>1987631</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>0</v>
+        <v>-2803</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>-2803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13249,68 +13249,68 @@
       <c r="T84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="13" t="s">
-        <v>58</v>
+      <c r="U84" s="13" t="n">
+        <v>2163418</v>
       </c>
       <c r="V84" s="13" t="n">
-        <v>2163418</v>
+        <v>5555592</v>
       </c>
       <c r="W84" s="13" t="n">
-        <v>5555592</v>
+        <v>0</v>
       </c>
       <c r="X84" s="13" t="n">
-        <v>0</v>
+        <v>6262874</v>
       </c>
       <c r="Y84" s="13" t="n">
-        <v>6262874</v>
+        <v>4280294</v>
       </c>
       <c r="Z84" s="13" t="n">
-        <v>4280294</v>
+        <v>3349772</v>
       </c>
       <c r="AA84" s="13" t="n">
-        <v>3349772</v>
+        <v>3289109</v>
       </c>
       <c r="AB84" s="13" t="n">
-        <v>3289109</v>
+        <v>5287110</v>
       </c>
       <c r="AC84" s="13" t="n">
-        <v>5287110</v>
+        <v>8807821</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>8807821</v>
+        <v>4050583</v>
       </c>
       <c r="AE84" s="13" t="n">
-        <v>4050583</v>
+        <v>18584987</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>18584987</v>
+        <v>5205767</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>5205767</v>
+        <v>20821224</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>20821224</v>
+        <v>17448502</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>17448502</v>
+        <v>6864990</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>6864990</v>
+        <v>10445836</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>10445836</v>
+        <v>19834038</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>19834038</v>
+        <v>6599389</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>6599389</v>
+        <v>17711649</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>17711649</v>
-      </c>
-      <c r="AO84" s="13" t="n">
         <v>6561845</v>
+      </c>
+      <c r="AO84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP84" s="13" t="s">
         <v>58</v>
@@ -13468,47 +13468,47 @@
       <c r="AN85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP85" s="16" t="n">
+      <c r="AO85" s="16" t="n">
         <v>28850152</v>
       </c>
+      <c r="AP85" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="16" t="s">
-        <v>58</v>
+      <c r="AR85" s="16" t="n">
+        <v>3913072</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>3913072</v>
+        <v>7748516</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>7748516</v>
+        <v>699671</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>699671</v>
+        <v>25209536</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>25209536</v>
+        <v>5810404</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>5810404</v>
+        <v>15256444</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>15256444</v>
+        <v>15397391</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>15397391</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>0</v>
+        <v>14568463</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>14568463</v>
+        <v>12494742</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>12494742</v>
+        <v>11457657</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13567,23 +13567,23 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
+      <c r="U86" s="13" t="n">
+        <v>160555</v>
       </c>
       <c r="V86" s="13" t="n">
-        <v>160555</v>
+        <v>126846</v>
       </c>
       <c r="W86" s="13" t="n">
-        <v>126846</v>
+        <v>0</v>
       </c>
       <c r="X86" s="13" t="n">
-        <v>0</v>
+        <v>73500</v>
       </c>
       <c r="Y86" s="13" t="n">
-        <v>73500</v>
+        <v>326751</v>
       </c>
       <c r="Z86" s="13" t="n">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="13" t="n">
         <v>0</v>
@@ -13594,11 +13594,11 @@
       <c r="AC86" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD86" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="13" t="s">
-        <v>58</v>
+      <c r="AD86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE86" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AF86" s="13" t="n">
         <v>0</v>
@@ -13630,8 +13630,8 @@
       <c r="AO86" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP86" s="13" t="n">
-        <v>0</v>
+      <c r="AP86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ86" s="13" t="s">
         <v>58</v>
@@ -13726,68 +13726,68 @@
       <c r="T87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>58</v>
+      <c r="U87" s="16" t="n">
+        <v>5301095</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>5301095</v>
+        <v>7824437</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>7824437</v>
+        <v>4844694</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>4844694</v>
+        <v>13122982</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>13122982</v>
+        <v>3445553</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>3445553</v>
+        <v>13108096</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>13108096</v>
+        <v>14068935</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>14068935</v>
+        <v>7056041</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>7056041</v>
+        <v>10413755</v>
       </c>
       <c r="AD87" s="16" t="n">
-        <v>10413755</v>
+        <v>14829988</v>
       </c>
       <c r="AE87" s="16" t="n">
-        <v>14829988</v>
+        <v>5881244</v>
       </c>
       <c r="AF87" s="16" t="n">
-        <v>5881244</v>
+        <v>16680167</v>
       </c>
       <c r="AG87" s="16" t="n">
-        <v>16680167</v>
+        <v>10819903</v>
       </c>
       <c r="AH87" s="16" t="n">
-        <v>10819903</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="16" t="n">
-        <v>0</v>
+        <v>518411</v>
       </c>
       <c r="AJ87" s="16" t="n">
-        <v>518411</v>
+        <v>612785</v>
       </c>
       <c r="AK87" s="16" t="n">
-        <v>612785</v>
+        <v>2960772</v>
       </c>
       <c r="AL87" s="16" t="n">
-        <v>2960772</v>
+        <v>25998055</v>
       </c>
       <c r="AM87" s="16" t="n">
-        <v>25998055</v>
+        <v>9654225</v>
       </c>
       <c r="AN87" s="16" t="n">
-        <v>9654225</v>
-      </c>
-      <c r="AO87" s="16" t="n">
         <v>6651226</v>
+      </c>
+      <c r="AO87" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP87" s="16" t="s">
         <v>58</v>
@@ -13948,14 +13948,14 @@
       <c r="AO88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP88" s="13" t="s">
-        <v>58</v>
+      <c r="AP88" s="13" t="n">
+        <v>7851191</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>7851191</v>
-      </c>
-      <c r="AR88" s="13" t="n">
         <v>12873913</v>
+      </c>
+      <c r="AR88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>58</v>
@@ -14089,23 +14089,23 @@
       <c r="AI89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ89" s="16" t="s">
-        <v>58</v>
+      <c r="AJ89" s="16" t="n">
+        <v>1409713</v>
       </c>
       <c r="AK89" s="16" t="n">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AM89" s="16" t="n">
-        <v>0</v>
+        <v>1879694</v>
       </c>
       <c r="AN89" s="16" t="n">
-        <v>1879694</v>
-      </c>
-      <c r="AO89" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO89" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP89" s="16" t="s">
         <v>58</v>
@@ -14202,106 +14202,106 @@
         <v>0</v>
       </c>
       <c r="U90" s="20" t="n">
-        <v>0</v>
+        <v>7625068</v>
       </c>
       <c r="V90" s="20" t="n">
-        <v>7625068</v>
+        <v>13506875</v>
       </c>
       <c r="W90" s="20" t="n">
-        <v>13506875</v>
+        <v>4844694</v>
       </c>
       <c r="X90" s="20" t="n">
-        <v>4844694</v>
+        <v>19459356</v>
       </c>
       <c r="Y90" s="20" t="n">
-        <v>19459356</v>
+        <v>8052598</v>
       </c>
       <c r="Z90" s="20" t="n">
-        <v>8052598</v>
+        <v>16457868</v>
       </c>
       <c r="AA90" s="20" t="n">
-        <v>16457868</v>
+        <v>17358044</v>
       </c>
       <c r="AB90" s="20" t="n">
-        <v>17358044</v>
+        <v>12343151</v>
       </c>
       <c r="AC90" s="20" t="n">
-        <v>12343151</v>
+        <v>19221576</v>
       </c>
       <c r="AD90" s="20" t="n">
-        <v>19221576</v>
+        <v>18880571</v>
       </c>
       <c r="AE90" s="20" t="n">
-        <v>18880571</v>
+        <v>24466231</v>
       </c>
       <c r="AF90" s="20" t="n">
-        <v>24466231</v>
+        <v>21885934</v>
       </c>
       <c r="AG90" s="20" t="n">
-        <v>21885934</v>
+        <v>31641127</v>
       </c>
       <c r="AH90" s="20" t="n">
-        <v>31641127</v>
+        <v>17448502</v>
       </c>
       <c r="AI90" s="20" t="n">
-        <v>17448502</v>
+        <v>7383401</v>
       </c>
       <c r="AJ90" s="20" t="n">
-        <v>7383401</v>
+        <v>12468334</v>
       </c>
       <c r="AK90" s="20" t="n">
-        <v>12468334</v>
+        <v>22794810</v>
       </c>
       <c r="AL90" s="20" t="n">
-        <v>22794810</v>
+        <v>32597444</v>
       </c>
       <c r="AM90" s="20" t="n">
-        <v>32597444</v>
+        <v>29245568</v>
       </c>
       <c r="AN90" s="20" t="n">
-        <v>29245568</v>
+        <v>13213071</v>
       </c>
       <c r="AO90" s="20" t="n">
-        <v>13213071</v>
+        <v>63501586</v>
       </c>
       <c r="AP90" s="20" t="n">
-        <v>63501586</v>
+        <v>8572639</v>
       </c>
       <c r="AQ90" s="20" t="n">
-        <v>8572639</v>
+        <v>22100501</v>
       </c>
       <c r="AR90" s="20" t="n">
-        <v>22100501</v>
+        <v>36590836</v>
       </c>
       <c r="AS90" s="20" t="n">
-        <v>36590836</v>
+        <v>7748516</v>
       </c>
       <c r="AT90" s="20" t="n">
-        <v>7748516</v>
+        <v>699671</v>
       </c>
       <c r="AU90" s="20" t="n">
-        <v>699671</v>
+        <v>30066329</v>
       </c>
       <c r="AV90" s="20" t="n">
-        <v>30066329</v>
+        <v>12211059</v>
       </c>
       <c r="AW90" s="20" t="n">
-        <v>12211059</v>
+        <v>15256444</v>
       </c>
       <c r="AX90" s="20" t="n">
-        <v>15256444</v>
+        <v>17385022</v>
       </c>
       <c r="AY90" s="20" t="n">
-        <v>17385022</v>
+        <v>4102470</v>
       </c>
       <c r="AZ90" s="20" t="n">
-        <v>4102470</v>
+        <v>14568463</v>
       </c>
       <c r="BA90" s="20" t="n">
-        <v>14568463</v>
+        <v>12491939</v>
       </c>
       <c r="BB90" s="20" t="n">
-        <v>12491939</v>
+        <v>11457657</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14417,8 +14417,8 @@
       <c r="T92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="20" t="s">
-        <v>58</v>
+      <c r="U92" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V92" s="23" t="n">
         <v>0</v>
@@ -14633,8 +14633,8 @@
       <c r="T94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U94" s="20" t="s">
-        <v>58</v>
+      <c r="U94" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V94" s="23" t="n">
         <v>0</v>
@@ -14849,8 +14849,8 @@
       <c r="T96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U96" s="13" t="s">
-        <v>58</v>
+      <c r="U96" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V96" s="13" t="n">
         <v>0</v>
@@ -15007,106 +15007,106 @@
         <v>0</v>
       </c>
       <c r="U97" s="18" t="n">
-        <v>0</v>
+        <v>18935844</v>
       </c>
       <c r="V97" s="18" t="n">
-        <v>18935844</v>
+        <v>26958608</v>
       </c>
       <c r="W97" s="18" t="n">
-        <v>26958608</v>
+        <v>18130790</v>
       </c>
       <c r="X97" s="18" t="n">
-        <v>18130790</v>
+        <v>38609481</v>
       </c>
       <c r="Y97" s="18" t="n">
-        <v>38609481</v>
+        <v>25821321</v>
       </c>
       <c r="Z97" s="18" t="n">
-        <v>25821321</v>
+        <v>32247339</v>
       </c>
       <c r="AA97" s="18" t="n">
-        <v>32247339</v>
+        <v>33603011</v>
       </c>
       <c r="AB97" s="18" t="n">
-        <v>33603011</v>
+        <v>26265732</v>
       </c>
       <c r="AC97" s="18" t="n">
-        <v>26265732</v>
+        <v>37801860</v>
       </c>
       <c r="AD97" s="18" t="n">
-        <v>37801860</v>
+        <v>33941377</v>
       </c>
       <c r="AE97" s="18" t="n">
-        <v>33941377</v>
+        <v>39370736</v>
       </c>
       <c r="AF97" s="18" t="n">
-        <v>39370736</v>
+        <v>35755711</v>
       </c>
       <c r="AG97" s="18" t="n">
-        <v>35755711</v>
+        <v>39611110</v>
       </c>
       <c r="AH97" s="18" t="n">
-        <v>39611110</v>
+        <v>29602151</v>
       </c>
       <c r="AI97" s="18" t="n">
-        <v>29602151</v>
+        <v>23602729</v>
       </c>
       <c r="AJ97" s="18" t="n">
-        <v>23602729</v>
+        <v>32042919</v>
       </c>
       <c r="AK97" s="18" t="n">
-        <v>32042919</v>
+        <v>42584887</v>
       </c>
       <c r="AL97" s="18" t="n">
-        <v>42584887</v>
+        <v>54078909</v>
       </c>
       <c r="AM97" s="18" t="n">
-        <v>54078909</v>
+        <v>50566158</v>
       </c>
       <c r="AN97" s="18" t="n">
-        <v>50566158</v>
+        <v>36279554</v>
       </c>
       <c r="AO97" s="18" t="n">
-        <v>36279554</v>
+        <v>84732808</v>
       </c>
       <c r="AP97" s="18" t="n">
-        <v>84732808</v>
+        <v>27164022</v>
       </c>
       <c r="AQ97" s="18" t="n">
-        <v>27164022</v>
+        <v>40081597</v>
       </c>
       <c r="AR97" s="18" t="n">
-        <v>40081597</v>
+        <v>60395586</v>
       </c>
       <c r="AS97" s="18" t="n">
-        <v>60395586</v>
+        <v>34809508</v>
       </c>
       <c r="AT97" s="18" t="n">
-        <v>34809508</v>
+        <v>26462923</v>
       </c>
       <c r="AU97" s="18" t="n">
-        <v>26462923</v>
+        <v>56690183</v>
       </c>
       <c r="AV97" s="18" t="n">
-        <v>56690183</v>
+        <v>40014483</v>
       </c>
       <c r="AW97" s="18" t="n">
-        <v>40014483</v>
+        <v>41410349</v>
       </c>
       <c r="AX97" s="18" t="n">
-        <v>41410349</v>
+        <v>47586112</v>
       </c>
       <c r="AY97" s="18" t="n">
-        <v>47586112</v>
+        <v>37324857</v>
       </c>
       <c r="AZ97" s="18" t="n">
-        <v>37324857</v>
+        <v>49943029</v>
       </c>
       <c r="BA97" s="18" t="n">
-        <v>49943029</v>
+        <v>76502766</v>
       </c>
       <c r="BB97" s="18" t="n">
-        <v>76502766</v>
+        <v>46840026</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15599,36 +15599,36 @@
       <c r="T104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U104" s="13" t="s">
-        <v>58</v>
+      <c r="U104" s="13" t="n">
+        <v>14003512</v>
       </c>
       <c r="V104" s="13" t="n">
-        <v>14003512</v>
+        <v>16211577</v>
       </c>
       <c r="W104" s="13" t="n">
-        <v>16211577</v>
-      </c>
-      <c r="X104" s="13" t="n">
         <v>18061592</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z104" s="13" t="n">
+      <c r="X104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y104" s="13" t="n">
         <v>24220903</v>
       </c>
-      <c r="AA104" s="13" t="s">
-        <v>58</v>
+      <c r="Z104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA104" s="13" t="n">
+        <v>26100872</v>
       </c>
       <c r="AB104" s="13" t="n">
-        <v>26100872</v>
+        <v>24453367</v>
       </c>
       <c r="AC104" s="13" t="n">
-        <v>24453367</v>
-      </c>
-      <c r="AD104" s="13" t="n">
         <v>26107244</v>
       </c>
+      <c r="AD104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE104" s="13" t="s">
         <v>58</v>
       </c>
@@ -15638,68 +15638,68 @@
       <c r="AG104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH104" s="13" t="s">
-        <v>58</v>
+      <c r="AH104" s="13" t="n">
+        <v>35944103</v>
       </c>
       <c r="AI104" s="13" t="n">
-        <v>35944103</v>
+        <v>36036697</v>
       </c>
       <c r="AJ104" s="13" t="n">
-        <v>36036697</v>
+        <v>34928116</v>
       </c>
       <c r="AK104" s="13" t="n">
-        <v>34928116</v>
+        <v>36061462</v>
       </c>
       <c r="AL104" s="13" t="n">
-        <v>36061462</v>
+        <v>34819415</v>
       </c>
       <c r="AM104" s="13" t="n">
-        <v>34819415</v>
+        <v>34673219</v>
       </c>
       <c r="AN104" s="13" t="n">
-        <v>34673219</v>
+        <v>37307055</v>
       </c>
       <c r="AO104" s="13" t="n">
-        <v>37307055</v>
-      </c>
-      <c r="AP104" s="13" t="n">
         <v>42347288</v>
       </c>
-      <c r="AQ104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR104" s="13" t="n">
+      <c r="AP104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ104" s="13" t="n">
         <v>36341912</v>
       </c>
-      <c r="AS104" s="13" t="s">
-        <v>58</v>
+      <c r="AR104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS104" s="13" t="n">
+        <v>33531130</v>
       </c>
       <c r="AT104" s="13" t="n">
-        <v>33531130</v>
+        <v>25819724</v>
       </c>
       <c r="AU104" s="13" t="n">
-        <v>25819724</v>
+        <v>26860171</v>
       </c>
       <c r="AV104" s="13" t="n">
-        <v>26860171</v>
+        <v>28032191</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>28032191</v>
+        <v>29176714</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>29176714</v>
+        <v>29903801</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>29903801</v>
+        <v>35871900</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>35871900</v>
+        <v>38153961</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>38153961</v>
+        <v>40676432</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>40676432</v>
+        <v>41801024</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15818,47 +15818,47 @@
       <c r="AN105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO105" s="16" t="s">
-        <v>58</v>
+      <c r="AO105" s="16" t="n">
+        <v>149444423</v>
       </c>
       <c r="AP105" s="16" t="n">
-        <v>149444423</v>
+        <v>157119297</v>
       </c>
       <c r="AQ105" s="16" t="n">
-        <v>157119297</v>
+        <v>170974790</v>
       </c>
       <c r="AR105" s="16" t="n">
-        <v>170974790</v>
+        <v>167704899</v>
       </c>
       <c r="AS105" s="16" t="n">
-        <v>167704899</v>
+        <v>150633814</v>
       </c>
       <c r="AT105" s="16" t="n">
-        <v>150633814</v>
+        <v>141765626</v>
       </c>
       <c r="AU105" s="16" t="n">
-        <v>141765626</v>
+        <v>123881823</v>
       </c>
       <c r="AV105" s="16" t="n">
-        <v>123881823</v>
+        <v>118060707</v>
       </c>
       <c r="AW105" s="16" t="n">
-        <v>118060707</v>
+        <v>125647769</v>
       </c>
       <c r="AX105" s="16" t="n">
-        <v>125647769</v>
+        <v>129058047</v>
       </c>
       <c r="AY105" s="16" t="n">
-        <v>129058047</v>
+        <v>122203934</v>
       </c>
       <c r="AZ105" s="16" t="n">
-        <v>122203934</v>
+        <v>132888318</v>
       </c>
       <c r="BA105" s="16" t="n">
-        <v>132888318</v>
+        <v>175744141</v>
       </c>
       <c r="BB105" s="16" t="n">
-        <v>175744141</v>
+        <v>196385826</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15953,27 +15953,27 @@
       <c r="AF106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG106" s="13" t="s">
-        <v>58</v>
+      <c r="AG106" s="13" t="n">
+        <v>82388889</v>
       </c>
       <c r="AH106" s="13" t="n">
-        <v>82388889</v>
+        <v>83389504</v>
       </c>
       <c r="AI106" s="13" t="n">
-        <v>83389504</v>
+        <v>81757905</v>
       </c>
       <c r="AJ106" s="13" t="n">
-        <v>81757905</v>
+        <v>83931303</v>
       </c>
       <c r="AK106" s="13" t="n">
-        <v>83931303</v>
+        <v>85483199</v>
       </c>
       <c r="AL106" s="13" t="n">
-        <v>85483199</v>
-      </c>
-      <c r="AM106" s="13" t="n">
         <v>84035724</v>
       </c>
+      <c r="AM106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN106" s="13" t="s">
         <v>58</v>
       </c>
@@ -15986,17 +15986,17 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
+      <c r="AR106" s="13" t="n">
+        <v>95470495</v>
       </c>
       <c r="AS106" s="13" t="n">
-        <v>95470495</v>
+        <v>86030167</v>
       </c>
       <c r="AT106" s="13" t="n">
-        <v>86030167</v>
-      </c>
-      <c r="AU106" s="13" t="n">
         <v>80684045</v>
+      </c>
+      <c r="AU106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV106" s="13" t="s">
         <v>58</v>
@@ -16076,68 +16076,68 @@
       <c r="T107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U107" s="16" t="s">
-        <v>58</v>
+      <c r="U107" s="16" t="n">
+        <v>60321580</v>
       </c>
       <c r="V107" s="16" t="n">
-        <v>60321580</v>
+        <v>70513343</v>
       </c>
       <c r="W107" s="16" t="n">
-        <v>70513343</v>
+        <v>74361182</v>
       </c>
       <c r="X107" s="16" t="n">
-        <v>74361182</v>
+        <v>97321592</v>
       </c>
       <c r="Y107" s="16" t="n">
-        <v>97321592</v>
+        <v>102190741</v>
       </c>
       <c r="Z107" s="16" t="n">
-        <v>102190741</v>
+        <v>102667736</v>
       </c>
       <c r="AA107" s="16" t="n">
-        <v>102667736</v>
+        <v>108059048</v>
       </c>
       <c r="AB107" s="16" t="n">
-        <v>108059048</v>
+        <v>126566230</v>
       </c>
       <c r="AC107" s="16" t="n">
-        <v>126566230</v>
+        <v>125634770</v>
       </c>
       <c r="AD107" s="16" t="n">
-        <v>125634770</v>
+        <v>138888748</v>
       </c>
       <c r="AE107" s="16" t="n">
-        <v>138888748</v>
+        <v>166360454</v>
       </c>
       <c r="AF107" s="16" t="n">
-        <v>166360454</v>
+        <v>168765537</v>
       </c>
       <c r="AG107" s="16" t="n">
-        <v>168765537</v>
+        <v>169872816</v>
       </c>
       <c r="AH107" s="16" t="n">
-        <v>169872816</v>
+        <v>168096731</v>
       </c>
       <c r="AI107" s="16" t="n">
-        <v>168096731</v>
+        <v>164906650</v>
       </c>
       <c r="AJ107" s="16" t="n">
-        <v>164906650</v>
+        <v>162694037</v>
       </c>
       <c r="AK107" s="16" t="n">
-        <v>162694037</v>
+        <v>153208171</v>
       </c>
       <c r="AL107" s="16" t="n">
-        <v>153208171</v>
+        <v>153489810</v>
       </c>
       <c r="AM107" s="16" t="n">
-        <v>153489810</v>
+        <v>150171295</v>
       </c>
       <c r="AN107" s="16" t="n">
-        <v>150171295</v>
-      </c>
-      <c r="AO107" s="16" t="n">
         <v>146427488</v>
+      </c>
+      <c r="AO107" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP107" s="16" t="s">
         <v>58</v>
@@ -16295,47 +16295,47 @@
       <c r="AN108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP108" s="13" t="n">
+      <c r="AO108" s="13" t="n">
         <v>133818222</v>
       </c>
+      <c r="AP108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="13" t="s">
-        <v>58</v>
+      <c r="AR108" s="13" t="n">
+        <v>150335365</v>
       </c>
       <c r="AS108" s="13" t="n">
-        <v>150335365</v>
+        <v>147612922</v>
       </c>
       <c r="AT108" s="13" t="n">
-        <v>147612922</v>
+        <v>138588290</v>
       </c>
       <c r="AU108" s="13" t="n">
-        <v>138588290</v>
+        <v>128232208</v>
       </c>
       <c r="AV108" s="13" t="n">
-        <v>128232208</v>
+        <v>127174071</v>
       </c>
       <c r="AW108" s="13" t="n">
-        <v>127174071</v>
+        <v>131825585</v>
       </c>
       <c r="AX108" s="13" t="n">
-        <v>131825585</v>
+        <v>138314263</v>
       </c>
       <c r="AY108" s="13" t="n">
-        <v>138314263</v>
+        <v>144743839</v>
       </c>
       <c r="AZ108" s="13" t="n">
-        <v>144743839</v>
+        <v>162356807</v>
       </c>
       <c r="BA108" s="13" t="n">
-        <v>162356807</v>
+        <v>198747780</v>
       </c>
       <c r="BB108" s="13" t="n">
-        <v>198747780</v>
+        <v>202900024</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16553,68 +16553,68 @@
       <c r="T110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U110" s="13" t="s">
-        <v>58</v>
+      <c r="U110" s="13" t="n">
+        <v>63068624</v>
       </c>
       <c r="V110" s="13" t="n">
-        <v>63068624</v>
+        <v>73252379</v>
       </c>
       <c r="W110" s="13" t="n">
-        <v>73252379</v>
+        <v>80556815</v>
       </c>
       <c r="X110" s="13" t="n">
-        <v>80556815</v>
+        <v>94066353</v>
       </c>
       <c r="Y110" s="13" t="n">
-        <v>94066353</v>
+        <v>101070957</v>
       </c>
       <c r="Z110" s="13" t="n">
-        <v>101070957</v>
+        <v>97788670</v>
       </c>
       <c r="AA110" s="13" t="n">
-        <v>97788670</v>
+        <v>112590884</v>
       </c>
       <c r="AB110" s="13" t="n">
-        <v>112590884</v>
+        <v>108139465</v>
       </c>
       <c r="AC110" s="13" t="n">
-        <v>108139465</v>
+        <v>105099304</v>
       </c>
       <c r="AD110" s="13" t="n">
-        <v>105099304</v>
+        <v>108395399</v>
       </c>
       <c r="AE110" s="13" t="n">
-        <v>108395399</v>
+        <v>117987563</v>
       </c>
       <c r="AF110" s="13" t="n">
-        <v>117987563</v>
+        <v>123271625</v>
       </c>
       <c r="AG110" s="13" t="n">
-        <v>123271625</v>
+        <v>131092748</v>
       </c>
       <c r="AH110" s="13" t="n">
-        <v>131092748</v>
+        <v>135236249</v>
       </c>
       <c r="AI110" s="13" t="n">
-        <v>135236249</v>
+        <v>140825177</v>
       </c>
       <c r="AJ110" s="13" t="n">
-        <v>140825177</v>
+        <v>130528669</v>
       </c>
       <c r="AK110" s="13" t="n">
-        <v>130528669</v>
+        <v>135910024</v>
       </c>
       <c r="AL110" s="13" t="n">
-        <v>135910024</v>
+        <v>134991613</v>
       </c>
       <c r="AM110" s="13" t="n">
-        <v>134991613</v>
+        <v>129057312</v>
       </c>
       <c r="AN110" s="13" t="n">
-        <v>129057312</v>
-      </c>
-      <c r="AO110" s="13" t="n">
         <v>127286007</v>
+      </c>
+      <c r="AO110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP110" s="13" t="s">
         <v>58</v>
@@ -16775,14 +16775,14 @@
       <c r="AO111" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP111" s="16" t="s">
-        <v>58</v>
+      <c r="AP111" s="16" t="n">
+        <v>144846737</v>
       </c>
       <c r="AQ111" s="16" t="n">
-        <v>144846737</v>
-      </c>
-      <c r="AR111" s="16" t="n">
         <v>153700559</v>
+      </c>
+      <c r="AR111" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS111" s="16" t="s">
         <v>58</v>
@@ -16871,11 +16871,11 @@
       <c r="T112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V112" s="13" t="n">
+      <c r="U112" s="13" t="n">
         <v>21362956</v>
+      </c>
+      <c r="V112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="W112" s="13" t="s">
         <v>58</v>
@@ -17147,41 +17147,41 @@
       <c r="AN114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO114" s="13" t="s">
-        <v>58</v>
+      <c r="AO114" s="13" t="n">
+        <v>142102597</v>
       </c>
       <c r="AP114" s="13" t="n">
-        <v>142102597</v>
+        <v>140715428</v>
       </c>
       <c r="AQ114" s="13" t="n">
-        <v>140715428</v>
+        <v>137718491</v>
       </c>
       <c r="AR114" s="13" t="n">
-        <v>137718491</v>
-      </c>
-      <c r="AS114" s="13" t="n">
         <v>169993934</v>
       </c>
+      <c r="AS114" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU114" s="13" t="s">
-        <v>58</v>
+      <c r="AU114" s="13" t="n">
+        <v>116492205</v>
       </c>
       <c r="AV114" s="13" t="n">
-        <v>116492205</v>
-      </c>
-      <c r="AW114" s="13" t="n">
         <v>117258180</v>
       </c>
+      <c r="AW114" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ114" s="13" t="n">
+      <c r="AY114" s="13" t="n">
         <v>103046067</v>
+      </c>
+      <c r="AZ114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA114" s="13" t="s">
         <v>58</v>
@@ -17333,20 +17333,20 @@
       <c r="AW115" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AX115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY115" s="16" t="n">
+      <c r="AX115" s="16" t="n">
         <v>79578452</v>
       </c>
+      <c r="AY115" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ115" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB115" s="16" t="n">
+      <c r="BA115" s="16" t="n">
         <v>80085714</v>
+      </c>
+      <c r="BB115" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17405,68 +17405,68 @@
       <c r="T116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="13" t="s">
-        <v>58</v>
+      <c r="U116" s="13" t="n">
+        <v>54385932</v>
       </c>
       <c r="V116" s="13" t="n">
-        <v>54385932</v>
-      </c>
-      <c r="W116" s="13" t="n">
         <v>62926501</v>
       </c>
-      <c r="X116" s="13" t="s">
-        <v>58</v>
+      <c r="W116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X116" s="13" t="n">
+        <v>89781298</v>
       </c>
       <c r="Y116" s="13" t="n">
-        <v>89781298</v>
+        <v>106841745</v>
       </c>
       <c r="Z116" s="13" t="n">
-        <v>106841745</v>
+        <v>112870544</v>
       </c>
       <c r="AA116" s="13" t="n">
-        <v>112870544</v>
+        <v>110228526</v>
       </c>
       <c r="AB116" s="13" t="n">
-        <v>110228526</v>
+        <v>117957922</v>
       </c>
       <c r="AC116" s="13" t="n">
-        <v>117957922</v>
+        <v>145887650</v>
       </c>
       <c r="AD116" s="13" t="n">
-        <v>145887650</v>
+        <v>130710349</v>
       </c>
       <c r="AE116" s="13" t="n">
-        <v>130710349</v>
+        <v>130159729</v>
       </c>
       <c r="AF116" s="13" t="n">
-        <v>130159729</v>
+        <v>130886958</v>
       </c>
       <c r="AG116" s="13" t="n">
-        <v>130886958</v>
+        <v>151445808</v>
       </c>
       <c r="AH116" s="13" t="n">
-        <v>151445808</v>
+        <v>154983452</v>
       </c>
       <c r="AI116" s="13" t="n">
-        <v>154983452</v>
+        <v>170148710</v>
       </c>
       <c r="AJ116" s="13" t="n">
-        <v>170148710</v>
+        <v>156966941</v>
       </c>
       <c r="AK116" s="13" t="n">
-        <v>156966941</v>
+        <v>162628736</v>
       </c>
       <c r="AL116" s="13" t="n">
-        <v>162628736</v>
+        <v>158704014</v>
       </c>
       <c r="AM116" s="13" t="n">
-        <v>158704014</v>
+        <v>161346485</v>
       </c>
       <c r="AN116" s="13" t="n">
-        <v>161346485</v>
-      </c>
-      <c r="AO116" s="13" t="n">
         <v>158257844</v>
+      </c>
+      <c r="AO116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP116" s="13" t="s">
         <v>58</v>
@@ -17624,47 +17624,47 @@
       <c r="AN117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO117" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP117" s="16" t="n">
+      <c r="AO117" s="16" t="n">
         <v>136751318</v>
       </c>
+      <c r="AP117" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR117" s="16" t="s">
-        <v>58</v>
+      <c r="AR117" s="16" t="n">
+        <v>172056105</v>
       </c>
       <c r="AS117" s="16" t="n">
-        <v>172056105</v>
+        <v>176138665</v>
       </c>
       <c r="AT117" s="16" t="n">
-        <v>176138665</v>
+        <v>137730512</v>
       </c>
       <c r="AU117" s="16" t="n">
-        <v>137730512</v>
+        <v>117879789</v>
       </c>
       <c r="AV117" s="16" t="n">
-        <v>117879789</v>
+        <v>121138413</v>
       </c>
       <c r="AW117" s="16" t="n">
-        <v>121138413</v>
+        <v>129768081</v>
       </c>
       <c r="AX117" s="16" t="n">
-        <v>129768081</v>
-      </c>
-      <c r="AY117" s="16" t="n">
         <v>127975656</v>
       </c>
-      <c r="AZ117" s="16" t="s">
-        <v>58</v>
+      <c r="AY117" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ117" s="16" t="n">
+        <v>126909621</v>
       </c>
       <c r="BA117" s="16" t="n">
-        <v>126909621</v>
+        <v>155075485</v>
       </c>
       <c r="BB117" s="16" t="n">
-        <v>155075485</v>
+        <v>191436350</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17723,23 +17723,23 @@
       <c r="T118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="13" t="s">
-        <v>58</v>
+      <c r="U118" s="13" t="n">
+        <v>80237381</v>
       </c>
       <c r="V118" s="13" t="n">
-        <v>80237381</v>
-      </c>
-      <c r="W118" s="13" t="n">
         <v>64552672</v>
       </c>
-      <c r="X118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X118" s="13" t="n">
+        <v>76482830</v>
       </c>
       <c r="Y118" s="13" t="n">
-        <v>76482830</v>
-      </c>
-      <c r="Z118" s="13" t="n">
         <v>74329163</v>
+      </c>
+      <c r="Z118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA118" s="13" t="s">
         <v>58</v>
@@ -17882,68 +17882,68 @@
       <c r="T119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U119" s="16" t="s">
-        <v>58</v>
+      <c r="U119" s="16" t="n">
+        <v>57390412</v>
       </c>
       <c r="V119" s="16" t="n">
-        <v>57390412</v>
+        <v>68432516</v>
       </c>
       <c r="W119" s="16" t="n">
-        <v>68432516</v>
+        <v>74474175</v>
       </c>
       <c r="X119" s="16" t="n">
-        <v>74474175</v>
+        <v>96726508</v>
       </c>
       <c r="Y119" s="16" t="n">
-        <v>96726508</v>
+        <v>106508594</v>
       </c>
       <c r="Z119" s="16" t="n">
-        <v>106508594</v>
+        <v>107235092</v>
       </c>
       <c r="AA119" s="16" t="n">
-        <v>107235092</v>
+        <v>111902446</v>
       </c>
       <c r="AB119" s="16" t="n">
-        <v>111902446</v>
+        <v>119218075</v>
       </c>
       <c r="AC119" s="16" t="n">
-        <v>119218075</v>
+        <v>130530897</v>
       </c>
       <c r="AD119" s="16" t="n">
-        <v>130530897</v>
+        <v>125259625</v>
       </c>
       <c r="AE119" s="16" t="n">
-        <v>125259625</v>
+        <v>119983761</v>
       </c>
       <c r="AF119" s="16" t="n">
-        <v>119983761</v>
+        <v>117168094</v>
       </c>
       <c r="AG119" s="16" t="n">
-        <v>117168094</v>
-      </c>
-      <c r="AH119" s="16" t="n">
         <v>125291264</v>
       </c>
-      <c r="AI119" s="16" t="s">
-        <v>58</v>
+      <c r="AH119" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI119" s="16" t="n">
+        <v>141487718</v>
       </c>
       <c r="AJ119" s="16" t="n">
-        <v>141487718</v>
+        <v>127956776</v>
       </c>
       <c r="AK119" s="16" t="n">
-        <v>127956776</v>
+        <v>146914703</v>
       </c>
       <c r="AL119" s="16" t="n">
-        <v>146914703</v>
+        <v>149605845</v>
       </c>
       <c r="AM119" s="16" t="n">
-        <v>149605845</v>
+        <v>141605307</v>
       </c>
       <c r="AN119" s="16" t="n">
-        <v>141605307</v>
-      </c>
-      <c r="AO119" s="16" t="n">
         <v>147785318</v>
+      </c>
+      <c r="AO119" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP119" s="16" t="s">
         <v>58</v>
@@ -18104,14 +18104,14 @@
       <c r="AO120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP120" s="13" t="s">
-        <v>58</v>
+      <c r="AP120" s="13" t="n">
+        <v>142564889</v>
       </c>
       <c r="AQ120" s="13" t="n">
-        <v>142564889</v>
-      </c>
-      <c r="AR120" s="13" t="n">
         <v>143728584</v>
+      </c>
+      <c r="AR120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS120" s="13" t="s">
         <v>58</v>
@@ -18245,20 +18245,20 @@
       <c r="AI121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ121" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK121" s="16" t="n">
+      <c r="AJ121" s="16" t="n">
         <v>79874950</v>
       </c>
+      <c r="AK121" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AL121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM121" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN121" s="16" t="n">
+      <c r="AM121" s="16" t="n">
         <v>81612279</v>
+      </c>
+      <c r="AN121" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO121" s="16" t="s">
         <v>58</v>
